--- a/bcd/CREST/Appliance/Appliance_Characteristics.xlsx
+++ b/bcd/CREST/Appliance/Appliance_Characteristics.xlsx
@@ -582,23 +582,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -621,6 +609,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2880,11 +2880,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113190400"/>
-        <c:axId val="113188864"/>
+        <c:axId val="64158336"/>
+        <c:axId val="64512384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113190400"/>
+        <c:axId val="64158336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="365"/>
@@ -2896,12 +2896,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113188864"/>
+        <c:crossAx val="64512384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113188864"/>
+        <c:axId val="64512384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2912,14 +2912,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113190400"/>
+        <c:crossAx val="64158336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3260,7 +3259,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3619,95 +3618,95 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="29">
         <v>1500</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="26">
         <v>0</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="30">
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="32">
         <v>120</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="32">
         <v>4</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33">
+      <c r="E12" s="29"/>
+      <c r="F12" s="29">
         <v>449</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="26">
         <f t="shared" si="2"/>
         <v>37.416666666666664</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="30">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3785,33 +3784,33 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="27">
         <v>11000</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="28">
         <v>0</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="30">
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4084,7 +4083,7 @@
       <c r="E24" s="5">
         <v>5</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>864</v>
       </c>
       <c r="G24">
@@ -4099,7 +4098,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -4116,6 +4115,22 @@
       </c>
       <c r="D25" s="14">
         <v>1</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" ref="G25" si="4">F25/12</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" ref="H25" si="5">(C25/1000)*(E25/60)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" ref="I25" si="6">(G25*E25)/60</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" ref="J25" si="7">H25*G25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -7493,64 +7508,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="21"/>
+      <c r="H2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="26"/>
-      <c r="H3" s="18" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="22"/>
+      <c r="H3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="N3" s="21" t="s">
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
+      <c r="N3" s="18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7570,7 +7585,7 @@
       <c r="E4" s="17">
         <v>2</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="23" t="s">
         <v>75</v>
       </c>
       <c r="G4">
@@ -7616,7 +7631,7 @@
       <c r="E5" s="17">
         <v>2</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="23" t="s">
         <v>74</v>
       </c>
       <c r="G5">
@@ -7662,7 +7677,7 @@
       <c r="E6" s="17">
         <v>2</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="23"/>
       <c r="H6" s="15" t="s">
         <v>69</v>
       </c>
@@ -7680,14 +7695,14 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="22"/>
       <c r="H7" s="15" t="s">
         <v>70</v>
       </c>
@@ -7720,7 +7735,7 @@
       <c r="E8" s="17">
         <v>18</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="23" t="s">
         <v>75</v>
       </c>
       <c r="G8">
@@ -7759,22 +7774,22 @@
       <c r="E9" s="17">
         <v>18</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="23" t="s">
         <v>74</v>
       </c>
       <c r="G9">
         <f>AVERAGE(B10:B11)</f>
         <v>17.664999999999999</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7794,7 +7809,7 @@
       <c r="E10" s="17">
         <v>14</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="23"/>
       <c r="H10" s="15" t="s">
         <v>67</v>
       </c>
@@ -7834,7 +7849,7 @@
       <c r="E11" s="17">
         <v>16</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="23"/>
       <c r="H11" s="15" t="s">
         <v>68</v>
       </c>
@@ -7859,14 +7874,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="26"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="22"/>
       <c r="H12" s="15" t="s">
         <v>69</v>
       </c>
@@ -7899,7 +7914,7 @@
       <c r="E13" s="17">
         <v>2</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="23" t="s">
         <v>75</v>
       </c>
       <c r="G13">
@@ -7938,7 +7953,7 @@
       <c r="E14" s="17">
         <v>3</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="23" t="s">
         <v>74</v>
       </c>
       <c r="G14">
@@ -7977,8 +7992,8 @@
       <c r="E15" s="17">
         <v>2</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="H15" s="24" t="s">
+      <c r="F15" s="23"/>
+      <c r="H15" s="20" t="s">
         <v>75</v>
       </c>
       <c r="I15">
@@ -7990,15 +8005,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="26"/>
-      <c r="H16" s="24" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="22"/>
+      <c r="H16" s="20" t="s">
         <v>74</v>
       </c>
       <c r="I16">
@@ -8025,7 +8040,7 @@
       <c r="E17" s="17">
         <v>33</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
@@ -8043,7 +8058,7 @@
       <c r="E18" s="17">
         <v>33</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="23" t="s">
         <v>75</v>
       </c>
       <c r="G18">
@@ -8067,7 +8082,7 @@
       <c r="E19" s="17">
         <v>25</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="23" t="s">
         <v>74</v>
       </c>
       <c r="G19">
@@ -8091,26 +8106,26 @@
       <c r="E20" s="17">
         <v>31</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B21">
         <f>AVERAGE(G4,G8,G13,G18)</f>
         <v>29.392499999999998</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="35"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B22">
@@ -8169,13 +8184,13 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
@@ -8212,13 +8227,13 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
@@ -8255,7 +8270,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B33">
@@ -8264,7 +8279,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B34">
@@ -8281,17 +8296,17 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="H37" s="28" t="s">
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="H37" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="J37" s="28" t="s">
+      <c r="J37" s="24" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8367,13 +8382,13 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
       <c r="H41">
         <f>H38+B46</f>
         <v>120.32499999999999</v>
@@ -8439,29 +8454,29 @@
       <c r="E44" s="17">
         <v>30</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="20"/>
-      <c r="N44" s="18" t="s">
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="35"/>
+      <c r="N44" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="20"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="35"/>
     </row>
     <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
       <c r="H45" s="15" t="s">
         <v>78</v>
       </c>
@@ -8477,7 +8492,7 @@
       <c r="L45" s="17">
         <v>33</v>
       </c>
-      <c r="M45" s="27"/>
+      <c r="M45" s="23"/>
       <c r="N45" s="15" t="s">
         <v>33</v>
       </c>
@@ -8532,7 +8547,7 @@
       <c r="L46" s="17">
         <v>33</v>
       </c>
-      <c r="M46" s="27"/>
+      <c r="M46" s="23"/>
       <c r="N46" s="15" t="s">
         <v>70</v>
       </c>
@@ -8612,22 +8627,22 @@
       <c r="E48" s="17">
         <v>52</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="20"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="35"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
       <c r="H49" s="15" t="s">
         <v>78</v>
       </c>
@@ -8724,7 +8739,7 @@
       <c r="E52" s="17">
         <v>19</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="H52" s="20" t="s">
         <v>75</v>
       </c>
       <c r="I52">
@@ -8748,7 +8763,7 @@
       <c r="E53" s="17">
         <v>19</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="20" t="s">
         <v>74</v>
       </c>
       <c r="I53">
@@ -8775,23 +8790,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H9:L9"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="H44:L44"/>
     <mergeCell ref="H48:L48"/>
     <mergeCell ref="N44:R44"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bcd/CREST/Appliance/Appliance_Characteristics.xlsx
+++ b/bcd/CREST/Appliance/Appliance_Characteristics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
   <si>
     <t>Appliance Name</t>
   </si>
@@ -310,13 +310,16 @@
   </si>
   <si>
     <t>Ready</t>
+  </si>
+  <si>
+    <t>Once a week/15 min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +384,13 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -553,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -607,7 +617,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -621,6 +630,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2880,11 +2893,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="64158336"/>
-        <c:axId val="64512384"/>
+        <c:axId val="40493056"/>
+        <c:axId val="42166912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64158336"/>
+        <c:axId val="40493056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="365"/>
@@ -2896,12 +2909,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64512384"/>
+        <c:crossAx val="42166912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64512384"/>
+        <c:axId val="42166912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2912,7 +2925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64158336"/>
+        <c:crossAx val="40493056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3259,7 +3272,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3353,6 +3366,9 @@
       <c r="C3" s="6">
         <v>3500</v>
       </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
       <c r="E3" s="8">
         <v>16</v>
       </c>
@@ -3389,6 +3405,9 @@
       <c r="C4" s="6">
         <v>3200</v>
       </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
       <c r="E4" s="8">
         <v>27</v>
       </c>
@@ -3425,6 +3444,9 @@
       <c r="C5" s="4">
         <v>1300</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5" s="9">
         <v>124</v>
       </c>
@@ -3458,6 +3480,9 @@
       <c r="C6" s="9">
         <v>5535</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6" s="9">
         <v>75</v>
       </c>
@@ -3491,7 +3516,12 @@
       <c r="C7" s="4">
         <v>500</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>40</v>
+      </c>
       <c r="F7" s="10">
         <v>211</v>
       </c>
@@ -3501,15 +3531,15 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.722222222222221</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.8611111111111107</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3522,7 +3552,10 @@
       <c r="C8" s="4">
         <v>100</v>
       </c>
-      <c r="E8" s="5">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
         <v>122</v>
       </c>
       <c r="F8" s="8">
@@ -3558,7 +3591,7 @@
       <c r="D9" s="14">
         <v>3.3</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="10">
         <v>122</v>
       </c>
       <c r="F9" s="8">
@@ -3630,23 +3663,27 @@
       <c r="D11" s="26">
         <v>0</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="29">
+        <v>20</v>
+      </c>
+      <c r="F11" s="29">
+        <v>52</v>
+      </c>
       <c r="G11" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H11" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.4444444444444442</v>
       </c>
       <c r="J11" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3656,13 +3693,15 @@
       <c r="B12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>120</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>4</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="29">
+        <v>150</v>
+      </c>
       <c r="F12" s="29">
         <v>449</v>
       </c>
@@ -3672,41 +3711,41 @@
       </c>
       <c r="H12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I12" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>93.541666666666671</v>
       </c>
       <c r="J12" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11.225</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="26">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3796,23 +3835,30 @@
       <c r="D16" s="28">
         <v>0</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="E16" s="29">
+        <v>15</v>
+      </c>
+      <c r="F16" s="29">
+        <v>52</v>
+      </c>
       <c r="G16" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H16" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I16" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="J16" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11.916666666666666</v>
+      </c>
+      <c r="K16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4008,7 +4054,7 @@
       <c r="D22" s="14">
         <v>26</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="10">
         <v>122</v>
       </c>
       <c r="F22" s="8">
@@ -4083,12 +4129,12 @@
       <c r="E24" s="5">
         <v>5</v>
       </c>
-      <c r="F24" s="4">
-        <v>864</v>
+      <c r="F24" s="5">
+        <v>365</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>30.416666666666668</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
@@ -4096,11 +4142,11 @@
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J24" s="4">
+        <v>2.5347222222222223</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>2.5347222222222223</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4116,21 +4162,27 @@
       <c r="D25" s="14">
         <v>1</v>
       </c>
+      <c r="E25" s="10">
+        <v>50</v>
+      </c>
+      <c r="F25" s="10">
+        <v>365</v>
+      </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25" si="4">F25/12</f>
-        <v>0</v>
+        <v>30.416666666666668</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" ref="H25" si="5">(C25/1000)*(E25/60)</f>
-        <v>0</v>
+        <v>2.0833333333333336E-2</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ref="I25" si="6">(G25*E25)/60</f>
-        <v>0</v>
+        <v>25.347222222222225</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" ref="J25" si="7">H25*G25</f>
-        <v>0</v>
+        <v>0.63368055555555569</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -7508,13 +7560,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -7550,21 +7602,21 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="22"/>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
       <c r="N3" s="18" t="s">
         <v>62</v>
       </c>
@@ -7695,13 +7747,13 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="22"/>
       <c r="H7" s="15" t="s">
         <v>70</v>
@@ -7781,13 +7833,13 @@
         <f>AVERAGE(B10:B11)</f>
         <v>17.664999999999999</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="11"/>
       <c r="N9" s="18" t="s">
         <v>62</v>
@@ -7874,13 +7926,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="22"/>
       <c r="H12" s="15" t="s">
         <v>69</v>
@@ -8005,13 +8057,13 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="22"/>
       <c r="H16" s="20" t="s">
         <v>74</v>
@@ -8116,13 +8168,13 @@
         <f>AVERAGE(G4,G8,G13,G18)</f>
         <v>29.392499999999998</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -8184,13 +8236,13 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
@@ -8227,13 +8279,13 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
@@ -8296,13 +8348,13 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
       <c r="H37" s="24" t="s">
         <v>91</v>
       </c>
@@ -8382,13 +8434,13 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
       <c r="H41">
         <f>H38+B46</f>
         <v>120.32499999999999</v>
@@ -8454,29 +8506,29 @@
       <c r="E44" s="17">
         <v>30</v>
       </c>
-      <c r="H44" s="33" t="s">
+      <c r="H44" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="35"/>
-      <c r="N44" s="33" t="s">
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="34"/>
+      <c r="N44" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="35"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="34"/>
     </row>
     <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34"/>
       <c r="H45" s="15" t="s">
         <v>78</v>
       </c>
@@ -8627,22 +8679,22 @@
       <c r="E48" s="17">
         <v>52</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="35"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="34"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34"/>
       <c r="H49" s="15" t="s">
         <v>78</v>
       </c>
@@ -8790,11 +8842,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="N44:R44"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="A27:E27"/>
@@ -8802,11 +8854,11 @@
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="H9:L9"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bcd/CREST/Appliance/Appliance_Characteristics.xlsx
+++ b/bcd/CREST/Appliance/Appliance_Characteristics.xlsx
@@ -147,9 +147,6 @@
     <t>Range/Oven - Bake Element Only</t>
   </si>
   <si>
-    <t>Electric Range (Oven)</t>
-  </si>
-  <si>
     <t>Hours/Month</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>Once a week/15 min</t>
+  </si>
+  <si>
+    <t>Electric Range (Oven) - Large Element</t>
   </si>
 </sst>
 </file>
@@ -618,6 +618,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -630,10 +634,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2893,11 +2893,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40493056"/>
-        <c:axId val="42166912"/>
+        <c:axId val="42566016"/>
+        <c:axId val="42567552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40493056"/>
+        <c:axId val="42566016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="365"/>
@@ -2909,12 +2909,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42166912"/>
+        <c:crossAx val="42567552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42166912"/>
+        <c:axId val="42567552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,7 +2925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40493056"/>
+        <c:crossAx val="42566016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3272,7 +3272,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,7 +3314,7 @@
         <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>35</v>
@@ -3364,7 +3364,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="6">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
@@ -3389,10 +3389,10 @@
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J24" si="3">H3*G3</f>
-        <v>44.644444444444446</v>
+        <v>29.337777777777777</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3723,29 +3723,29 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="37">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>11.916666666666666</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4151,7 +4151,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>12</v>
@@ -4193,7 +4193,7 @@
         <v>41</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4206,25 +4206,25 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7560,70 +7560,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="H1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="F2" s="21"/>
       <c r="H2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="22"/>
+      <c r="H3" s="36" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="22"/>
-      <c r="H3" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38"/>
       <c r="N3" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="16">
         <v>44.63</v>
@@ -7638,14 +7638,14 @@
         <v>2</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4">
         <f>AVERAGE(B4:B5)</f>
         <v>44.515000000000001</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="16">
         <v>13.99</v>
@@ -7660,7 +7660,7 @@
         <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N4">
         <f>AVERAGE(I4:I6,I8)</f>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="5" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="16">
         <v>44.4</v>
@@ -7684,14 +7684,14 @@
         <v>2</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5">
         <f>B6</f>
         <v>43.46</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="16">
         <v>13.85</v>
@@ -7706,7 +7706,7 @@
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N5">
         <f>I7</f>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="6" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="16">
         <v>43.46</v>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="F6" s="23"/>
       <c r="H6" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="16">
         <v>19.09</v>
@@ -7747,16 +7747,16 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="22"/>
       <c r="H7" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="16">
         <v>8.32</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="8" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="16">
         <v>24.65</v>
@@ -7788,14 +7788,14 @@
         <v>18</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8">
         <f>AVERAGE(B8:B9)</f>
         <v>27.145</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" s="16">
         <v>14.41</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="9" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="16">
         <v>29.64</v>
@@ -7827,27 +7827,27 @@
         <v>18</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9">
         <f>AVERAGE(B10:B11)</f>
         <v>17.664999999999999</v>
       </c>
-      <c r="H9" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
+      <c r="H9" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="11"/>
       <c r="N9" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="16">
         <v>17.829999999999998</v>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="F10" s="23"/>
       <c r="H10" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="16">
         <v>4.1100000000000003</v>
@@ -7878,7 +7878,7 @@
         <v>15</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N10" s="11">
         <f>AVERAGE(I10:I12,I14)</f>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="11" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="16">
         <v>17.5</v>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="F11" s="23"/>
       <c r="H11" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="16">
         <v>2.42</v>
@@ -7918,7 +7918,7 @@
         <v>13</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N11" s="11">
         <f>I13</f>
@@ -7926,16 +7926,16 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="A12" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="22"/>
       <c r="H12" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="16">
         <v>6.8</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="13" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="16">
         <v>28.35</v>
@@ -7967,14 +7967,14 @@
         <v>2</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13">
         <f>AVERAGE(B13:B14)</f>
         <v>29.86</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="16">
         <v>1.66</v>
@@ -7991,7 +7991,7 @@
     </row>
     <row r="14" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="16">
         <v>31.37</v>
@@ -8006,14 +8006,14 @@
         <v>3</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14">
         <f>B15</f>
         <v>27.8</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I14" s="16">
         <v>3.3</v>
@@ -8030,7 +8030,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="16">
         <v>27.8</v>
@@ -8046,39 +8046,39 @@
       </c>
       <c r="F15" s="23"/>
       <c r="H15" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15">
         <f>AVERAGE(N4,N10)</f>
         <v>9.7462499999999999</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
+      <c r="A16" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="22"/>
       <c r="H16" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16">
         <f>AVERAGE(N5,N11)</f>
         <v>4.99</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="16">
         <v>15.95</v>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="16">
         <v>16.149999999999999</v>
@@ -8111,7 +8111,7 @@
         <v>33</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18">
         <f>AVERAGE(B17:B18)</f>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="16">
         <v>15.66</v>
@@ -8135,7 +8135,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19">
         <f>AVERAGE(B19:B20)</f>
@@ -8144,7 +8144,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="16">
         <v>15.47</v>
@@ -8162,30 +8162,30 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <f>AVERAGE(G4,G8,G13,G18)</f>
         <v>29.392499999999998</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="34"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22">
         <f>AVERAGE(G5,G9,G14,G19)</f>
         <v>26.122499999999999</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I22" s="16">
         <v>8.6199999999999992</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H23" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I23" s="16">
         <v>9.91</v>
@@ -8219,7 +8219,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H24" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" s="16">
         <v>5.04</v>
@@ -8236,17 +8236,17 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
+      <c r="A27" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="16">
         <v>1.26</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="16">
         <v>4.93</v>
@@ -8279,17 +8279,17 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
+      <c r="A30" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="16">
         <v>1.58</v>
@@ -8306,7 +8306,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="16">
         <v>131.07</v>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <f>AVERAGE(B29,B32)</f>
@@ -8332,7 +8332,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <f>AVERAGE(B28,B31)</f>
@@ -8341,30 +8341,30 @@
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
+      <c r="A37" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
       <c r="H37" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="16">
         <v>0.8</v>
@@ -8383,19 +8383,19 @@
         <v>46.354999999999997</v>
       </c>
       <c r="I38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J38">
         <f>AVERAGE(B38,B42)</f>
         <v>0.96499999999999997</v>
       </c>
       <c r="K38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="16">
         <v>65.099999999999994</v>
@@ -8412,7 +8412,7 @@
     </row>
     <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="16">
         <v>12.14</v>
@@ -8427,38 +8427,38 @@
         <v>14</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
+      <c r="A41" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
       <c r="H41">
         <f>H38+B46</f>
         <v>120.32499999999999</v>
       </c>
       <c r="I41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J41">
         <f>B47+J38</f>
         <v>3.8049999999999997</v>
       </c>
       <c r="K41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="16">
         <v>1.1299999999999999</v>
@@ -8475,7 +8475,7 @@
     </row>
     <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="16">
         <v>27.61</v>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="16">
         <v>1.38</v>
@@ -8506,31 +8506,31 @@
       <c r="E44" s="17">
         <v>30</v>
       </c>
-      <c r="H44" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="34"/>
-      <c r="N44" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="34"/>
+      <c r="H44" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="38"/>
+      <c r="N44" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="38"/>
     </row>
     <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
+      <c r="A45" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
       <c r="H45" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I45" s="16">
         <v>7.54</v>
@@ -8561,7 +8561,7 @@
         <v>24</v>
       </c>
       <c r="S45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T45">
         <f>AVERAGE(O45,O47)</f>
@@ -8570,7 +8570,7 @@
     </row>
     <row r="46" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" s="16">
         <v>73.97</v>
@@ -8585,7 +8585,7 @@
         <v>63</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I46" s="16">
         <v>9.91</v>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="M46" s="23"/>
       <c r="N46" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O46" s="16">
         <v>1.01</v>
@@ -8618,7 +8618,7 @@
     </row>
     <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="16">
         <v>2.84</v>
@@ -8633,7 +8633,7 @@
         <v>64</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I47" s="16">
         <v>1.55</v>
@@ -8648,7 +8648,7 @@
         <v>33</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O47" s="16">
         <v>23.34</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="16">
         <v>21.13</v>
@@ -8679,24 +8679,24 @@
       <c r="E48" s="17">
         <v>52</v>
       </c>
-      <c r="H48" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="34"/>
+      <c r="H48" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="38"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34"/>
+      <c r="A49" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
       <c r="H49" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I49" s="16">
         <v>13.51</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" s="16">
         <v>29.48</v>
@@ -8728,7 +8728,7 @@
         <v>13</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I50" s="16">
         <v>15.33</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" s="16">
         <v>44.28</v>
@@ -8760,7 +8760,7 @@
         <v>8</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I51" s="16">
         <v>5.04</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="16">
         <v>8.9</v>
@@ -8792,7 +8792,7 @@
         <v>19</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I52">
         <f>AVERAGE(I45:I46,I49:I50)</f>
@@ -8801,7 +8801,7 @@
     </row>
     <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" s="16">
         <v>4.42</v>
@@ -8816,7 +8816,7 @@
         <v>19</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I53">
         <f>AVERAGE(I47,I51)</f>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="16">
         <v>15.77</v>
@@ -8842,11 +8842,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="A27:E27"/>
@@ -8854,11 +8854,11 @@
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="H9:L9"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bcd/CREST/Appliance/Appliance_Characteristics.xlsx
+++ b/bcd/CREST/Appliance/Appliance_Characteristics.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="24915" windowHeight="12015"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="24915" windowHeight="12015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Standby" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="102">
   <si>
     <t>Appliance Name</t>
   </si>
@@ -313,6 +314,15 @@
   </si>
   <si>
     <t>Electric Range (Oven) - Large Element</t>
+  </si>
+  <si>
+    <t>Dryer</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>cycles/year</t>
   </si>
 </sst>
 </file>
@@ -2893,11 +2903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42566016"/>
-        <c:axId val="42567552"/>
+        <c:axId val="42584704"/>
+        <c:axId val="42586496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42566016"/>
+        <c:axId val="42584704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="365"/>
@@ -2909,12 +2919,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42567552"/>
+        <c:crossAx val="42586496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42567552"/>
+        <c:axId val="42586496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,7 +2935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42566016"/>
+        <c:crossAx val="42584704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2938,6 +2948,2382 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$3:$A$367</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="365"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$367</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="365"/>
+                <c:pt idx="0">
+                  <c:v>193.78980517669564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193.98978678707732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194.18473395696438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>194.37458891930305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194.55929541597058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194.73879871444572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>194.91304562402715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>195.08198451159501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195.24556531691087</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195.40373956745179</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195.55646039277366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195.7036825383999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>195.84536237923152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>195.98145793247392</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>196.11192887007752</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>196.23673653068772</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>196.35584393110108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>196.46921577722435</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>196.57681847453273</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>196.67862013802477</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>196.7745906016705</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>196.86470142735033</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>196.94892591328187</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>197.02723910193222</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>197.09961778741345</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>197.166040522359</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>197.22648762427897</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>197.28094118139251</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>197.32938505793544</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>197.37180489894166</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>197.40818813449675</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>197.4385239834628</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>197.4628034566731</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>197.48101935959571</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>197.49316629446548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>197.49924066188345</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>197.49924066188345</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>197.49316629446548</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>197.48101935959571</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>197.4628034566731</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>197.4385239834628</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>197.40818813449675</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>197.37180489894166</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>197.32938505793544</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>197.28094118139251</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>197.22648762427897</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>197.166040522359</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>197.09961778741345</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>197.02723910193222</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>196.94892591328187</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>196.86470142735033</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>196.7745906016705</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>196.67862013802477</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>196.57681847453273</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>196.46921577722435</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>196.35584393110108</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>196.23673653068772</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>196.11192887007752</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>195.98145793247392</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>195.84536237923152</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>195.7036825383999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>195.55646039277366</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>195.40373956745179</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>195.24556531691087</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>195.08198451159501</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>194.91304562402715</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>194.73879871444572</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>194.55929541597058</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>194.37458891930302</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>194.18473395696438</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>193.98978678707732</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>193.78980517669564</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>193.58484838468641</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>193.37497714417049</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>193.16025364452577</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>192.94074151295933</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>192.71650579565326</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>192.48761293848995</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>192.25413076736288</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>192.01612846807836</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>191.77367656585415</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>191.52684690442143</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>191.27571262473589</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>191.02034814330452</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>190.7608291301344</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>190.49723248631</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>190.22963632120579</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>189.95811992934065</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>189.68276376688132</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>189.40364942780141</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>189.12085961970334</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>188.83447813931042</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>188.54458984763582</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>188.25128064483673</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>187.95463744476007</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>187.65474814918807</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>187.35170162179116</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>187.04558766179571</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>186.73649697737451</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>186.42452115876813</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>186.10975265114456</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>185.79228472720592</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>185.47221145954953</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>185.14962769279239</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>184.82462901546651</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>184.49731173169403</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>184.16777283265017</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>183.83610996782284</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>183.50242141607669</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>183.16680605653119</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>182.82936333926057</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>182.49019325582458</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>182.1493963096388</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>181.80707348619339</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>181.46332622312889</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>181.11825638017802</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>180.77196620898243</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>180.42455832279344</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>180.07613566606537</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>179.72680148395102</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>179.37665929170777</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>179.02581284402387</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>178.67436610427367</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>178.32242321371098</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>177.97008846060984</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>177.61746624936163</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>177.26466106953768</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>176.91177746492698</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>176.55892000255744</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>176.20619324171042</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>175.85370170293763</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>175.50154983708941</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>175.14984199436367</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>174.79868239338467</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>174.44817509032083</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>174.09842394805062</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>173.74953260538575</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>173.40160444636072</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>173.05474256959798</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>172.7090497577575</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>172.36462844708009</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>172.02158069703333</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>171.68000816006909</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>171.34001205150187</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>171.00169311951635</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>170.66515161531356</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>170.33048726340439</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>169.99779923205895</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>169.66718610392093</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>169.33874584679538</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>169.01257578461883</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>168.68877256862007</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>168.36743214868017</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>168.04864974490067</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>167.73251981938776</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>167.41913604826095</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>167.10859129389502</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>166.80097757740279</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>166.49638605136732</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>166.19490697283138</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>165.89662967655238</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>165.60164254853058</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>165.31003299981836</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>165.02188744061846</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164.73729125467872</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>164.45632877399115</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>164.17908325380245</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>163.9056368479437</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>163.63607058448639</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>163.37046434173212</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>163.10889682454288</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>162.85144554101907</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>162.59818677953228</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>162.34919558611929</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>162.1045457422444</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>161.86430974293631</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>161.62855877530635</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>161.39736269745413</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>161.17079001776713</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>160.9489078746202</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>160.73178201648096</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>160.51947678242718</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>160.31205508308153</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>160.10957838197015</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>159.91210667730931</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>159.71969848422697</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>159.53241081742317</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>159.35029917427562</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>159.17341751839447</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>159.0018182636318</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>158.83555225855017</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>158.67466877135524</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>158.51921547529636</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>158.36923843454019</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>158.22478209052062</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>158.08588924877</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>157.95260106623493</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>157.82495703908046</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>157.70299499098664</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>157.58675106194045</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>157.47625969752684</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>157.37155363872171</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>157.27266391218996</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>157.17961982109182</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>157.09244893639951</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>157.01117708872749</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>156.93582836067824</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>156.86642507970598</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>156.80298781150077</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>156.74553535389418</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>156.69408473128942</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>156.64865118961632</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>156.60924819181383</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>156.57588741384055</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>156.54857874121498</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>156.52733026608624</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>156.51214828483606</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>156.50303729621311</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>156.5</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>156.50303729621311</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>156.51214828483606</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>156.52733026608624</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>156.54857874121498</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>156.57588741384055</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>156.60924819181383</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>156.64865118961632</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>156.69408473128942</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>156.74553535389418</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>156.80298781150077</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>156.866425079706</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>156.93582836067824</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>157.01117708872749</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>157.09244893639953</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>157.17961982109182</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>157.27266391218996</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>157.37155363872171</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>157.47625969752684</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>157.58675106194045</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>157.70299499098664</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>157.82495703908046</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>157.95260106623493</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>158.08588924877</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>158.22478209052062</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>158.36923843454019</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>158.51921547529639</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>158.67466877135524</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>158.83555225855017</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>159.00181826363178</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>159.17341751839447</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>159.35029917427562</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>159.53241081742317</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>159.71969848422697</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>159.91210667730931</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>160.10957838197015</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>160.31205508308153</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>160.51947678242715</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>160.73178201648099</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>160.9489078746202</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>161.17079001776713</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>161.3973626974541</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>161.62855877530635</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>161.86430974293631</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>162.1045457422444</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>162.34919558611929</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>162.59818677953228</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>162.85144554101907</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>163.10889682454288</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>163.37046434173212</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>163.63607058448639</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>163.9056368479437</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>164.17908325380245</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>164.45632877399115</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>164.73729125467872</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>165.02188744061846</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>165.31003299981836</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>165.60164254853058</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>165.89662967655238</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>166.19490697283138</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>166.49638605136732</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>166.80097757740279</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>167.10859129389502</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>167.41913604826095</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>167.73251981938776</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>168.0486497449007</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>168.36743214868017</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>168.68877256862007</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>169.01257578461886</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>169.3387458467954</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>169.66718610392093</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>169.99779923205895</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>170.33048726340439</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>170.66515161531359</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>171.00169311951635</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>171.3400120515019</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>171.68000816006912</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>172.02158069703333</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>172.36462844708009</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>172.7090497577575</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>173.05474256959798</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>173.40160444636072</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>173.74953260538572</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>174.09842394805062</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>174.4481750903208</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>174.79868239338467</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>175.14984199436367</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>175.50154983708941</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>175.85370170293763</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>176.20619324171042</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>176.55892000255744</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>176.91177746492698</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>177.26466106953768</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>177.61746624936163</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>177.97008846060984</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>178.32242321371098</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>178.67436610427367</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>179.02581284402387</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>179.37665929170777</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>179.72680148395102</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>180.07613566606537</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>180.42455832279344</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>180.77196620898243</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>181.11825638017802</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>181.46332622312889</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>181.80707348619339</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>182.1493963096388</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>182.49019325582455</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>182.82936333926057</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>183.16680605653119</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>183.50242141607666</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>183.83610996782281</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>184.16777283265017</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>184.49731173169403</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>184.82462901546651</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>185.14962769279242</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>185.47221145954953</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>185.79228472720592</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>186.10975265114456</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>186.42452115876813</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>186.73649697737451</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>187.04558766179571</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>187.35170162179116</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>187.65474814918807</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>187.95463744476007</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>188.25128064483673</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>188.54458984763582</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>188.83447813931039</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>189.12085961970334</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>189.40364942780138</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>189.68276376688132</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>189.95811992934063</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>190.22963632120579</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>190.49723248631</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>190.7608291301344</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>191.02034814330452</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>191.27571262473589</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>191.52684690442143</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>191.77367656585415</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>192.01612846807836</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>192.25413076736288</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>192.48761293848995</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>192.71650579565326</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>192.94074151295933</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>193.16025364452577</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>193.37497714417049</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>193.58484838468644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="114027904"/>
+        <c:axId val="114026368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="114027904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="365"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Day of the Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="114026368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="114026368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Cycles per Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="114027904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2960,6 +5346,41 @@
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>342</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3271,7 +5692,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -8842,11 +11263,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="N44:R44"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="A27:E27"/>
@@ -8854,12 +11275,3694 @@
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="H9:L9"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C367"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>(20.5*SIN(((2*PI()*A3)/365)-((1241*PI())/730)))+177</f>
+        <v>193.78980517669564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <f t="shared" ref="B4:B67" si="0">(20.5*SIN(((2*PI()*A4)/365)-((1241*PI())/730)))+177</f>
+        <v>193.98978678707732</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>194.18473395696438</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>194.37458891930305</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>194.55929541597058</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" si="0"/>
+        <v>194.73879871444572</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11">
+        <f t="shared" si="0"/>
+        <v>194.91304562402715</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" si="0"/>
+        <v>195.08198451159501</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <f t="shared" si="0"/>
+        <v>195.24556531691087</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11">
+        <f t="shared" si="0"/>
+        <v>195.40373956745179</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11">
+        <f t="shared" si="0"/>
+        <v>195.55646039277366</v>
+      </c>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
+        <f t="shared" si="0"/>
+        <v>195.7036825383999</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11">
+        <f t="shared" si="0"/>
+        <v>195.84536237923152</v>
+      </c>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11">
+        <f t="shared" si="0"/>
+        <v>195.98145793247392</v>
+      </c>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11">
+        <f t="shared" si="0"/>
+        <v>196.11192887007752</v>
+      </c>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11">
+        <f t="shared" si="0"/>
+        <v>196.23673653068772</v>
+      </c>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11">
+        <f t="shared" si="0"/>
+        <v>196.35584393110108</v>
+      </c>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11">
+        <f t="shared" si="0"/>
+        <v>196.46921577722435</v>
+      </c>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11">
+        <f t="shared" si="0"/>
+        <v>196.57681847453273</v>
+      </c>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11">
+        <f t="shared" si="0"/>
+        <v>196.67862013802477</v>
+      </c>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11">
+        <f t="shared" si="0"/>
+        <v>196.7745906016705</v>
+      </c>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11">
+        <f t="shared" si="0"/>
+        <v>196.86470142735033</v>
+      </c>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11">
+        <f t="shared" si="0"/>
+        <v>196.94892591328187</v>
+      </c>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11">
+        <f t="shared" si="0"/>
+        <v>197.02723910193222</v>
+      </c>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11">
+        <f t="shared" si="0"/>
+        <v>197.09961778741345</v>
+      </c>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11">
+        <f t="shared" si="0"/>
+        <v>197.166040522359</v>
+      </c>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11">
+        <f t="shared" si="0"/>
+        <v>197.22648762427897</v>
+      </c>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11">
+        <f t="shared" si="0"/>
+        <v>197.28094118139251</v>
+      </c>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11">
+        <f t="shared" si="0"/>
+        <v>197.32938505793544</v>
+      </c>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11">
+        <f t="shared" si="0"/>
+        <v>197.37180489894166</v>
+      </c>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="11">
+        <f t="shared" si="0"/>
+        <v>197.40818813449675</v>
+      </c>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="11">
+        <f t="shared" si="0"/>
+        <v>197.4385239834628</v>
+      </c>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="11">
+        <f t="shared" si="0"/>
+        <v>197.4628034566731</v>
+      </c>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
+      <c r="B36" s="11">
+        <f t="shared" si="0"/>
+        <v>197.48101935959571</v>
+      </c>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
+      <c r="B37" s="11">
+        <f t="shared" si="0"/>
+        <v>197.49316629446548</v>
+      </c>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="B38" s="11">
+        <f t="shared" si="0"/>
+        <v>197.49924066188345</v>
+      </c>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
+      <c r="B39" s="11">
+        <f t="shared" si="0"/>
+        <v>197.49924066188345</v>
+      </c>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="11">
+        <f t="shared" si="0"/>
+        <v>197.49316629446548</v>
+      </c>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="B41" s="11">
+        <f t="shared" si="0"/>
+        <v>197.48101935959571</v>
+      </c>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
+      <c r="B42" s="11">
+        <f t="shared" si="0"/>
+        <v>197.4628034566731</v>
+      </c>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11">
+        <f t="shared" si="0"/>
+        <v>197.4385239834628</v>
+      </c>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+      <c r="B44" s="11">
+        <f t="shared" si="0"/>
+        <v>197.40818813449675</v>
+      </c>
+      <c r="C44" s="11"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>43</v>
+      </c>
+      <c r="B45" s="11">
+        <f t="shared" si="0"/>
+        <v>197.37180489894166</v>
+      </c>
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11">
+        <f t="shared" si="0"/>
+        <v>197.32938505793544</v>
+      </c>
+      <c r="C46" s="11"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+      <c r="B47" s="11">
+        <f t="shared" si="0"/>
+        <v>197.28094118139251</v>
+      </c>
+      <c r="C47" s="11"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+      <c r="B48" s="11">
+        <f t="shared" si="0"/>
+        <v>197.22648762427897</v>
+      </c>
+      <c r="C48" s="11"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+      <c r="B49" s="11">
+        <f t="shared" si="0"/>
+        <v>197.166040522359</v>
+      </c>
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
+      <c r="B50" s="11">
+        <f t="shared" si="0"/>
+        <v>197.09961778741345</v>
+      </c>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>49</v>
+      </c>
+      <c r="B51" s="11">
+        <f t="shared" si="0"/>
+        <v>197.02723910193222</v>
+      </c>
+      <c r="C51" s="11"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11">
+        <f t="shared" si="0"/>
+        <v>196.94892591328187</v>
+      </c>
+      <c r="C52" s="11"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11">
+        <f t="shared" si="0"/>
+        <v>196.86470142735033</v>
+      </c>
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>52</v>
+      </c>
+      <c r="B54" s="11">
+        <f t="shared" si="0"/>
+        <v>196.7745906016705</v>
+      </c>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>53</v>
+      </c>
+      <c r="B55" s="11">
+        <f t="shared" si="0"/>
+        <v>196.67862013802477</v>
+      </c>
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>54</v>
+      </c>
+      <c r="B56" s="11">
+        <f t="shared" si="0"/>
+        <v>196.57681847453273</v>
+      </c>
+      <c r="C56" s="11"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>55</v>
+      </c>
+      <c r="B57" s="11">
+        <f t="shared" si="0"/>
+        <v>196.46921577722435</v>
+      </c>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>56</v>
+      </c>
+      <c r="B58" s="11">
+        <f t="shared" si="0"/>
+        <v>196.35584393110108</v>
+      </c>
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>57</v>
+      </c>
+      <c r="B59" s="11">
+        <f t="shared" si="0"/>
+        <v>196.23673653068772</v>
+      </c>
+      <c r="C59" s="11"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>58</v>
+      </c>
+      <c r="B60" s="11">
+        <f t="shared" si="0"/>
+        <v>196.11192887007752</v>
+      </c>
+      <c r="C60" s="11"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>59</v>
+      </c>
+      <c r="B61" s="11">
+        <f t="shared" si="0"/>
+        <v>195.98145793247392</v>
+      </c>
+      <c r="C61" s="11"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>60</v>
+      </c>
+      <c r="B62" s="11">
+        <f t="shared" si="0"/>
+        <v>195.84536237923152</v>
+      </c>
+      <c r="C62" s="11"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>61</v>
+      </c>
+      <c r="B63" s="11">
+        <f t="shared" si="0"/>
+        <v>195.7036825383999</v>
+      </c>
+      <c r="C63" s="11"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>62</v>
+      </c>
+      <c r="B64" s="11">
+        <f t="shared" si="0"/>
+        <v>195.55646039277366</v>
+      </c>
+      <c r="C64" s="11"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>63</v>
+      </c>
+      <c r="B65" s="11">
+        <f t="shared" si="0"/>
+        <v>195.40373956745179</v>
+      </c>
+      <c r="C65" s="11"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>64</v>
+      </c>
+      <c r="B66" s="11">
+        <f t="shared" si="0"/>
+        <v>195.24556531691087</v>
+      </c>
+      <c r="C66" s="11"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>65</v>
+      </c>
+      <c r="B67" s="11">
+        <f t="shared" si="0"/>
+        <v>195.08198451159501</v>
+      </c>
+      <c r="C67" s="11"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>66</v>
+      </c>
+      <c r="B68" s="11">
+        <f t="shared" ref="B68:B131" si="1">(20.5*SIN(((2*PI()*A68)/365)-((1241*PI())/730)))+177</f>
+        <v>194.91304562402715</v>
+      </c>
+      <c r="C68" s="11"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>67</v>
+      </c>
+      <c r="B69" s="11">
+        <f t="shared" si="1"/>
+        <v>194.73879871444572</v>
+      </c>
+      <c r="C69" s="11"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>68</v>
+      </c>
+      <c r="B70" s="11">
+        <f t="shared" si="1"/>
+        <v>194.55929541597058</v>
+      </c>
+      <c r="C70" s="11"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>69</v>
+      </c>
+      <c r="B71" s="11">
+        <f t="shared" si="1"/>
+        <v>194.37458891930302</v>
+      </c>
+      <c r="C71" s="11"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>70</v>
+      </c>
+      <c r="B72" s="11">
+        <f t="shared" si="1"/>
+        <v>194.18473395696438</v>
+      </c>
+      <c r="C72" s="11"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>71</v>
+      </c>
+      <c r="B73" s="11">
+        <f t="shared" si="1"/>
+        <v>193.98978678707732</v>
+      </c>
+      <c r="C73" s="11"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>72</v>
+      </c>
+      <c r="B74" s="11">
+        <f t="shared" si="1"/>
+        <v>193.78980517669564</v>
+      </c>
+      <c r="C74" s="11"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>73</v>
+      </c>
+      <c r="B75" s="11">
+        <f t="shared" si="1"/>
+        <v>193.58484838468641</v>
+      </c>
+      <c r="C75" s="11"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>74</v>
+      </c>
+      <c r="B76" s="11">
+        <f t="shared" si="1"/>
+        <v>193.37497714417049</v>
+      </c>
+      <c r="C76" s="11"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>75</v>
+      </c>
+      <c r="B77" s="11">
+        <f t="shared" si="1"/>
+        <v>193.16025364452577</v>
+      </c>
+      <c r="C77" s="11"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>76</v>
+      </c>
+      <c r="B78" s="11">
+        <f t="shared" si="1"/>
+        <v>192.94074151295933</v>
+      </c>
+      <c r="C78" s="11"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <v>77</v>
+      </c>
+      <c r="B79" s="11">
+        <f t="shared" si="1"/>
+        <v>192.71650579565326</v>
+      </c>
+      <c r="C79" s="11"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <v>78</v>
+      </c>
+      <c r="B80" s="11">
+        <f t="shared" si="1"/>
+        <v>192.48761293848995</v>
+      </c>
+      <c r="C80" s="11"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
+        <v>79</v>
+      </c>
+      <c r="B81" s="11">
+        <f t="shared" si="1"/>
+        <v>192.25413076736288</v>
+      </c>
+      <c r="C81" s="11"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <v>80</v>
+      </c>
+      <c r="B82" s="11">
+        <f t="shared" si="1"/>
+        <v>192.01612846807836</v>
+      </c>
+      <c r="C82" s="11"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <v>81</v>
+      </c>
+      <c r="B83" s="11">
+        <f t="shared" si="1"/>
+        <v>191.77367656585415</v>
+      </c>
+      <c r="C83" s="11"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <v>82</v>
+      </c>
+      <c r="B84" s="11">
+        <f t="shared" si="1"/>
+        <v>191.52684690442143</v>
+      </c>
+      <c r="C84" s="11"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <v>83</v>
+      </c>
+      <c r="B85" s="11">
+        <f t="shared" si="1"/>
+        <v>191.27571262473589</v>
+      </c>
+      <c r="C85" s="11"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>84</v>
+      </c>
+      <c r="B86" s="11">
+        <f t="shared" si="1"/>
+        <v>191.02034814330452</v>
+      </c>
+      <c r="C86" s="11"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>85</v>
+      </c>
+      <c r="B87" s="11">
+        <f t="shared" si="1"/>
+        <v>190.7608291301344</v>
+      </c>
+      <c r="C87" s="11"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
+        <v>86</v>
+      </c>
+      <c r="B88" s="11">
+        <f t="shared" si="1"/>
+        <v>190.49723248631</v>
+      </c>
+      <c r="C88" s="11"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="11">
+        <v>87</v>
+      </c>
+      <c r="B89" s="11">
+        <f t="shared" si="1"/>
+        <v>190.22963632120579</v>
+      </c>
+      <c r="C89" s="11"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
+        <v>88</v>
+      </c>
+      <c r="B90" s="11">
+        <f t="shared" si="1"/>
+        <v>189.95811992934065</v>
+      </c>
+      <c r="C90" s="11"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="11">
+        <v>89</v>
+      </c>
+      <c r="B91" s="11">
+        <f t="shared" si="1"/>
+        <v>189.68276376688132</v>
+      </c>
+      <c r="C91" s="11"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
+        <v>90</v>
+      </c>
+      <c r="B92" s="11">
+        <f t="shared" si="1"/>
+        <v>189.40364942780141</v>
+      </c>
+      <c r="C92" s="11"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
+        <v>91</v>
+      </c>
+      <c r="B93" s="11">
+        <f t="shared" si="1"/>
+        <v>189.12085961970334</v>
+      </c>
+      <c r="C93" s="11"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <v>92</v>
+      </c>
+      <c r="B94" s="11">
+        <f t="shared" si="1"/>
+        <v>188.83447813931042</v>
+      </c>
+      <c r="C94" s="11"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
+        <v>93</v>
+      </c>
+      <c r="B95" s="11">
+        <f t="shared" si="1"/>
+        <v>188.54458984763582</v>
+      </c>
+      <c r="C95" s="11"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
+        <v>94</v>
+      </c>
+      <c r="B96" s="11">
+        <f t="shared" si="1"/>
+        <v>188.25128064483673</v>
+      </c>
+      <c r="C96" s="11"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
+        <v>95</v>
+      </c>
+      <c r="B97" s="11">
+        <f t="shared" si="1"/>
+        <v>187.95463744476007</v>
+      </c>
+      <c r="C97" s="11"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="11">
+        <v>96</v>
+      </c>
+      <c r="B98" s="11">
+        <f t="shared" si="1"/>
+        <v>187.65474814918807</v>
+      </c>
+      <c r="C98" s="11"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
+        <v>97</v>
+      </c>
+      <c r="B99" s="11">
+        <f t="shared" si="1"/>
+        <v>187.35170162179116</v>
+      </c>
+      <c r="C99" s="11"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
+        <v>98</v>
+      </c>
+      <c r="B100" s="11">
+        <f t="shared" si="1"/>
+        <v>187.04558766179571</v>
+      </c>
+      <c r="C100" s="11"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="11">
+        <v>99</v>
+      </c>
+      <c r="B101" s="11">
+        <f t="shared" si="1"/>
+        <v>186.73649697737451</v>
+      </c>
+      <c r="C101" s="11"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <v>100</v>
+      </c>
+      <c r="B102" s="11">
+        <f t="shared" si="1"/>
+        <v>186.42452115876813</v>
+      </c>
+      <c r="C102" s="11"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="11">
+        <v>101</v>
+      </c>
+      <c r="B103" s="11">
+        <f t="shared" si="1"/>
+        <v>186.10975265114456</v>
+      </c>
+      <c r="C103" s="11"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
+        <v>102</v>
+      </c>
+      <c r="B104" s="11">
+        <f t="shared" si="1"/>
+        <v>185.79228472720592</v>
+      </c>
+      <c r="C104" s="11"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="11">
+        <v>103</v>
+      </c>
+      <c r="B105" s="11">
+        <f t="shared" si="1"/>
+        <v>185.47221145954953</v>
+      </c>
+      <c r="C105" s="11"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="11">
+        <v>104</v>
+      </c>
+      <c r="B106" s="11">
+        <f t="shared" si="1"/>
+        <v>185.14962769279239</v>
+      </c>
+      <c r="C106" s="11"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
+        <v>105</v>
+      </c>
+      <c r="B107" s="11">
+        <f t="shared" si="1"/>
+        <v>184.82462901546651</v>
+      </c>
+      <c r="C107" s="11"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
+        <v>106</v>
+      </c>
+      <c r="B108" s="11">
+        <f t="shared" si="1"/>
+        <v>184.49731173169403</v>
+      </c>
+      <c r="C108" s="11"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="11">
+        <v>107</v>
+      </c>
+      <c r="B109" s="11">
+        <f t="shared" si="1"/>
+        <v>184.16777283265017</v>
+      </c>
+      <c r="C109" s="11"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
+        <v>108</v>
+      </c>
+      <c r="B110" s="11">
+        <f t="shared" si="1"/>
+        <v>183.83610996782284</v>
+      </c>
+      <c r="C110" s="11"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="11">
+        <v>109</v>
+      </c>
+      <c r="B111" s="11">
+        <f t="shared" si="1"/>
+        <v>183.50242141607669</v>
+      </c>
+      <c r="C111" s="11"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="11">
+        <v>110</v>
+      </c>
+      <c r="B112" s="11">
+        <f t="shared" si="1"/>
+        <v>183.16680605653119</v>
+      </c>
+      <c r="C112" s="11"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="11">
+        <v>111</v>
+      </c>
+      <c r="B113" s="11">
+        <f t="shared" si="1"/>
+        <v>182.82936333926057</v>
+      </c>
+      <c r="C113" s="11"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="11">
+        <v>112</v>
+      </c>
+      <c r="B114" s="11">
+        <f t="shared" si="1"/>
+        <v>182.49019325582458</v>
+      </c>
+      <c r="C114" s="11"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="11">
+        <v>113</v>
+      </c>
+      <c r="B115" s="11">
+        <f t="shared" si="1"/>
+        <v>182.1493963096388</v>
+      </c>
+      <c r="C115" s="11"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="11">
+        <v>114</v>
+      </c>
+      <c r="B116" s="11">
+        <f t="shared" si="1"/>
+        <v>181.80707348619339</v>
+      </c>
+      <c r="C116" s="11"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="11">
+        <v>115</v>
+      </c>
+      <c r="B117" s="11">
+        <f t="shared" si="1"/>
+        <v>181.46332622312889</v>
+      </c>
+      <c r="C117" s="11"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="11">
+        <v>116</v>
+      </c>
+      <c r="B118" s="11">
+        <f t="shared" si="1"/>
+        <v>181.11825638017802</v>
+      </c>
+      <c r="C118" s="11"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="11">
+        <v>117</v>
+      </c>
+      <c r="B119" s="11">
+        <f t="shared" si="1"/>
+        <v>180.77196620898243</v>
+      </c>
+      <c r="C119" s="11"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="11">
+        <v>118</v>
+      </c>
+      <c r="B120" s="11">
+        <f t="shared" si="1"/>
+        <v>180.42455832279344</v>
+      </c>
+      <c r="C120" s="11"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="11">
+        <v>119</v>
+      </c>
+      <c r="B121" s="11">
+        <f t="shared" si="1"/>
+        <v>180.07613566606537</v>
+      </c>
+      <c r="C121" s="11"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="11">
+        <v>120</v>
+      </c>
+      <c r="B122" s="11">
+        <f t="shared" si="1"/>
+        <v>179.72680148395102</v>
+      </c>
+      <c r="C122" s="11"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="11">
+        <v>121</v>
+      </c>
+      <c r="B123" s="11">
+        <f t="shared" si="1"/>
+        <v>179.37665929170777</v>
+      </c>
+      <c r="C123" s="11"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="11">
+        <v>122</v>
+      </c>
+      <c r="B124" s="11">
+        <f t="shared" si="1"/>
+        <v>179.02581284402387</v>
+      </c>
+      <c r="C124" s="11"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="11">
+        <v>123</v>
+      </c>
+      <c r="B125" s="11">
+        <f t="shared" si="1"/>
+        <v>178.67436610427367</v>
+      </c>
+      <c r="C125" s="11"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="11">
+        <v>124</v>
+      </c>
+      <c r="B126" s="11">
+        <f t="shared" si="1"/>
+        <v>178.32242321371098</v>
+      </c>
+      <c r="C126" s="11"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="11">
+        <v>125</v>
+      </c>
+      <c r="B127" s="11">
+        <f t="shared" si="1"/>
+        <v>177.97008846060984</v>
+      </c>
+      <c r="C127" s="11"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="11">
+        <v>126</v>
+      </c>
+      <c r="B128" s="11">
+        <f t="shared" si="1"/>
+        <v>177.61746624936163</v>
+      </c>
+      <c r="C128" s="11"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="11">
+        <v>127</v>
+      </c>
+      <c r="B129" s="11">
+        <f t="shared" si="1"/>
+        <v>177.26466106953768</v>
+      </c>
+      <c r="C129" s="11"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="11">
+        <v>128</v>
+      </c>
+      <c r="B130" s="11">
+        <f t="shared" si="1"/>
+        <v>176.91177746492698</v>
+      </c>
+      <c r="C130" s="11"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="11">
+        <v>129</v>
+      </c>
+      <c r="B131" s="11">
+        <f t="shared" si="1"/>
+        <v>176.55892000255744</v>
+      </c>
+      <c r="C131" s="11"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="11">
+        <v>130</v>
+      </c>
+      <c r="B132" s="11">
+        <f t="shared" ref="B132:B195" si="2">(20.5*SIN(((2*PI()*A132)/365)-((1241*PI())/730)))+177</f>
+        <v>176.20619324171042</v>
+      </c>
+      <c r="C132" s="11"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="11">
+        <v>131</v>
+      </c>
+      <c r="B133" s="11">
+        <f t="shared" si="2"/>
+        <v>175.85370170293763</v>
+      </c>
+      <c r="C133" s="11"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="11">
+        <v>132</v>
+      </c>
+      <c r="B134" s="11">
+        <f t="shared" si="2"/>
+        <v>175.50154983708941</v>
+      </c>
+      <c r="C134" s="11"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="11">
+        <v>133</v>
+      </c>
+      <c r="B135" s="11">
+        <f t="shared" si="2"/>
+        <v>175.14984199436367</v>
+      </c>
+      <c r="C135" s="11"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="11">
+        <v>134</v>
+      </c>
+      <c r="B136" s="11">
+        <f t="shared" si="2"/>
+        <v>174.79868239338467</v>
+      </c>
+      <c r="C136" s="11"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="11">
+        <v>135</v>
+      </c>
+      <c r="B137" s="11">
+        <f t="shared" si="2"/>
+        <v>174.44817509032083</v>
+      </c>
+      <c r="C137" s="11"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="11">
+        <v>136</v>
+      </c>
+      <c r="B138" s="11">
+        <f t="shared" si="2"/>
+        <v>174.09842394805062</v>
+      </c>
+      <c r="C138" s="11"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="11">
+        <v>137</v>
+      </c>
+      <c r="B139" s="11">
+        <f t="shared" si="2"/>
+        <v>173.74953260538575</v>
+      </c>
+      <c r="C139" s="11"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="11">
+        <v>138</v>
+      </c>
+      <c r="B140" s="11">
+        <f t="shared" si="2"/>
+        <v>173.40160444636072</v>
+      </c>
+      <c r="C140" s="11"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="11">
+        <v>139</v>
+      </c>
+      <c r="B141" s="11">
+        <f t="shared" si="2"/>
+        <v>173.05474256959798</v>
+      </c>
+      <c r="C141" s="11"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="11">
+        <v>140</v>
+      </c>
+      <c r="B142" s="11">
+        <f t="shared" si="2"/>
+        <v>172.7090497577575</v>
+      </c>
+      <c r="C142" s="11"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="11">
+        <v>141</v>
+      </c>
+      <c r="B143" s="11">
+        <f t="shared" si="2"/>
+        <v>172.36462844708009</v>
+      </c>
+      <c r="C143" s="11"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="11">
+        <v>142</v>
+      </c>
+      <c r="B144" s="11">
+        <f t="shared" si="2"/>
+        <v>172.02158069703333</v>
+      </c>
+      <c r="C144" s="11"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="11">
+        <v>143</v>
+      </c>
+      <c r="B145" s="11">
+        <f t="shared" si="2"/>
+        <v>171.68000816006909</v>
+      </c>
+      <c r="C145" s="11"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="11">
+        <v>144</v>
+      </c>
+      <c r="B146" s="11">
+        <f t="shared" si="2"/>
+        <v>171.34001205150187</v>
+      </c>
+      <c r="C146" s="11"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="11">
+        <v>145</v>
+      </c>
+      <c r="B147" s="11">
+        <f t="shared" si="2"/>
+        <v>171.00169311951635</v>
+      </c>
+      <c r="C147" s="11"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="11">
+        <v>146</v>
+      </c>
+      <c r="B148" s="11">
+        <f t="shared" si="2"/>
+        <v>170.66515161531356</v>
+      </c>
+      <c r="C148" s="11"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="11">
+        <v>147</v>
+      </c>
+      <c r="B149" s="11">
+        <f t="shared" si="2"/>
+        <v>170.33048726340439</v>
+      </c>
+      <c r="C149" s="11"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="11">
+        <v>148</v>
+      </c>
+      <c r="B150" s="11">
+        <f t="shared" si="2"/>
+        <v>169.99779923205895</v>
+      </c>
+      <c r="C150" s="11"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="11">
+        <v>149</v>
+      </c>
+      <c r="B151" s="11">
+        <f t="shared" si="2"/>
+        <v>169.66718610392093</v>
+      </c>
+      <c r="C151" s="11"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="11">
+        <v>150</v>
+      </c>
+      <c r="B152" s="11">
+        <f t="shared" si="2"/>
+        <v>169.33874584679538</v>
+      </c>
+      <c r="C152" s="11"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="11">
+        <v>151</v>
+      </c>
+      <c r="B153" s="11">
+        <f t="shared" si="2"/>
+        <v>169.01257578461883</v>
+      </c>
+      <c r="C153" s="11"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="11">
+        <v>152</v>
+      </c>
+      <c r="B154" s="11">
+        <f t="shared" si="2"/>
+        <v>168.68877256862007</v>
+      </c>
+      <c r="C154" s="11"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="11">
+        <v>153</v>
+      </c>
+      <c r="B155" s="11">
+        <f t="shared" si="2"/>
+        <v>168.36743214868017</v>
+      </c>
+      <c r="C155" s="11"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="11">
+        <v>154</v>
+      </c>
+      <c r="B156" s="11">
+        <f t="shared" si="2"/>
+        <v>168.04864974490067</v>
+      </c>
+      <c r="C156" s="11"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="11">
+        <v>155</v>
+      </c>
+      <c r="B157" s="11">
+        <f t="shared" si="2"/>
+        <v>167.73251981938776</v>
+      </c>
+      <c r="C157" s="11"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="11">
+        <v>156</v>
+      </c>
+      <c r="B158" s="11">
+        <f t="shared" si="2"/>
+        <v>167.41913604826095</v>
+      </c>
+      <c r="C158" s="11"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="11">
+        <v>157</v>
+      </c>
+      <c r="B159" s="11">
+        <f t="shared" si="2"/>
+        <v>167.10859129389502</v>
+      </c>
+      <c r="C159" s="11"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="11">
+        <v>158</v>
+      </c>
+      <c r="B160" s="11">
+        <f t="shared" si="2"/>
+        <v>166.80097757740279</v>
+      </c>
+      <c r="C160" s="11"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="11">
+        <v>159</v>
+      </c>
+      <c r="B161" s="11">
+        <f t="shared" si="2"/>
+        <v>166.49638605136732</v>
+      </c>
+      <c r="C161" s="11"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="11">
+        <v>160</v>
+      </c>
+      <c r="B162" s="11">
+        <f t="shared" si="2"/>
+        <v>166.19490697283138</v>
+      </c>
+      <c r="C162" s="11"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="11">
+        <v>161</v>
+      </c>
+      <c r="B163" s="11">
+        <f t="shared" si="2"/>
+        <v>165.89662967655238</v>
+      </c>
+      <c r="C163" s="11"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="11">
+        <v>162</v>
+      </c>
+      <c r="B164" s="11">
+        <f t="shared" si="2"/>
+        <v>165.60164254853058</v>
+      </c>
+      <c r="C164" s="11"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="11">
+        <v>163</v>
+      </c>
+      <c r="B165" s="11">
+        <f t="shared" si="2"/>
+        <v>165.31003299981836</v>
+      </c>
+      <c r="C165" s="11"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="11">
+        <v>164</v>
+      </c>
+      <c r="B166" s="11">
+        <f t="shared" si="2"/>
+        <v>165.02188744061846</v>
+      </c>
+      <c r="C166" s="11"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="11">
+        <v>165</v>
+      </c>
+      <c r="B167" s="11">
+        <f t="shared" si="2"/>
+        <v>164.73729125467872</v>
+      </c>
+      <c r="C167" s="11"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="11">
+        <v>166</v>
+      </c>
+      <c r="B168" s="11">
+        <f t="shared" si="2"/>
+        <v>164.45632877399115</v>
+      </c>
+      <c r="C168" s="11"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="11">
+        <v>167</v>
+      </c>
+      <c r="B169" s="11">
+        <f t="shared" si="2"/>
+        <v>164.17908325380245</v>
+      </c>
+      <c r="C169" s="11"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="11">
+        <v>168</v>
+      </c>
+      <c r="B170" s="11">
+        <f t="shared" si="2"/>
+        <v>163.9056368479437</v>
+      </c>
+      <c r="C170" s="11"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="11">
+        <v>169</v>
+      </c>
+      <c r="B171" s="11">
+        <f t="shared" si="2"/>
+        <v>163.63607058448639</v>
+      </c>
+      <c r="C171" s="11"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="11">
+        <v>170</v>
+      </c>
+      <c r="B172" s="11">
+        <f t="shared" si="2"/>
+        <v>163.37046434173212</v>
+      </c>
+      <c r="C172" s="11"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="11">
+        <v>171</v>
+      </c>
+      <c r="B173" s="11">
+        <f t="shared" si="2"/>
+        <v>163.10889682454288</v>
+      </c>
+      <c r="C173" s="11"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="11">
+        <v>172</v>
+      </c>
+      <c r="B174" s="11">
+        <f t="shared" si="2"/>
+        <v>162.85144554101907</v>
+      </c>
+      <c r="C174" s="11"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="11">
+        <v>173</v>
+      </c>
+      <c r="B175" s="11">
+        <f t="shared" si="2"/>
+        <v>162.59818677953228</v>
+      </c>
+      <c r="C175" s="11"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="11">
+        <v>174</v>
+      </c>
+      <c r="B176" s="11">
+        <f t="shared" si="2"/>
+        <v>162.34919558611929</v>
+      </c>
+      <c r="C176" s="11"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="11">
+        <v>175</v>
+      </c>
+      <c r="B177" s="11">
+        <f t="shared" si="2"/>
+        <v>162.1045457422444</v>
+      </c>
+      <c r="C177" s="11"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="11">
+        <v>176</v>
+      </c>
+      <c r="B178" s="11">
+        <f t="shared" si="2"/>
+        <v>161.86430974293631</v>
+      </c>
+      <c r="C178" s="11"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="11">
+        <v>177</v>
+      </c>
+      <c r="B179" s="11">
+        <f t="shared" si="2"/>
+        <v>161.62855877530635</v>
+      </c>
+      <c r="C179" s="11"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="11">
+        <v>178</v>
+      </c>
+      <c r="B180" s="11">
+        <f t="shared" si="2"/>
+        <v>161.39736269745413</v>
+      </c>
+      <c r="C180" s="11"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="11">
+        <v>179</v>
+      </c>
+      <c r="B181" s="11">
+        <f t="shared" si="2"/>
+        <v>161.17079001776713</v>
+      </c>
+      <c r="C181" s="11"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="11">
+        <v>180</v>
+      </c>
+      <c r="B182" s="11">
+        <f t="shared" si="2"/>
+        <v>160.9489078746202</v>
+      </c>
+      <c r="C182" s="11"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="11">
+        <v>181</v>
+      </c>
+      <c r="B183" s="11">
+        <f t="shared" si="2"/>
+        <v>160.73178201648096</v>
+      </c>
+      <c r="C183" s="11"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="11">
+        <v>182</v>
+      </c>
+      <c r="B184" s="11">
+        <f t="shared" si="2"/>
+        <v>160.51947678242718</v>
+      </c>
+      <c r="C184" s="11"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="11">
+        <v>183</v>
+      </c>
+      <c r="B185" s="11">
+        <f t="shared" si="2"/>
+        <v>160.31205508308153</v>
+      </c>
+      <c r="C185" s="11"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="11">
+        <v>184</v>
+      </c>
+      <c r="B186" s="11">
+        <f t="shared" si="2"/>
+        <v>160.10957838197015</v>
+      </c>
+      <c r="C186" s="11"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="11">
+        <v>185</v>
+      </c>
+      <c r="B187" s="11">
+        <f t="shared" si="2"/>
+        <v>159.91210667730931</v>
+      </c>
+      <c r="C187" s="11"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="11">
+        <v>186</v>
+      </c>
+      <c r="B188" s="11">
+        <f t="shared" si="2"/>
+        <v>159.71969848422697</v>
+      </c>
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="11">
+        <v>187</v>
+      </c>
+      <c r="B189" s="11">
+        <f t="shared" si="2"/>
+        <v>159.53241081742317</v>
+      </c>
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="11">
+        <v>188</v>
+      </c>
+      <c r="B190" s="11">
+        <f t="shared" si="2"/>
+        <v>159.35029917427562</v>
+      </c>
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="11">
+        <v>189</v>
+      </c>
+      <c r="B191" s="11">
+        <f t="shared" si="2"/>
+        <v>159.17341751839447</v>
+      </c>
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="11">
+        <v>190</v>
+      </c>
+      <c r="B192" s="11">
+        <f t="shared" si="2"/>
+        <v>159.0018182636318</v>
+      </c>
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="11">
+        <v>191</v>
+      </c>
+      <c r="B193" s="11">
+        <f t="shared" si="2"/>
+        <v>158.83555225855017</v>
+      </c>
+      <c r="C193" s="11"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="11">
+        <v>192</v>
+      </c>
+      <c r="B194" s="11">
+        <f t="shared" si="2"/>
+        <v>158.67466877135524</v>
+      </c>
+      <c r="C194" s="11"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="11">
+        <v>193</v>
+      </c>
+      <c r="B195" s="11">
+        <f t="shared" si="2"/>
+        <v>158.51921547529636</v>
+      </c>
+      <c r="C195" s="11"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="11">
+        <v>194</v>
+      </c>
+      <c r="B196" s="11">
+        <f t="shared" ref="B196:B259" si="3">(20.5*SIN(((2*PI()*A196)/365)-((1241*PI())/730)))+177</f>
+        <v>158.36923843454019</v>
+      </c>
+      <c r="C196" s="11"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="11">
+        <v>195</v>
+      </c>
+      <c r="B197" s="11">
+        <f t="shared" si="3"/>
+        <v>158.22478209052062</v>
+      </c>
+      <c r="C197" s="11"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="11">
+        <v>196</v>
+      </c>
+      <c r="B198" s="11">
+        <f t="shared" si="3"/>
+        <v>158.08588924877</v>
+      </c>
+      <c r="C198" s="11"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="11">
+        <v>197</v>
+      </c>
+      <c r="B199" s="11">
+        <f t="shared" si="3"/>
+        <v>157.95260106623493</v>
+      </c>
+      <c r="C199" s="11"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="11">
+        <v>198</v>
+      </c>
+      <c r="B200" s="11">
+        <f t="shared" si="3"/>
+        <v>157.82495703908046</v>
+      </c>
+      <c r="C200" s="11"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="11">
+        <v>199</v>
+      </c>
+      <c r="B201" s="11">
+        <f t="shared" si="3"/>
+        <v>157.70299499098664</v>
+      </c>
+      <c r="C201" s="11"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="11">
+        <v>200</v>
+      </c>
+      <c r="B202" s="11">
+        <f t="shared" si="3"/>
+        <v>157.58675106194045</v>
+      </c>
+      <c r="C202" s="11"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="11">
+        <v>201</v>
+      </c>
+      <c r="B203" s="11">
+        <f t="shared" si="3"/>
+        <v>157.47625969752684</v>
+      </c>
+      <c r="C203" s="11"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="11">
+        <v>202</v>
+      </c>
+      <c r="B204" s="11">
+        <f t="shared" si="3"/>
+        <v>157.37155363872171</v>
+      </c>
+      <c r="C204" s="11"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="11">
+        <v>203</v>
+      </c>
+      <c r="B205" s="11">
+        <f t="shared" si="3"/>
+        <v>157.27266391218996</v>
+      </c>
+      <c r="C205" s="11"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="11">
+        <v>204</v>
+      </c>
+      <c r="B206" s="11">
+        <f t="shared" si="3"/>
+        <v>157.17961982109182</v>
+      </c>
+      <c r="C206" s="11"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="11">
+        <v>205</v>
+      </c>
+      <c r="B207" s="11">
+        <f t="shared" si="3"/>
+        <v>157.09244893639951</v>
+      </c>
+      <c r="C207" s="11"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="11">
+        <v>206</v>
+      </c>
+      <c r="B208" s="11">
+        <f t="shared" si="3"/>
+        <v>157.01117708872749</v>
+      </c>
+      <c r="C208" s="11"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="11">
+        <v>207</v>
+      </c>
+      <c r="B209" s="11">
+        <f t="shared" si="3"/>
+        <v>156.93582836067824</v>
+      </c>
+      <c r="C209" s="11"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="11">
+        <v>208</v>
+      </c>
+      <c r="B210" s="11">
+        <f t="shared" si="3"/>
+        <v>156.86642507970598</v>
+      </c>
+      <c r="C210" s="11"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="11">
+        <v>209</v>
+      </c>
+      <c r="B211" s="11">
+        <f t="shared" si="3"/>
+        <v>156.80298781150077</v>
+      </c>
+      <c r="C211" s="11"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="11">
+        <v>210</v>
+      </c>
+      <c r="B212" s="11">
+        <f t="shared" si="3"/>
+        <v>156.74553535389418</v>
+      </c>
+      <c r="C212" s="11"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="11">
+        <v>211</v>
+      </c>
+      <c r="B213" s="11">
+        <f t="shared" si="3"/>
+        <v>156.69408473128942</v>
+      </c>
+      <c r="C213" s="11"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="11">
+        <v>212</v>
+      </c>
+      <c r="B214" s="11">
+        <f t="shared" si="3"/>
+        <v>156.64865118961632</v>
+      </c>
+      <c r="C214" s="11"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="11">
+        <v>213</v>
+      </c>
+      <c r="B215" s="11">
+        <f t="shared" si="3"/>
+        <v>156.60924819181383</v>
+      </c>
+      <c r="C215" s="11"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="11">
+        <v>214</v>
+      </c>
+      <c r="B216" s="11">
+        <f t="shared" si="3"/>
+        <v>156.57588741384055</v>
+      </c>
+      <c r="C216" s="11"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="11">
+        <v>215</v>
+      </c>
+      <c r="B217" s="11">
+        <f t="shared" si="3"/>
+        <v>156.54857874121498</v>
+      </c>
+      <c r="C217" s="11"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="11">
+        <v>216</v>
+      </c>
+      <c r="B218" s="11">
+        <f t="shared" si="3"/>
+        <v>156.52733026608624</v>
+      </c>
+      <c r="C218" s="11"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="11">
+        <v>217</v>
+      </c>
+      <c r="B219" s="11">
+        <f t="shared" si="3"/>
+        <v>156.51214828483606</v>
+      </c>
+      <c r="C219" s="11"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="11">
+        <v>218</v>
+      </c>
+      <c r="B220" s="11">
+        <f t="shared" si="3"/>
+        <v>156.50303729621311</v>
+      </c>
+      <c r="C220" s="11"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="11">
+        <v>219</v>
+      </c>
+      <c r="B221" s="11">
+        <f t="shared" si="3"/>
+        <v>156.5</v>
+      </c>
+      <c r="C221" s="11"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="11">
+        <v>220</v>
+      </c>
+      <c r="B222" s="11">
+        <f t="shared" si="3"/>
+        <v>156.50303729621311</v>
+      </c>
+      <c r="C222" s="11"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="11">
+        <v>221</v>
+      </c>
+      <c r="B223" s="11">
+        <f t="shared" si="3"/>
+        <v>156.51214828483606</v>
+      </c>
+      <c r="C223" s="11"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="11">
+        <v>222</v>
+      </c>
+      <c r="B224" s="11">
+        <f t="shared" si="3"/>
+        <v>156.52733026608624</v>
+      </c>
+      <c r="C224" s="11"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="11">
+        <v>223</v>
+      </c>
+      <c r="B225" s="11">
+        <f t="shared" si="3"/>
+        <v>156.54857874121498</v>
+      </c>
+      <c r="C225" s="11"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="11">
+        <v>224</v>
+      </c>
+      <c r="B226" s="11">
+        <f t="shared" si="3"/>
+        <v>156.57588741384055</v>
+      </c>
+      <c r="C226" s="11"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="11">
+        <v>225</v>
+      </c>
+      <c r="B227" s="11">
+        <f t="shared" si="3"/>
+        <v>156.60924819181383</v>
+      </c>
+      <c r="C227" s="11"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="11">
+        <v>226</v>
+      </c>
+      <c r="B228" s="11">
+        <f t="shared" si="3"/>
+        <v>156.64865118961632</v>
+      </c>
+      <c r="C228" s="11"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="11">
+        <v>227</v>
+      </c>
+      <c r="B229" s="11">
+        <f t="shared" si="3"/>
+        <v>156.69408473128942</v>
+      </c>
+      <c r="C229" s="11"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="11">
+        <v>228</v>
+      </c>
+      <c r="B230" s="11">
+        <f t="shared" si="3"/>
+        <v>156.74553535389418</v>
+      </c>
+      <c r="C230" s="11"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="11">
+        <v>229</v>
+      </c>
+      <c r="B231" s="11">
+        <f t="shared" si="3"/>
+        <v>156.80298781150077</v>
+      </c>
+      <c r="C231" s="11"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="11">
+        <v>230</v>
+      </c>
+      <c r="B232" s="11">
+        <f t="shared" si="3"/>
+        <v>156.866425079706</v>
+      </c>
+      <c r="C232" s="11"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="11">
+        <v>231</v>
+      </c>
+      <c r="B233" s="11">
+        <f t="shared" si="3"/>
+        <v>156.93582836067824</v>
+      </c>
+      <c r="C233" s="11"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="11">
+        <v>232</v>
+      </c>
+      <c r="B234" s="11">
+        <f t="shared" si="3"/>
+        <v>157.01117708872749</v>
+      </c>
+      <c r="C234" s="11"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="11">
+        <v>233</v>
+      </c>
+      <c r="B235" s="11">
+        <f t="shared" si="3"/>
+        <v>157.09244893639953</v>
+      </c>
+      <c r="C235" s="11"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="11">
+        <v>234</v>
+      </c>
+      <c r="B236" s="11">
+        <f t="shared" si="3"/>
+        <v>157.17961982109182</v>
+      </c>
+      <c r="C236" s="11"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="11">
+        <v>235</v>
+      </c>
+      <c r="B237" s="11">
+        <f t="shared" si="3"/>
+        <v>157.27266391218996</v>
+      </c>
+      <c r="C237" s="11"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="11">
+        <v>236</v>
+      </c>
+      <c r="B238" s="11">
+        <f t="shared" si="3"/>
+        <v>157.37155363872171</v>
+      </c>
+      <c r="C238" s="11"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="11">
+        <v>237</v>
+      </c>
+      <c r="B239" s="11">
+        <f t="shared" si="3"/>
+        <v>157.47625969752684</v>
+      </c>
+      <c r="C239" s="11"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="11">
+        <v>238</v>
+      </c>
+      <c r="B240" s="11">
+        <f t="shared" si="3"/>
+        <v>157.58675106194045</v>
+      </c>
+      <c r="C240" s="11"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="11">
+        <v>239</v>
+      </c>
+      <c r="B241" s="11">
+        <f t="shared" si="3"/>
+        <v>157.70299499098664</v>
+      </c>
+      <c r="C241" s="11"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="11">
+        <v>240</v>
+      </c>
+      <c r="B242" s="11">
+        <f t="shared" si="3"/>
+        <v>157.82495703908046</v>
+      </c>
+      <c r="C242" s="11"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="11">
+        <v>241</v>
+      </c>
+      <c r="B243" s="11">
+        <f t="shared" si="3"/>
+        <v>157.95260106623493</v>
+      </c>
+      <c r="C243" s="11"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="11">
+        <v>242</v>
+      </c>
+      <c r="B244" s="11">
+        <f t="shared" si="3"/>
+        <v>158.08588924877</v>
+      </c>
+      <c r="C244" s="11"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="11">
+        <v>243</v>
+      </c>
+      <c r="B245" s="11">
+        <f t="shared" si="3"/>
+        <v>158.22478209052062</v>
+      </c>
+      <c r="C245" s="11"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="11">
+        <v>244</v>
+      </c>
+      <c r="B246" s="11">
+        <f t="shared" si="3"/>
+        <v>158.36923843454019</v>
+      </c>
+      <c r="C246" s="11"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="11">
+        <v>245</v>
+      </c>
+      <c r="B247" s="11">
+        <f t="shared" si="3"/>
+        <v>158.51921547529639</v>
+      </c>
+      <c r="C247" s="11"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="11">
+        <v>246</v>
+      </c>
+      <c r="B248" s="11">
+        <f t="shared" si="3"/>
+        <v>158.67466877135524</v>
+      </c>
+      <c r="C248" s="11"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="11">
+        <v>247</v>
+      </c>
+      <c r="B249" s="11">
+        <f t="shared" si="3"/>
+        <v>158.83555225855017</v>
+      </c>
+      <c r="C249" s="11"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="11">
+        <v>248</v>
+      </c>
+      <c r="B250" s="11">
+        <f t="shared" si="3"/>
+        <v>159.00181826363178</v>
+      </c>
+      <c r="C250" s="11"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="11">
+        <v>249</v>
+      </c>
+      <c r="B251" s="11">
+        <f t="shared" si="3"/>
+        <v>159.17341751839447</v>
+      </c>
+      <c r="C251" s="11"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="11">
+        <v>250</v>
+      </c>
+      <c r="B252" s="11">
+        <f t="shared" si="3"/>
+        <v>159.35029917427562</v>
+      </c>
+      <c r="C252" s="11"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="11">
+        <v>251</v>
+      </c>
+      <c r="B253" s="11">
+        <f t="shared" si="3"/>
+        <v>159.53241081742317</v>
+      </c>
+      <c r="C253" s="11"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="11">
+        <v>252</v>
+      </c>
+      <c r="B254" s="11">
+        <f t="shared" si="3"/>
+        <v>159.71969848422697</v>
+      </c>
+      <c r="C254" s="11"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="11">
+        <v>253</v>
+      </c>
+      <c r="B255" s="11">
+        <f t="shared" si="3"/>
+        <v>159.91210667730931</v>
+      </c>
+      <c r="C255" s="11"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="11">
+        <v>254</v>
+      </c>
+      <c r="B256" s="11">
+        <f t="shared" si="3"/>
+        <v>160.10957838197015</v>
+      </c>
+      <c r="C256" s="11"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="11">
+        <v>255</v>
+      </c>
+      <c r="B257" s="11">
+        <f t="shared" si="3"/>
+        <v>160.31205508308153</v>
+      </c>
+      <c r="C257" s="11"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="11">
+        <v>256</v>
+      </c>
+      <c r="B258" s="11">
+        <f t="shared" si="3"/>
+        <v>160.51947678242715</v>
+      </c>
+      <c r="C258" s="11"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="11">
+        <v>257</v>
+      </c>
+      <c r="B259" s="11">
+        <f t="shared" si="3"/>
+        <v>160.73178201648099</v>
+      </c>
+      <c r="C259" s="11"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="11">
+        <v>258</v>
+      </c>
+      <c r="B260" s="11">
+        <f t="shared" ref="B260:B323" si="4">(20.5*SIN(((2*PI()*A260)/365)-((1241*PI())/730)))+177</f>
+        <v>160.9489078746202</v>
+      </c>
+      <c r="C260" s="11"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="11">
+        <v>259</v>
+      </c>
+      <c r="B261" s="11">
+        <f t="shared" si="4"/>
+        <v>161.17079001776713</v>
+      </c>
+      <c r="C261" s="11"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="11">
+        <v>260</v>
+      </c>
+      <c r="B262" s="11">
+        <f t="shared" si="4"/>
+        <v>161.3973626974541</v>
+      </c>
+      <c r="C262" s="11"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="11">
+        <v>261</v>
+      </c>
+      <c r="B263" s="11">
+        <f t="shared" si="4"/>
+        <v>161.62855877530635</v>
+      </c>
+      <c r="C263" s="11"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="11">
+        <v>262</v>
+      </c>
+      <c r="B264" s="11">
+        <f t="shared" si="4"/>
+        <v>161.86430974293631</v>
+      </c>
+      <c r="C264" s="11"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="11">
+        <v>263</v>
+      </c>
+      <c r="B265" s="11">
+        <f t="shared" si="4"/>
+        <v>162.1045457422444</v>
+      </c>
+      <c r="C265" s="11"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="11">
+        <v>264</v>
+      </c>
+      <c r="B266" s="11">
+        <f t="shared" si="4"/>
+        <v>162.34919558611929</v>
+      </c>
+      <c r="C266" s="11"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="11">
+        <v>265</v>
+      </c>
+      <c r="B267" s="11">
+        <f t="shared" si="4"/>
+        <v>162.59818677953228</v>
+      </c>
+      <c r="C267" s="11"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="11">
+        <v>266</v>
+      </c>
+      <c r="B268" s="11">
+        <f t="shared" si="4"/>
+        <v>162.85144554101907</v>
+      </c>
+      <c r="C268" s="11"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="11">
+        <v>267</v>
+      </c>
+      <c r="B269" s="11">
+        <f t="shared" si="4"/>
+        <v>163.10889682454288</v>
+      </c>
+      <c r="C269" s="11"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="11">
+        <v>268</v>
+      </c>
+      <c r="B270" s="11">
+        <f t="shared" si="4"/>
+        <v>163.37046434173212</v>
+      </c>
+      <c r="C270" s="11"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="11">
+        <v>269</v>
+      </c>
+      <c r="B271" s="11">
+        <f t="shared" si="4"/>
+        <v>163.63607058448639</v>
+      </c>
+      <c r="C271" s="11"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="11">
+        <v>270</v>
+      </c>
+      <c r="B272" s="11">
+        <f t="shared" si="4"/>
+        <v>163.9056368479437</v>
+      </c>
+      <c r="C272" s="11"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="11">
+        <v>271</v>
+      </c>
+      <c r="B273" s="11">
+        <f t="shared" si="4"/>
+        <v>164.17908325380245</v>
+      </c>
+      <c r="C273" s="11"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="11">
+        <v>272</v>
+      </c>
+      <c r="B274" s="11">
+        <f t="shared" si="4"/>
+        <v>164.45632877399115</v>
+      </c>
+      <c r="C274" s="11"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="11">
+        <v>273</v>
+      </c>
+      <c r="B275" s="11">
+        <f t="shared" si="4"/>
+        <v>164.73729125467872</v>
+      </c>
+      <c r="C275" s="11"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="11">
+        <v>274</v>
+      </c>
+      <c r="B276" s="11">
+        <f t="shared" si="4"/>
+        <v>165.02188744061846</v>
+      </c>
+      <c r="C276" s="11"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="11">
+        <v>275</v>
+      </c>
+      <c r="B277" s="11">
+        <f t="shared" si="4"/>
+        <v>165.31003299981836</v>
+      </c>
+      <c r="C277" s="11"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="11">
+        <v>276</v>
+      </c>
+      <c r="B278" s="11">
+        <f t="shared" si="4"/>
+        <v>165.60164254853058</v>
+      </c>
+      <c r="C278" s="11"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="11">
+        <v>277</v>
+      </c>
+      <c r="B279" s="11">
+        <f t="shared" si="4"/>
+        <v>165.89662967655238</v>
+      </c>
+      <c r="C279" s="11"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="11">
+        <v>278</v>
+      </c>
+      <c r="B280" s="11">
+        <f t="shared" si="4"/>
+        <v>166.19490697283138</v>
+      </c>
+      <c r="C280" s="11"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="11">
+        <v>279</v>
+      </c>
+      <c r="B281" s="11">
+        <f t="shared" si="4"/>
+        <v>166.49638605136732</v>
+      </c>
+      <c r="C281" s="11"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="11">
+        <v>280</v>
+      </c>
+      <c r="B282" s="11">
+        <f t="shared" si="4"/>
+        <v>166.80097757740279</v>
+      </c>
+      <c r="C282" s="11"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="11">
+        <v>281</v>
+      </c>
+      <c r="B283" s="11">
+        <f t="shared" si="4"/>
+        <v>167.10859129389502</v>
+      </c>
+      <c r="C283" s="11"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="11">
+        <v>282</v>
+      </c>
+      <c r="B284" s="11">
+        <f t="shared" si="4"/>
+        <v>167.41913604826095</v>
+      </c>
+      <c r="C284" s="11"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="11">
+        <v>283</v>
+      </c>
+      <c r="B285" s="11">
+        <f t="shared" si="4"/>
+        <v>167.73251981938776</v>
+      </c>
+      <c r="C285" s="11"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="11">
+        <v>284</v>
+      </c>
+      <c r="B286" s="11">
+        <f t="shared" si="4"/>
+        <v>168.0486497449007</v>
+      </c>
+      <c r="C286" s="11"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="11">
+        <v>285</v>
+      </c>
+      <c r="B287" s="11">
+        <f t="shared" si="4"/>
+        <v>168.36743214868017</v>
+      </c>
+      <c r="C287" s="11"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="11">
+        <v>286</v>
+      </c>
+      <c r="B288" s="11">
+        <f t="shared" si="4"/>
+        <v>168.68877256862007</v>
+      </c>
+      <c r="C288" s="11"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="11">
+        <v>287</v>
+      </c>
+      <c r="B289" s="11">
+        <f t="shared" si="4"/>
+        <v>169.01257578461886</v>
+      </c>
+      <c r="C289" s="11"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="11">
+        <v>288</v>
+      </c>
+      <c r="B290" s="11">
+        <f t="shared" si="4"/>
+        <v>169.3387458467954</v>
+      </c>
+      <c r="C290" s="11"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="11">
+        <v>289</v>
+      </c>
+      <c r="B291" s="11">
+        <f t="shared" si="4"/>
+        <v>169.66718610392093</v>
+      </c>
+      <c r="C291" s="11"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="11">
+        <v>290</v>
+      </c>
+      <c r="B292" s="11">
+        <f t="shared" si="4"/>
+        <v>169.99779923205895</v>
+      </c>
+      <c r="C292" s="11"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="11">
+        <v>291</v>
+      </c>
+      <c r="B293" s="11">
+        <f t="shared" si="4"/>
+        <v>170.33048726340439</v>
+      </c>
+      <c r="C293" s="11"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="11">
+        <v>292</v>
+      </c>
+      <c r="B294" s="11">
+        <f t="shared" si="4"/>
+        <v>170.66515161531359</v>
+      </c>
+      <c r="C294" s="11"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="11">
+        <v>293</v>
+      </c>
+      <c r="B295" s="11">
+        <f t="shared" si="4"/>
+        <v>171.00169311951635</v>
+      </c>
+      <c r="C295" s="11"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="11">
+        <v>294</v>
+      </c>
+      <c r="B296" s="11">
+        <f t="shared" si="4"/>
+        <v>171.3400120515019</v>
+      </c>
+      <c r="C296" s="11"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="11">
+        <v>295</v>
+      </c>
+      <c r="B297" s="11">
+        <f t="shared" si="4"/>
+        <v>171.68000816006912</v>
+      </c>
+      <c r="C297" s="11"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="11">
+        <v>296</v>
+      </c>
+      <c r="B298" s="11">
+        <f t="shared" si="4"/>
+        <v>172.02158069703333</v>
+      </c>
+      <c r="C298" s="11"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="11">
+        <v>297</v>
+      </c>
+      <c r="B299" s="11">
+        <f t="shared" si="4"/>
+        <v>172.36462844708009</v>
+      </c>
+      <c r="C299" s="11"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="11">
+        <v>298</v>
+      </c>
+      <c r="B300" s="11">
+        <f t="shared" si="4"/>
+        <v>172.7090497577575</v>
+      </c>
+      <c r="C300" s="11"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="11">
+        <v>299</v>
+      </c>
+      <c r="B301" s="11">
+        <f t="shared" si="4"/>
+        <v>173.05474256959798</v>
+      </c>
+      <c r="C301" s="11"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="11">
+        <v>300</v>
+      </c>
+      <c r="B302" s="11">
+        <f t="shared" si="4"/>
+        <v>173.40160444636072</v>
+      </c>
+      <c r="C302" s="11"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="11">
+        <v>301</v>
+      </c>
+      <c r="B303" s="11">
+        <f t="shared" si="4"/>
+        <v>173.74953260538572</v>
+      </c>
+      <c r="C303" s="11"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="11">
+        <v>302</v>
+      </c>
+      <c r="B304" s="11">
+        <f t="shared" si="4"/>
+        <v>174.09842394805062</v>
+      </c>
+      <c r="C304" s="11"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="11">
+        <v>303</v>
+      </c>
+      <c r="B305" s="11">
+        <f t="shared" si="4"/>
+        <v>174.4481750903208</v>
+      </c>
+      <c r="C305" s="11"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="11">
+        <v>304</v>
+      </c>
+      <c r="B306" s="11">
+        <f t="shared" si="4"/>
+        <v>174.79868239338467</v>
+      </c>
+      <c r="C306" s="11"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="11">
+        <v>305</v>
+      </c>
+      <c r="B307" s="11">
+        <f t="shared" si="4"/>
+        <v>175.14984199436367</v>
+      </c>
+      <c r="C307" s="11"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="11">
+        <v>306</v>
+      </c>
+      <c r="B308" s="11">
+        <f t="shared" si="4"/>
+        <v>175.50154983708941</v>
+      </c>
+      <c r="C308" s="11"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="11">
+        <v>307</v>
+      </c>
+      <c r="B309" s="11">
+        <f t="shared" si="4"/>
+        <v>175.85370170293763</v>
+      </c>
+      <c r="C309" s="11"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="11">
+        <v>308</v>
+      </c>
+      <c r="B310" s="11">
+        <f t="shared" si="4"/>
+        <v>176.20619324171042</v>
+      </c>
+      <c r="C310" s="11"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="11">
+        <v>309</v>
+      </c>
+      <c r="B311" s="11">
+        <f t="shared" si="4"/>
+        <v>176.55892000255744</v>
+      </c>
+      <c r="C311" s="11"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="11">
+        <v>310</v>
+      </c>
+      <c r="B312" s="11">
+        <f t="shared" si="4"/>
+        <v>176.91177746492698</v>
+      </c>
+      <c r="C312" s="11"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="11">
+        <v>311</v>
+      </c>
+      <c r="B313" s="11">
+        <f t="shared" si="4"/>
+        <v>177.26466106953768</v>
+      </c>
+      <c r="C313" s="11"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="11">
+        <v>312</v>
+      </c>
+      <c r="B314" s="11">
+        <f t="shared" si="4"/>
+        <v>177.61746624936163</v>
+      </c>
+      <c r="C314" s="11"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="11">
+        <v>313</v>
+      </c>
+      <c r="B315" s="11">
+        <f t="shared" si="4"/>
+        <v>177.97008846060984</v>
+      </c>
+      <c r="C315" s="11"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="11">
+        <v>314</v>
+      </c>
+      <c r="B316" s="11">
+        <f t="shared" si="4"/>
+        <v>178.32242321371098</v>
+      </c>
+      <c r="C316" s="11"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="11">
+        <v>315</v>
+      </c>
+      <c r="B317" s="11">
+        <f t="shared" si="4"/>
+        <v>178.67436610427367</v>
+      </c>
+      <c r="C317" s="11"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="11">
+        <v>316</v>
+      </c>
+      <c r="B318" s="11">
+        <f t="shared" si="4"/>
+        <v>179.02581284402387</v>
+      </c>
+      <c r="C318" s="11"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="11">
+        <v>317</v>
+      </c>
+      <c r="B319" s="11">
+        <f t="shared" si="4"/>
+        <v>179.37665929170777</v>
+      </c>
+      <c r="C319" s="11"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="11">
+        <v>318</v>
+      </c>
+      <c r="B320" s="11">
+        <f t="shared" si="4"/>
+        <v>179.72680148395102</v>
+      </c>
+      <c r="C320" s="11"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="11">
+        <v>319</v>
+      </c>
+      <c r="B321" s="11">
+        <f t="shared" si="4"/>
+        <v>180.07613566606537</v>
+      </c>
+      <c r="C321" s="11"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="11">
+        <v>320</v>
+      </c>
+      <c r="B322" s="11">
+        <f t="shared" si="4"/>
+        <v>180.42455832279344</v>
+      </c>
+      <c r="C322" s="11"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="11">
+        <v>321</v>
+      </c>
+      <c r="B323" s="11">
+        <f t="shared" si="4"/>
+        <v>180.77196620898243</v>
+      </c>
+      <c r="C323" s="11"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="11">
+        <v>322</v>
+      </c>
+      <c r="B324" s="11">
+        <f t="shared" ref="B324:B367" si="5">(20.5*SIN(((2*PI()*A324)/365)-((1241*PI())/730)))+177</f>
+        <v>181.11825638017802</v>
+      </c>
+      <c r="C324" s="11"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="11">
+        <v>323</v>
+      </c>
+      <c r="B325" s="11">
+        <f t="shared" si="5"/>
+        <v>181.46332622312889</v>
+      </c>
+      <c r="C325" s="11"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="11">
+        <v>324</v>
+      </c>
+      <c r="B326" s="11">
+        <f t="shared" si="5"/>
+        <v>181.80707348619339</v>
+      </c>
+      <c r="C326" s="11"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="11">
+        <v>325</v>
+      </c>
+      <c r="B327" s="11">
+        <f t="shared" si="5"/>
+        <v>182.1493963096388</v>
+      </c>
+      <c r="C327" s="11"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="11">
+        <v>326</v>
+      </c>
+      <c r="B328" s="11">
+        <f t="shared" si="5"/>
+        <v>182.49019325582455</v>
+      </c>
+      <c r="C328" s="11"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="11">
+        <v>327</v>
+      </c>
+      <c r="B329" s="11">
+        <f t="shared" si="5"/>
+        <v>182.82936333926057</v>
+      </c>
+      <c r="C329" s="11"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="11">
+        <v>328</v>
+      </c>
+      <c r="B330" s="11">
+        <f t="shared" si="5"/>
+        <v>183.16680605653119</v>
+      </c>
+      <c r="C330" s="11"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="11">
+        <v>329</v>
+      </c>
+      <c r="B331" s="11">
+        <f t="shared" si="5"/>
+        <v>183.50242141607666</v>
+      </c>
+      <c r="C331" s="11"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="11">
+        <v>330</v>
+      </c>
+      <c r="B332" s="11">
+        <f t="shared" si="5"/>
+        <v>183.83610996782281</v>
+      </c>
+      <c r="C332" s="11"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="11">
+        <v>331</v>
+      </c>
+      <c r="B333" s="11">
+        <f t="shared" si="5"/>
+        <v>184.16777283265017</v>
+      </c>
+      <c r="C333" s="11"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="11">
+        <v>332</v>
+      </c>
+      <c r="B334" s="11">
+        <f t="shared" si="5"/>
+        <v>184.49731173169403</v>
+      </c>
+      <c r="C334" s="11"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="11">
+        <v>333</v>
+      </c>
+      <c r="B335" s="11">
+        <f t="shared" si="5"/>
+        <v>184.82462901546651</v>
+      </c>
+      <c r="C335" s="11"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="11">
+        <v>334</v>
+      </c>
+      <c r="B336" s="11">
+        <f t="shared" si="5"/>
+        <v>185.14962769279242</v>
+      </c>
+      <c r="C336" s="11"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="11">
+        <v>335</v>
+      </c>
+      <c r="B337" s="11">
+        <f t="shared" si="5"/>
+        <v>185.47221145954953</v>
+      </c>
+      <c r="C337" s="11"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="11">
+        <v>336</v>
+      </c>
+      <c r="B338" s="11">
+        <f t="shared" si="5"/>
+        <v>185.79228472720592</v>
+      </c>
+      <c r="C338" s="11"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="11">
+        <v>337</v>
+      </c>
+      <c r="B339" s="11">
+        <f t="shared" si="5"/>
+        <v>186.10975265114456</v>
+      </c>
+      <c r="C339" s="11"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="11">
+        <v>338</v>
+      </c>
+      <c r="B340" s="11">
+        <f t="shared" si="5"/>
+        <v>186.42452115876813</v>
+      </c>
+      <c r="C340" s="11"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="11">
+        <v>339</v>
+      </c>
+      <c r="B341" s="11">
+        <f t="shared" si="5"/>
+        <v>186.73649697737451</v>
+      </c>
+      <c r="C341" s="11"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="11">
+        <v>340</v>
+      </c>
+      <c r="B342" s="11">
+        <f t="shared" si="5"/>
+        <v>187.04558766179571</v>
+      </c>
+      <c r="C342" s="11"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="11">
+        <v>341</v>
+      </c>
+      <c r="B343" s="11">
+        <f t="shared" si="5"/>
+        <v>187.35170162179116</v>
+      </c>
+      <c r="C343" s="11"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="11">
+        <v>342</v>
+      </c>
+      <c r="B344" s="11">
+        <f t="shared" si="5"/>
+        <v>187.65474814918807</v>
+      </c>
+      <c r="C344" s="11"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="11">
+        <v>343</v>
+      </c>
+      <c r="B345" s="11">
+        <f t="shared" si="5"/>
+        <v>187.95463744476007</v>
+      </c>
+      <c r="C345" s="11"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="11">
+        <v>344</v>
+      </c>
+      <c r="B346" s="11">
+        <f t="shared" si="5"/>
+        <v>188.25128064483673</v>
+      </c>
+      <c r="C346" s="11"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="11">
+        <v>345</v>
+      </c>
+      <c r="B347" s="11">
+        <f t="shared" si="5"/>
+        <v>188.54458984763582</v>
+      </c>
+      <c r="C347" s="11"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="11">
+        <v>346</v>
+      </c>
+      <c r="B348" s="11">
+        <f t="shared" si="5"/>
+        <v>188.83447813931039</v>
+      </c>
+      <c r="C348" s="11"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="11">
+        <v>347</v>
+      </c>
+      <c r="B349" s="11">
+        <f t="shared" si="5"/>
+        <v>189.12085961970334</v>
+      </c>
+      <c r="C349" s="11"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="11">
+        <v>348</v>
+      </c>
+      <c r="B350" s="11">
+        <f t="shared" si="5"/>
+        <v>189.40364942780138</v>
+      </c>
+      <c r="C350" s="11"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="11">
+        <v>349</v>
+      </c>
+      <c r="B351" s="11">
+        <f t="shared" si="5"/>
+        <v>189.68276376688132</v>
+      </c>
+      <c r="C351" s="11"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="11">
+        <v>350</v>
+      </c>
+      <c r="B352" s="11">
+        <f t="shared" si="5"/>
+        <v>189.95811992934063</v>
+      </c>
+      <c r="C352" s="11"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="11">
+        <v>351</v>
+      </c>
+      <c r="B353" s="11">
+        <f t="shared" si="5"/>
+        <v>190.22963632120579</v>
+      </c>
+      <c r="C353" s="11"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="11">
+        <v>352</v>
+      </c>
+      <c r="B354" s="11">
+        <f t="shared" si="5"/>
+        <v>190.49723248631</v>
+      </c>
+      <c r="C354" s="11"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="11">
+        <v>353</v>
+      </c>
+      <c r="B355" s="11">
+        <f t="shared" si="5"/>
+        <v>190.7608291301344</v>
+      </c>
+      <c r="C355" s="11"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="11">
+        <v>354</v>
+      </c>
+      <c r="B356" s="11">
+        <f t="shared" si="5"/>
+        <v>191.02034814330452</v>
+      </c>
+      <c r="C356" s="11"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="11">
+        <v>355</v>
+      </c>
+      <c r="B357" s="11">
+        <f t="shared" si="5"/>
+        <v>191.27571262473589</v>
+      </c>
+      <c r="C357" s="11"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="11">
+        <v>356</v>
+      </c>
+      <c r="B358" s="11">
+        <f t="shared" si="5"/>
+        <v>191.52684690442143</v>
+      </c>
+      <c r="C358" s="11"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="11">
+        <v>357</v>
+      </c>
+      <c r="B359" s="11">
+        <f t="shared" si="5"/>
+        <v>191.77367656585415</v>
+      </c>
+      <c r="C359" s="11"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="11">
+        <v>358</v>
+      </c>
+      <c r="B360" s="11">
+        <f t="shared" si="5"/>
+        <v>192.01612846807836</v>
+      </c>
+      <c r="C360" s="11"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="11">
+        <v>359</v>
+      </c>
+      <c r="B361" s="11">
+        <f t="shared" si="5"/>
+        <v>192.25413076736288</v>
+      </c>
+      <c r="C361" s="11"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="11">
+        <v>360</v>
+      </c>
+      <c r="B362" s="11">
+        <f t="shared" si="5"/>
+        <v>192.48761293848995</v>
+      </c>
+      <c r="C362" s="11"/>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="11">
+        <v>361</v>
+      </c>
+      <c r="B363" s="11">
+        <f t="shared" si="5"/>
+        <v>192.71650579565326</v>
+      </c>
+      <c r="C363" s="11"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="11">
+        <v>362</v>
+      </c>
+      <c r="B364" s="11">
+        <f t="shared" si="5"/>
+        <v>192.94074151295933</v>
+      </c>
+      <c r="C364" s="11"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="11">
+        <v>363</v>
+      </c>
+      <c r="B365" s="11">
+        <f t="shared" si="5"/>
+        <v>193.16025364452577</v>
+      </c>
+      <c r="C365" s="11"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="11">
+        <v>364</v>
+      </c>
+      <c r="B366" s="11">
+        <f t="shared" si="5"/>
+        <v>193.37497714417049</v>
+      </c>
+      <c r="C366" s="11"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="11">
+        <v>365</v>
+      </c>
+      <c r="B367" s="11">
+        <f t="shared" si="5"/>
+        <v>193.58484838468644</v>
+      </c>
+      <c r="C367" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/bcd/CREST/Appliance/Appliance_Characteristics.xlsx
+++ b/bcd/CREST/Appliance/Appliance_Characteristics.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="210" windowWidth="20340" windowHeight="7935"/>
@@ -13,7 +13,7 @@
     <sheet name="TV_usage" sheetId="5" r:id="rId4"/>
     <sheet name="Cooking" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -449,12 +449,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1230,10 +1230,10 @@
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="41" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1259,12 +1259,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1337,6 +1337,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1349,16 +1353,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1472,24 +1472,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3713,25 +3701,16 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="54702848"/>
-        <c:axId val="54704768"/>
+        <c:axId val="80522240"/>
+        <c:axId val="86115456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54702848"/>
+        <c:axId val="80522240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="365"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3749,12 +3728,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3764,16 +3740,15 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="54704768"/>
+        <c:crossAx val="86115456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54704768"/>
+        <c:axId val="86115456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3803,12 +3778,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -3817,7 +3789,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="54702848"/>
+        <c:crossAx val="80522240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3831,7 +3803,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -3840,7 +3811,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3848,24 +3819,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3910,28 +3869,17 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="70352896"/>
-        <c:axId val="70326144"/>
+        <c:axId val="87762048"/>
+        <c:axId val="87763584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70352896"/>
+        <c:axId val="87762048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -3940,16 +3888,15 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70326144"/>
+        <c:crossAx val="87763584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70326144"/>
+        <c:axId val="87763584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3965,7 +3912,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -3974,7 +3920,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70352896"/>
+        <c:crossAx val="87762048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3988,7 +3934,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -3997,7 +3942,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4005,24 +3950,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4046,13 +3979,12 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="6.3343832020997373E-2"/>
-                  <c:y val="-0.23799759405074367"/>
+                  <c:y val="-0.23799759405074375"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4079,28 +4011,17 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="82548992"/>
-        <c:axId val="85693184"/>
+        <c:axId val="87796352"/>
+        <c:axId val="87810432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82548992"/>
+        <c:axId val="87796352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -4109,16 +4030,15 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85693184"/>
+        <c:crossAx val="87810432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85693184"/>
+        <c:axId val="87810432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4134,7 +4054,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -4143,7 +4062,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="82548992"/>
+        <c:crossAx val="87796352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4157,7 +4076,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -4166,7 +4084,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4349,7 +4267,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4384,7 +4301,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4560,15 +4476,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -4581,7 +4497,7 @@
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="42" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4613,7 +4529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4649,7 +4565,7 @@
         <v>2.1736111111111107</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4688,7 +4604,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4727,7 +4643,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4738,7 +4654,7 @@
         <v>1300</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="9">
         <v>124</v>
@@ -4763,7 +4679,7 @@
         <v>40.523888888888898</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4774,7 +4690,7 @@
         <v>5535</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="9">
         <v>75</v>
@@ -4799,7 +4715,7 @@
         <v>102.0515625</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4810,7 +4726,7 @@
         <v>500</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="9">
         <v>40</v>
@@ -4835,7 +4751,7 @@
         <v>5.8611111111111107</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -4871,15 +4787,15 @@
         <v>12.125000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="11" customFormat="1">
       <c r="A9" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
-        <v>100</v>
+      <c r="C9" s="5">
+        <v>70</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
@@ -4896,7 +4812,7 @@
       </c>
       <c r="H9" s="11">
         <f t="shared" ref="H9:H11" si="5">(C9/1000)*(E9/60)</f>
-        <v>0.15000000000000002</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I11" si="6">(G9*E9)/60</f>
@@ -4904,18 +4820,18 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" ref="J9:J11" si="7">H9*G9</f>
-        <v>7.1750000000000016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5.0225000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="11" customFormat="1">
       <c r="A10" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4">
-        <v>100</v>
+      <c r="C10" s="5">
+        <v>61</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -4932,7 +4848,7 @@
       </c>
       <c r="H10" s="11">
         <f t="shared" si="5"/>
-        <v>0.15000000000000002</v>
+        <v>9.1499999999999998E-2</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="6"/>
@@ -4940,18 +4856,18 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" si="7"/>
-        <v>5.6375000000000011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3.4388750000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
-        <v>100</v>
+      <c r="C11" s="5">
+        <v>61</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
@@ -4968,7 +4884,7 @@
       </c>
       <c r="H11" s="11">
         <f t="shared" si="5"/>
-        <v>0.15000000000000002</v>
+        <v>9.1499999999999998E-2</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="6"/>
@@ -4976,13 +4892,13 @@
       </c>
       <c r="J11" s="5">
         <f t="shared" si="7"/>
-        <v>5.4625000000000004</v>
+        <v>3.3321249999999996</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5018,7 +4934,7 @@
         <v>0.30369444444444443</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5054,7 +4970,7 @@
         <v>4.8888888888888884</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="25" t="s">
         <v>15</v>
       </c>
@@ -5090,7 +5006,7 @@
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="25" t="s">
         <v>16</v>
       </c>
@@ -5126,7 +5042,7 @@
         <v>11.225</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="32" t="s">
         <v>17</v>
       </c>
@@ -5154,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -5190,7 +5106,7 @@
         <v>0.9400750000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -5226,7 +5142,7 @@
         <v>9.0833333333333335E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="25" t="s">
         <v>20</v>
       </c>
@@ -5265,7 +5181,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -5301,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5337,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5373,7 +5289,7 @@
         <v>1.4583333333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -5409,7 +5325,7 @@
         <v>2.4444444444444442</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -5445,7 +5361,7 @@
         <v>0.24744444444444447</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -5481,7 +5397,7 @@
         <v>7.4419999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -5517,7 +5433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -5553,7 +5469,7 @@
         <v>2.5347222222222223</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -5573,7 +5489,7 @@
         <v>365</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" ref="G28:G29" si="8">F28/12</f>
+        <f t="shared" ref="G28" si="8">F28/12</f>
         <v>30.416666666666668</v>
       </c>
       <c r="H28" s="11">
@@ -5589,7 +5505,7 @@
         <v>0.63368055555555569</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -5599,7 +5515,10 @@
       <c r="C29" s="5">
         <v>0</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5">
+        <f>65-SUM(D2:D9)-D15-D17-D25</f>
+        <v>14</v>
+      </c>
       <c r="E29" s="5">
         <v>0</v>
       </c>
@@ -5620,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
@@ -5631,7 +5550,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="6" t="s">
         <v>39</v>
       </c>
@@ -5639,22 +5558,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="14" t="s">
         <v>47</v>
       </c>
@@ -5674,7 +5593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T54"/>
   <sheetViews>
@@ -5682,7 +5601,7 @@
       <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -5691,16 +5610,16 @@
     <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="39" t="s">
+    <row r="1" spans="1:14" s="11" customFormat="1" ht="19.5" thickBot="1">
+      <c r="H1" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-    </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+    </row>
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="27" thickBot="1">
       <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
@@ -5733,27 +5652,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:14" ht="27" thickBot="1">
+      <c r="A3" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="22"/>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
       <c r="N3" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="51.75" customHeight="1" thickBot="1">
       <c r="A4" s="15" t="s">
         <v>50</v>
       </c>
@@ -5799,7 +5718,7 @@
         <v>15.335000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="39" customHeight="1" thickBot="1">
       <c r="A5" s="15" t="s">
         <v>51</v>
       </c>
@@ -5845,7 +5764,7 @@
         <v>8.32</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="A6" s="15" t="s">
         <v>52</v>
       </c>
@@ -5878,14 +5797,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="22"/>
       <c r="H7" s="15" t="s">
         <v>68</v>
@@ -5903,7 +5822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="A8" s="15" t="s">
         <v>54</v>
       </c>
@@ -5942,7 +5861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="27" thickBot="1">
       <c r="A9" s="15" t="s">
         <v>55</v>
       </c>
@@ -5965,19 +5884,19 @@
         <f>AVERAGE(B10:B11)</f>
         <v>17.664999999999999</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
       <c r="M9" s="11"/>
       <c r="N9" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="A10" s="15" t="s">
         <v>52</v>
       </c>
@@ -6017,7 +5936,7 @@
         <v>4.1574999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="A11" s="15" t="s">
         <v>56</v>
       </c>
@@ -6057,14 +5976,14 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A12" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="22"/>
       <c r="H12" s="15" t="s">
         <v>67</v>
@@ -6082,7 +6001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="51.75" customHeight="1" thickBot="1">
       <c r="A13" s="15" t="s">
         <v>50</v>
       </c>
@@ -6121,7 +6040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="39" customHeight="1" thickBot="1">
       <c r="A14" s="15" t="s">
         <v>51</v>
       </c>
@@ -6160,7 +6079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="15" t="s">
         <v>52</v>
       </c>
@@ -6188,14 +6107,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A16" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="22"/>
       <c r="H16" s="20" t="s">
         <v>72</v>
@@ -6208,7 +6127,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="15" t="s">
         <v>54</v>
       </c>
@@ -6226,7 +6145,7 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
       <c r="A18" s="15" t="s">
         <v>55</v>
       </c>
@@ -6250,7 +6169,7 @@
         <v>16.049999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="15" t="s">
         <v>52</v>
       </c>
@@ -6274,7 +6193,7 @@
         <v>15.565000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="15" t="s">
         <v>56</v>
       </c>
@@ -6292,7 +6211,7 @@
       </c>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="20" t="s">
         <v>73</v>
       </c>
@@ -6300,15 +6219,15 @@
         <f>AVERAGE(G4,G8,G13,G18)</f>
         <v>29.392499999999998</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="42"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="20" t="s">
         <v>72</v>
       </c>
@@ -6332,7 +6251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="H23" s="15" t="s">
         <v>77</v>
       </c>
@@ -6349,7 +6268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="H24" s="15" t="s">
         <v>68</v>
       </c>
@@ -6366,17 +6285,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A27" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
@@ -6393,7 +6312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="15" t="s">
         <v>71</v>
       </c>
@@ -6410,16 +6329,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A30" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1">
       <c r="A31" s="15" t="s">
         <v>68</v>
       </c>
@@ -6436,7 +6355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="15" t="s">
         <v>71</v>
       </c>
@@ -6453,7 +6372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33" s="20" t="s">
         <v>73</v>
       </c>
@@ -6462,7 +6381,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" s="20" t="s">
         <v>72</v>
       </c>
@@ -6471,7 +6390,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="H36" t="s">
         <v>73</v>
       </c>
@@ -6479,14 +6398,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+    <row r="37" spans="1:20" ht="16.5" thickBot="1">
+      <c r="A37" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
       <c r="H37" s="24" t="s">
         <v>89</v>
       </c>
@@ -6494,7 +6413,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="15.75" thickBot="1">
       <c r="A38" s="15" t="s">
         <v>68</v>
       </c>
@@ -6525,7 +6444,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="15.75" thickBot="1">
       <c r="A39" s="15" t="s">
         <v>71</v>
       </c>
@@ -6542,7 +6461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="15.75" thickBot="1">
       <c r="A40" s="15" t="s">
         <v>81</v>
       </c>
@@ -6565,14 +6484,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+    <row r="41" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A41" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
       <c r="H41">
         <f>H38+B46</f>
         <v>120.32499999999999</v>
@@ -6588,7 +6507,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="15.75" thickBot="1">
       <c r="A42" s="15" t="s">
         <v>68</v>
       </c>
@@ -6605,7 +6524,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="15.75" thickBot="1">
       <c r="A43" s="15" t="s">
         <v>71</v>
       </c>
@@ -6622,7 +6541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="15.75" thickBot="1">
       <c r="A44" s="15" t="s">
         <v>81</v>
       </c>
@@ -6638,29 +6557,29 @@
       <c r="E44" s="17">
         <v>30</v>
       </c>
-      <c r="H44" s="36" t="s">
+      <c r="H44" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="38"/>
-      <c r="N44" s="36" t="s">
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="42"/>
+      <c r="N44" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="38"/>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="36" t="s">
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A45" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
       <c r="H45" s="15" t="s">
         <v>76</v>
       </c>
@@ -6700,7 +6619,7 @@
         <v>25.16</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="15.75" thickBot="1">
       <c r="A46" s="15" t="s">
         <v>84</v>
       </c>
@@ -6748,7 +6667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="15.75" thickBot="1">
       <c r="A47" s="15" t="s">
         <v>68</v>
       </c>
@@ -6795,7 +6714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="15.75" thickBot="1">
       <c r="A48" s="15" t="s">
         <v>81</v>
       </c>
@@ -6811,22 +6730,22 @@
       <c r="E48" s="17">
         <v>52</v>
       </c>
-      <c r="H48" s="36" t="s">
+      <c r="H48" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="38"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="42"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A49" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="42"/>
       <c r="H49" s="15" t="s">
         <v>76</v>
       </c>
@@ -6843,7 +6762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1">
       <c r="A50" s="15" t="s">
         <v>86</v>
       </c>
@@ -6875,7 +6794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15.75" thickBot="1">
       <c r="A51" s="15" t="s">
         <v>87</v>
       </c>
@@ -6907,7 +6826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15.75" thickBot="1">
       <c r="A52" s="15" t="s">
         <v>68</v>
       </c>
@@ -6931,7 +6850,7 @@
         <v>11.5725</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.75" thickBot="1">
       <c r="A53" s="15" t="s">
         <v>88</v>
       </c>
@@ -6955,7 +6874,7 @@
         <v>3.2949999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="15" t="s">
         <v>81</v>
       </c>
@@ -6997,24 +6916,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="11" customFormat="1">
       <c r="A1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
         <v>99</v>
       </c>
@@ -7022,7 +6941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7031,7 +6950,7 @@
         <v>193.78980517669564</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7041,7 +6960,7 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7051,7 +6970,7 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -7061,7 +6980,7 @@
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -7071,7 +6990,7 @@
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -7081,7 +7000,7 @@
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -7091,7 +7010,7 @@
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -7101,7 +7020,7 @@
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -7111,7 +7030,7 @@
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -7121,7 +7040,7 @@
       </c>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -7131,7 +7050,7 @@
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -7141,7 +7060,7 @@
       </c>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -7151,7 +7070,7 @@
       </c>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -7161,7 +7080,7 @@
       </c>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -7171,7 +7090,7 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -7181,7 +7100,7 @@
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -7191,7 +7110,7 @@
       </c>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -7201,7 +7120,7 @@
       </c>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -7211,7 +7130,7 @@
       </c>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -7221,7 +7140,7 @@
       </c>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -7231,7 +7150,7 @@
       </c>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -7241,7 +7160,7 @@
       </c>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -7251,7 +7170,7 @@
       </c>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -7261,7 +7180,7 @@
       </c>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -7271,7 +7190,7 @@
       </c>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -7281,7 +7200,7 @@
       </c>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -7291,7 +7210,7 @@
       </c>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -7301,7 +7220,7 @@
       </c>
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -7311,7 +7230,7 @@
       </c>
       <c r="C31" s="11"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -7321,7 +7240,7 @@
       </c>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -7331,7 +7250,7 @@
       </c>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -7341,7 +7260,7 @@
       </c>
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -7351,7 +7270,7 @@
       </c>
       <c r="C35" s="11"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -7361,7 +7280,7 @@
       </c>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -7371,7 +7290,7 @@
       </c>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -7381,7 +7300,7 @@
       </c>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -7391,7 +7310,7 @@
       </c>
       <c r="C39" s="11"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -7401,7 +7320,7 @@
       </c>
       <c r="C40" s="11"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -7411,7 +7330,7 @@
       </c>
       <c r="C41" s="11"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -7421,7 +7340,7 @@
       </c>
       <c r="C42" s="11"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -7431,7 +7350,7 @@
       </c>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -7441,7 +7360,7 @@
       </c>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -7451,7 +7370,7 @@
       </c>
       <c r="C45" s="11"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -7461,7 +7380,7 @@
       </c>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -7471,7 +7390,7 @@
       </c>
       <c r="C47" s="11"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -7481,7 +7400,7 @@
       </c>
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -7491,7 +7410,7 @@
       </c>
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -7501,7 +7420,7 @@
       </c>
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -7511,7 +7430,7 @@
       </c>
       <c r="C51" s="11"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -7521,7 +7440,7 @@
       </c>
       <c r="C52" s="11"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -7531,7 +7450,7 @@
       </c>
       <c r="C53" s="11"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -7541,7 +7460,7 @@
       </c>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -7551,7 +7470,7 @@
       </c>
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -7561,7 +7480,7 @@
       </c>
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -7571,7 +7490,7 @@
       </c>
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -7581,7 +7500,7 @@
       </c>
       <c r="C58" s="11"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -7591,7 +7510,7 @@
       </c>
       <c r="C59" s="11"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -7601,7 +7520,7 @@
       </c>
       <c r="C60" s="11"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -7611,7 +7530,7 @@
       </c>
       <c r="C61" s="11"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -7621,7 +7540,7 @@
       </c>
       <c r="C62" s="11"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -7631,7 +7550,7 @@
       </c>
       <c r="C63" s="11"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -7641,7 +7560,7 @@
       </c>
       <c r="C64" s="11"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -7651,7 +7570,7 @@
       </c>
       <c r="C65" s="11"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -7661,7 +7580,7 @@
       </c>
       <c r="C66" s="11"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -7671,7 +7590,7 @@
       </c>
       <c r="C67" s="11"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -7681,7 +7600,7 @@
       </c>
       <c r="C68" s="11"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -7691,7 +7610,7 @@
       </c>
       <c r="C69" s="11"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -7701,7 +7620,7 @@
       </c>
       <c r="C70" s="11"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -7711,7 +7630,7 @@
       </c>
       <c r="C71" s="11"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -7721,7 +7640,7 @@
       </c>
       <c r="C72" s="11"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -7731,7 +7650,7 @@
       </c>
       <c r="C73" s="11"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -7741,7 +7660,7 @@
       </c>
       <c r="C74" s="11"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -7751,7 +7670,7 @@
       </c>
       <c r="C75" s="11"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -7761,7 +7680,7 @@
       </c>
       <c r="C76" s="11"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -7771,7 +7690,7 @@
       </c>
       <c r="C77" s="11"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -7781,7 +7700,7 @@
       </c>
       <c r="C78" s="11"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -7791,7 +7710,7 @@
       </c>
       <c r="C79" s="11"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="11">
         <v>78</v>
       </c>
@@ -7801,7 +7720,7 @@
       </c>
       <c r="C80" s="11"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -7811,7 +7730,7 @@
       </c>
       <c r="C81" s="11"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="11">
         <v>80</v>
       </c>
@@ -7821,7 +7740,7 @@
       </c>
       <c r="C82" s="11"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -7831,7 +7750,7 @@
       </c>
       <c r="C83" s="11"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="11">
         <v>82</v>
       </c>
@@ -7841,7 +7760,7 @@
       </c>
       <c r="C84" s="11"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -7851,7 +7770,7 @@
       </c>
       <c r="C85" s="11"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="11">
         <v>84</v>
       </c>
@@ -7861,7 +7780,7 @@
       </c>
       <c r="C86" s="11"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="11">
         <v>85</v>
       </c>
@@ -7871,7 +7790,7 @@
       </c>
       <c r="C87" s="11"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="11">
         <v>86</v>
       </c>
@@ -7881,7 +7800,7 @@
       </c>
       <c r="C88" s="11"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="11">
         <v>87</v>
       </c>
@@ -7891,7 +7810,7 @@
       </c>
       <c r="C89" s="11"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="11">
         <v>88</v>
       </c>
@@ -7901,7 +7820,7 @@
       </c>
       <c r="C90" s="11"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="11">
         <v>89</v>
       </c>
@@ -7911,7 +7830,7 @@
       </c>
       <c r="C91" s="11"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -7921,7 +7840,7 @@
       </c>
       <c r="C92" s="11"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="11">
         <v>91</v>
       </c>
@@ -7931,7 +7850,7 @@
       </c>
       <c r="C93" s="11"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="11">
         <v>92</v>
       </c>
@@ -7941,7 +7860,7 @@
       </c>
       <c r="C94" s="11"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="11">
         <v>93</v>
       </c>
@@ -7951,7 +7870,7 @@
       </c>
       <c r="C95" s="11"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="11">
         <v>94</v>
       </c>
@@ -7961,7 +7880,7 @@
       </c>
       <c r="C96" s="11"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="11">
         <v>95</v>
       </c>
@@ -7971,7 +7890,7 @@
       </c>
       <c r="C97" s="11"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="11">
         <v>96</v>
       </c>
@@ -7981,7 +7900,7 @@
       </c>
       <c r="C98" s="11"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="11">
         <v>97</v>
       </c>
@@ -7991,7 +7910,7 @@
       </c>
       <c r="C99" s="11"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="11">
         <v>98</v>
       </c>
@@ -8001,7 +7920,7 @@
       </c>
       <c r="C100" s="11"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="11">
         <v>99</v>
       </c>
@@ -8011,7 +7930,7 @@
       </c>
       <c r="C101" s="11"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="11">
         <v>100</v>
       </c>
@@ -8021,7 +7940,7 @@
       </c>
       <c r="C102" s="11"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="11">
         <v>101</v>
       </c>
@@ -8031,7 +7950,7 @@
       </c>
       <c r="C103" s="11"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="11">
         <v>102</v>
       </c>
@@ -8041,7 +7960,7 @@
       </c>
       <c r="C104" s="11"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="11">
         <v>103</v>
       </c>
@@ -8051,7 +7970,7 @@
       </c>
       <c r="C105" s="11"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="11">
         <v>104</v>
       </c>
@@ -8061,7 +7980,7 @@
       </c>
       <c r="C106" s="11"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="11">
         <v>105</v>
       </c>
@@ -8071,7 +7990,7 @@
       </c>
       <c r="C107" s="11"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="11">
         <v>106</v>
       </c>
@@ -8081,7 +8000,7 @@
       </c>
       <c r="C108" s="11"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="11">
         <v>107</v>
       </c>
@@ -8091,7 +8010,7 @@
       </c>
       <c r="C109" s="11"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="11">
         <v>108</v>
       </c>
@@ -8101,7 +8020,7 @@
       </c>
       <c r="C110" s="11"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="11">
         <v>109</v>
       </c>
@@ -8111,7 +8030,7 @@
       </c>
       <c r="C111" s="11"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="11">
         <v>110</v>
       </c>
@@ -8121,7 +8040,7 @@
       </c>
       <c r="C112" s="11"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="11">
         <v>111</v>
       </c>
@@ -8131,7 +8050,7 @@
       </c>
       <c r="C113" s="11"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="11">
         <v>112</v>
       </c>
@@ -8141,7 +8060,7 @@
       </c>
       <c r="C114" s="11"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="11">
         <v>113</v>
       </c>
@@ -8151,7 +8070,7 @@
       </c>
       <c r="C115" s="11"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="11">
         <v>114</v>
       </c>
@@ -8161,7 +8080,7 @@
       </c>
       <c r="C116" s="11"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="11">
         <v>115</v>
       </c>
@@ -8171,7 +8090,7 @@
       </c>
       <c r="C117" s="11"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="11">
         <v>116</v>
       </c>
@@ -8181,7 +8100,7 @@
       </c>
       <c r="C118" s="11"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="11">
         <v>117</v>
       </c>
@@ -8191,7 +8110,7 @@
       </c>
       <c r="C119" s="11"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="11">
         <v>118</v>
       </c>
@@ -8201,7 +8120,7 @@
       </c>
       <c r="C120" s="11"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="11">
         <v>119</v>
       </c>
@@ -8211,7 +8130,7 @@
       </c>
       <c r="C121" s="11"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="11">
         <v>120</v>
       </c>
@@ -8221,7 +8140,7 @@
       </c>
       <c r="C122" s="11"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="11">
         <v>121</v>
       </c>
@@ -8231,7 +8150,7 @@
       </c>
       <c r="C123" s="11"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="11">
         <v>122</v>
       </c>
@@ -8241,7 +8160,7 @@
       </c>
       <c r="C124" s="11"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="11">
         <v>123</v>
       </c>
@@ -8251,7 +8170,7 @@
       </c>
       <c r="C125" s="11"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="11">
         <v>124</v>
       </c>
@@ -8261,7 +8180,7 @@
       </c>
       <c r="C126" s="11"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="11">
         <v>125</v>
       </c>
@@ -8271,7 +8190,7 @@
       </c>
       <c r="C127" s="11"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="11">
         <v>126</v>
       </c>
@@ -8281,7 +8200,7 @@
       </c>
       <c r="C128" s="11"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="11">
         <v>127</v>
       </c>
@@ -8291,7 +8210,7 @@
       </c>
       <c r="C129" s="11"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="11">
         <v>128</v>
       </c>
@@ -8301,7 +8220,7 @@
       </c>
       <c r="C130" s="11"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="11">
         <v>129</v>
       </c>
@@ -8311,7 +8230,7 @@
       </c>
       <c r="C131" s="11"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="11">
         <v>130</v>
       </c>
@@ -8321,7 +8240,7 @@
       </c>
       <c r="C132" s="11"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="11">
         <v>131</v>
       </c>
@@ -8331,7 +8250,7 @@
       </c>
       <c r="C133" s="11"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="11">
         <v>132</v>
       </c>
@@ -8341,7 +8260,7 @@
       </c>
       <c r="C134" s="11"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="11">
         <v>133</v>
       </c>
@@ -8351,7 +8270,7 @@
       </c>
       <c r="C135" s="11"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="11">
         <v>134</v>
       </c>
@@ -8361,7 +8280,7 @@
       </c>
       <c r="C136" s="11"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="11">
         <v>135</v>
       </c>
@@ -8371,7 +8290,7 @@
       </c>
       <c r="C137" s="11"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="11">
         <v>136</v>
       </c>
@@ -8381,7 +8300,7 @@
       </c>
       <c r="C138" s="11"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="11">
         <v>137</v>
       </c>
@@ -8391,7 +8310,7 @@
       </c>
       <c r="C139" s="11"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="11">
         <v>138</v>
       </c>
@@ -8401,7 +8320,7 @@
       </c>
       <c r="C140" s="11"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="11">
         <v>139</v>
       </c>
@@ -8411,7 +8330,7 @@
       </c>
       <c r="C141" s="11"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="11">
         <v>140</v>
       </c>
@@ -8421,7 +8340,7 @@
       </c>
       <c r="C142" s="11"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="11">
         <v>141</v>
       </c>
@@ -8431,7 +8350,7 @@
       </c>
       <c r="C143" s="11"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="11">
         <v>142</v>
       </c>
@@ -8441,7 +8360,7 @@
       </c>
       <c r="C144" s="11"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="11">
         <v>143</v>
       </c>
@@ -8451,7 +8370,7 @@
       </c>
       <c r="C145" s="11"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="11">
         <v>144</v>
       </c>
@@ -8461,7 +8380,7 @@
       </c>
       <c r="C146" s="11"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="11">
         <v>145</v>
       </c>
@@ -8471,7 +8390,7 @@
       </c>
       <c r="C147" s="11"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="11">
         <v>146</v>
       </c>
@@ -8481,7 +8400,7 @@
       </c>
       <c r="C148" s="11"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="11">
         <v>147</v>
       </c>
@@ -8491,7 +8410,7 @@
       </c>
       <c r="C149" s="11"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="11">
         <v>148</v>
       </c>
@@ -8501,7 +8420,7 @@
       </c>
       <c r="C150" s="11"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="11">
         <v>149</v>
       </c>
@@ -8511,7 +8430,7 @@
       </c>
       <c r="C151" s="11"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="11">
         <v>150</v>
       </c>
@@ -8521,7 +8440,7 @@
       </c>
       <c r="C152" s="11"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="11">
         <v>151</v>
       </c>
@@ -8531,7 +8450,7 @@
       </c>
       <c r="C153" s="11"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="11">
         <v>152</v>
       </c>
@@ -8541,7 +8460,7 @@
       </c>
       <c r="C154" s="11"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="11">
         <v>153</v>
       </c>
@@ -8551,7 +8470,7 @@
       </c>
       <c r="C155" s="11"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="11">
         <v>154</v>
       </c>
@@ -8561,7 +8480,7 @@
       </c>
       <c r="C156" s="11"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="11">
         <v>155</v>
       </c>
@@ -8571,7 +8490,7 @@
       </c>
       <c r="C157" s="11"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="11">
         <v>156</v>
       </c>
@@ -8581,7 +8500,7 @@
       </c>
       <c r="C158" s="11"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="11">
         <v>157</v>
       </c>
@@ -8591,7 +8510,7 @@
       </c>
       <c r="C159" s="11"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="11">
         <v>158</v>
       </c>
@@ -8601,7 +8520,7 @@
       </c>
       <c r="C160" s="11"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="11">
         <v>159</v>
       </c>
@@ -8611,7 +8530,7 @@
       </c>
       <c r="C161" s="11"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="11">
         <v>160</v>
       </c>
@@ -8621,7 +8540,7 @@
       </c>
       <c r="C162" s="11"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="11">
         <v>161</v>
       </c>
@@ -8631,7 +8550,7 @@
       </c>
       <c r="C163" s="11"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="11">
         <v>162</v>
       </c>
@@ -8641,7 +8560,7 @@
       </c>
       <c r="C164" s="11"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="11">
         <v>163</v>
       </c>
@@ -8651,7 +8570,7 @@
       </c>
       <c r="C165" s="11"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="11">
         <v>164</v>
       </c>
@@ -8661,7 +8580,7 @@
       </c>
       <c r="C166" s="11"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="11">
         <v>165</v>
       </c>
@@ -8671,7 +8590,7 @@
       </c>
       <c r="C167" s="11"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="11">
         <v>166</v>
       </c>
@@ -8681,7 +8600,7 @@
       </c>
       <c r="C168" s="11"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="11">
         <v>167</v>
       </c>
@@ -8691,7 +8610,7 @@
       </c>
       <c r="C169" s="11"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="11">
         <v>168</v>
       </c>
@@ -8701,7 +8620,7 @@
       </c>
       <c r="C170" s="11"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="11">
         <v>169</v>
       </c>
@@ -8711,7 +8630,7 @@
       </c>
       <c r="C171" s="11"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="11">
         <v>170</v>
       </c>
@@ -8721,7 +8640,7 @@
       </c>
       <c r="C172" s="11"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="11">
         <v>171</v>
       </c>
@@ -8731,7 +8650,7 @@
       </c>
       <c r="C173" s="11"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="11">
         <v>172</v>
       </c>
@@ -8741,7 +8660,7 @@
       </c>
       <c r="C174" s="11"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="11">
         <v>173</v>
       </c>
@@ -8751,7 +8670,7 @@
       </c>
       <c r="C175" s="11"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="11">
         <v>174</v>
       </c>
@@ -8761,7 +8680,7 @@
       </c>
       <c r="C176" s="11"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="11">
         <v>175</v>
       </c>
@@ -8771,7 +8690,7 @@
       </c>
       <c r="C177" s="11"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="11">
         <v>176</v>
       </c>
@@ -8781,7 +8700,7 @@
       </c>
       <c r="C178" s="11"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="11">
         <v>177</v>
       </c>
@@ -8791,7 +8710,7 @@
       </c>
       <c r="C179" s="11"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="11">
         <v>178</v>
       </c>
@@ -8801,7 +8720,7 @@
       </c>
       <c r="C180" s="11"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="11">
         <v>179</v>
       </c>
@@ -8811,7 +8730,7 @@
       </c>
       <c r="C181" s="11"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="11">
         <v>180</v>
       </c>
@@ -8821,7 +8740,7 @@
       </c>
       <c r="C182" s="11"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="11">
         <v>181</v>
       </c>
@@ -8831,7 +8750,7 @@
       </c>
       <c r="C183" s="11"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="11">
         <v>182</v>
       </c>
@@ -8841,7 +8760,7 @@
       </c>
       <c r="C184" s="11"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="11">
         <v>183</v>
       </c>
@@ -8851,7 +8770,7 @@
       </c>
       <c r="C185" s="11"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="11">
         <v>184</v>
       </c>
@@ -8861,7 +8780,7 @@
       </c>
       <c r="C186" s="11"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="11">
         <v>185</v>
       </c>
@@ -8871,7 +8790,7 @@
       </c>
       <c r="C187" s="11"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="11">
         <v>186</v>
       </c>
@@ -8881,7 +8800,7 @@
       </c>
       <c r="C188" s="11"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="11">
         <v>187</v>
       </c>
@@ -8891,7 +8810,7 @@
       </c>
       <c r="C189" s="11"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="11">
         <v>188</v>
       </c>
@@ -8901,7 +8820,7 @@
       </c>
       <c r="C190" s="11"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="11">
         <v>189</v>
       </c>
@@ -8911,7 +8830,7 @@
       </c>
       <c r="C191" s="11"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="11">
         <v>190</v>
       </c>
@@ -8921,7 +8840,7 @@
       </c>
       <c r="C192" s="11"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="11">
         <v>191</v>
       </c>
@@ -8931,7 +8850,7 @@
       </c>
       <c r="C193" s="11"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="11">
         <v>192</v>
       </c>
@@ -8941,7 +8860,7 @@
       </c>
       <c r="C194" s="11"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="11">
         <v>193</v>
       </c>
@@ -8951,7 +8870,7 @@
       </c>
       <c r="C195" s="11"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="11">
         <v>194</v>
       </c>
@@ -8961,7 +8880,7 @@
       </c>
       <c r="C196" s="11"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="11">
         <v>195</v>
       </c>
@@ -8971,7 +8890,7 @@
       </c>
       <c r="C197" s="11"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="11">
         <v>196</v>
       </c>
@@ -8981,7 +8900,7 @@
       </c>
       <c r="C198" s="11"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="11">
         <v>197</v>
       </c>
@@ -8991,7 +8910,7 @@
       </c>
       <c r="C199" s="11"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="11">
         <v>198</v>
       </c>
@@ -9001,7 +8920,7 @@
       </c>
       <c r="C200" s="11"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="11">
         <v>199</v>
       </c>
@@ -9011,7 +8930,7 @@
       </c>
       <c r="C201" s="11"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="11">
         <v>200</v>
       </c>
@@ -9021,7 +8940,7 @@
       </c>
       <c r="C202" s="11"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="11">
         <v>201</v>
       </c>
@@ -9031,7 +8950,7 @@
       </c>
       <c r="C203" s="11"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="11">
         <v>202</v>
       </c>
@@ -9041,7 +8960,7 @@
       </c>
       <c r="C204" s="11"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="11">
         <v>203</v>
       </c>
@@ -9051,7 +8970,7 @@
       </c>
       <c r="C205" s="11"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="11">
         <v>204</v>
       </c>
@@ -9061,7 +8980,7 @@
       </c>
       <c r="C206" s="11"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="11">
         <v>205</v>
       </c>
@@ -9071,7 +8990,7 @@
       </c>
       <c r="C207" s="11"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="11">
         <v>206</v>
       </c>
@@ -9081,7 +9000,7 @@
       </c>
       <c r="C208" s="11"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="11">
         <v>207</v>
       </c>
@@ -9091,7 +9010,7 @@
       </c>
       <c r="C209" s="11"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="11">
         <v>208</v>
       </c>
@@ -9101,7 +9020,7 @@
       </c>
       <c r="C210" s="11"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" s="11">
         <v>209</v>
       </c>
@@ -9111,7 +9030,7 @@
       </c>
       <c r="C211" s="11"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="11">
         <v>210</v>
       </c>
@@ -9121,7 +9040,7 @@
       </c>
       <c r="C212" s="11"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="11">
         <v>211</v>
       </c>
@@ -9131,7 +9050,7 @@
       </c>
       <c r="C213" s="11"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="11">
         <v>212</v>
       </c>
@@ -9141,7 +9060,7 @@
       </c>
       <c r="C214" s="11"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="11">
         <v>213</v>
       </c>
@@ -9151,7 +9070,7 @@
       </c>
       <c r="C215" s="11"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="11">
         <v>214</v>
       </c>
@@ -9161,7 +9080,7 @@
       </c>
       <c r="C216" s="11"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" s="11">
         <v>215</v>
       </c>
@@ -9171,7 +9090,7 @@
       </c>
       <c r="C217" s="11"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" s="11">
         <v>216</v>
       </c>
@@ -9181,7 +9100,7 @@
       </c>
       <c r="C218" s="11"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="11">
         <v>217</v>
       </c>
@@ -9191,7 +9110,7 @@
       </c>
       <c r="C219" s="11"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="11">
         <v>218</v>
       </c>
@@ -9201,7 +9120,7 @@
       </c>
       <c r="C220" s="11"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" s="11">
         <v>219</v>
       </c>
@@ -9211,7 +9130,7 @@
       </c>
       <c r="C221" s="11"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="11">
         <v>220</v>
       </c>
@@ -9221,7 +9140,7 @@
       </c>
       <c r="C222" s="11"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="11">
         <v>221</v>
       </c>
@@ -9231,7 +9150,7 @@
       </c>
       <c r="C223" s="11"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" s="11">
         <v>222</v>
       </c>
@@ -9241,7 +9160,7 @@
       </c>
       <c r="C224" s="11"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" s="11">
         <v>223</v>
       </c>
@@ -9251,7 +9170,7 @@
       </c>
       <c r="C225" s="11"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" s="11">
         <v>224</v>
       </c>
@@ -9261,7 +9180,7 @@
       </c>
       <c r="C226" s="11"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" s="11">
         <v>225</v>
       </c>
@@ -9271,7 +9190,7 @@
       </c>
       <c r="C227" s="11"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="11">
         <v>226</v>
       </c>
@@ -9281,7 +9200,7 @@
       </c>
       <c r="C228" s="11"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" s="11">
         <v>227</v>
       </c>
@@ -9291,7 +9210,7 @@
       </c>
       <c r="C229" s="11"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" s="11">
         <v>228</v>
       </c>
@@ -9301,7 +9220,7 @@
       </c>
       <c r="C230" s="11"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" s="11">
         <v>229</v>
       </c>
@@ -9311,7 +9230,7 @@
       </c>
       <c r="C231" s="11"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" s="11">
         <v>230</v>
       </c>
@@ -9321,7 +9240,7 @@
       </c>
       <c r="C232" s="11"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" s="11">
         <v>231</v>
       </c>
@@ -9331,7 +9250,7 @@
       </c>
       <c r="C233" s="11"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" s="11">
         <v>232</v>
       </c>
@@ -9341,7 +9260,7 @@
       </c>
       <c r="C234" s="11"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" s="11">
         <v>233</v>
       </c>
@@ -9351,7 +9270,7 @@
       </c>
       <c r="C235" s="11"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" s="11">
         <v>234</v>
       </c>
@@ -9361,7 +9280,7 @@
       </c>
       <c r="C236" s="11"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" s="11">
         <v>235</v>
       </c>
@@ -9371,7 +9290,7 @@
       </c>
       <c r="C237" s="11"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" s="11">
         <v>236</v>
       </c>
@@ -9381,7 +9300,7 @@
       </c>
       <c r="C238" s="11"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" s="11">
         <v>237</v>
       </c>
@@ -9391,7 +9310,7 @@
       </c>
       <c r="C239" s="11"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" s="11">
         <v>238</v>
       </c>
@@ -9401,7 +9320,7 @@
       </c>
       <c r="C240" s="11"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" s="11">
         <v>239</v>
       </c>
@@ -9411,7 +9330,7 @@
       </c>
       <c r="C241" s="11"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" s="11">
         <v>240</v>
       </c>
@@ -9421,7 +9340,7 @@
       </c>
       <c r="C242" s="11"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" s="11">
         <v>241</v>
       </c>
@@ -9431,7 +9350,7 @@
       </c>
       <c r="C243" s="11"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" s="11">
         <v>242</v>
       </c>
@@ -9441,7 +9360,7 @@
       </c>
       <c r="C244" s="11"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" s="11">
         <v>243</v>
       </c>
@@ -9451,7 +9370,7 @@
       </c>
       <c r="C245" s="11"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" s="11">
         <v>244</v>
       </c>
@@ -9461,7 +9380,7 @@
       </c>
       <c r="C246" s="11"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" s="11">
         <v>245</v>
       </c>
@@ -9471,7 +9390,7 @@
       </c>
       <c r="C247" s="11"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" s="11">
         <v>246</v>
       </c>
@@ -9481,7 +9400,7 @@
       </c>
       <c r="C248" s="11"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" s="11">
         <v>247</v>
       </c>
@@ -9491,7 +9410,7 @@
       </c>
       <c r="C249" s="11"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" s="11">
         <v>248</v>
       </c>
@@ -9501,7 +9420,7 @@
       </c>
       <c r="C250" s="11"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" s="11">
         <v>249</v>
       </c>
@@ -9511,7 +9430,7 @@
       </c>
       <c r="C251" s="11"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" s="11">
         <v>250</v>
       </c>
@@ -9521,7 +9440,7 @@
       </c>
       <c r="C252" s="11"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" s="11">
         <v>251</v>
       </c>
@@ -9531,7 +9450,7 @@
       </c>
       <c r="C253" s="11"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" s="11">
         <v>252</v>
       </c>
@@ -9541,7 +9460,7 @@
       </c>
       <c r="C254" s="11"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" s="11">
         <v>253</v>
       </c>
@@ -9551,7 +9470,7 @@
       </c>
       <c r="C255" s="11"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" s="11">
         <v>254</v>
       </c>
@@ -9561,7 +9480,7 @@
       </c>
       <c r="C256" s="11"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" s="11">
         <v>255</v>
       </c>
@@ -9571,7 +9490,7 @@
       </c>
       <c r="C257" s="11"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" s="11">
         <v>256</v>
       </c>
@@ -9581,7 +9500,7 @@
       </c>
       <c r="C258" s="11"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" s="11">
         <v>257</v>
       </c>
@@ -9591,7 +9510,7 @@
       </c>
       <c r="C259" s="11"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" s="11">
         <v>258</v>
       </c>
@@ -9601,7 +9520,7 @@
       </c>
       <c r="C260" s="11"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" s="11">
         <v>259</v>
       </c>
@@ -9611,7 +9530,7 @@
       </c>
       <c r="C261" s="11"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" s="11">
         <v>260</v>
       </c>
@@ -9621,7 +9540,7 @@
       </c>
       <c r="C262" s="11"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" s="11">
         <v>261</v>
       </c>
@@ -9631,7 +9550,7 @@
       </c>
       <c r="C263" s="11"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" s="11">
         <v>262</v>
       </c>
@@ -9641,7 +9560,7 @@
       </c>
       <c r="C264" s="11"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" s="11">
         <v>263</v>
       </c>
@@ -9651,7 +9570,7 @@
       </c>
       <c r="C265" s="11"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266" s="11">
         <v>264</v>
       </c>
@@ -9661,7 +9580,7 @@
       </c>
       <c r="C266" s="11"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267" s="11">
         <v>265</v>
       </c>
@@ -9671,7 +9590,7 @@
       </c>
       <c r="C267" s="11"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" s="11">
         <v>266</v>
       </c>
@@ -9681,7 +9600,7 @@
       </c>
       <c r="C268" s="11"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" s="11">
         <v>267</v>
       </c>
@@ -9691,7 +9610,7 @@
       </c>
       <c r="C269" s="11"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" s="11">
         <v>268</v>
       </c>
@@ -9701,7 +9620,7 @@
       </c>
       <c r="C270" s="11"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271" s="11">
         <v>269</v>
       </c>
@@ -9711,7 +9630,7 @@
       </c>
       <c r="C271" s="11"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" s="11">
         <v>270</v>
       </c>
@@ -9721,7 +9640,7 @@
       </c>
       <c r="C272" s="11"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273" s="11">
         <v>271</v>
       </c>
@@ -9731,7 +9650,7 @@
       </c>
       <c r="C273" s="11"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274" s="11">
         <v>272</v>
       </c>
@@ -9741,7 +9660,7 @@
       </c>
       <c r="C274" s="11"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275" s="11">
         <v>273</v>
       </c>
@@ -9751,7 +9670,7 @@
       </c>
       <c r="C275" s="11"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3">
       <c r="A276" s="11">
         <v>274</v>
       </c>
@@ -9761,7 +9680,7 @@
       </c>
       <c r="C276" s="11"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277" s="11">
         <v>275</v>
       </c>
@@ -9771,7 +9690,7 @@
       </c>
       <c r="C277" s="11"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3">
       <c r="A278" s="11">
         <v>276</v>
       </c>
@@ -9781,7 +9700,7 @@
       </c>
       <c r="C278" s="11"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3">
       <c r="A279" s="11">
         <v>277</v>
       </c>
@@ -9791,7 +9710,7 @@
       </c>
       <c r="C279" s="11"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3">
       <c r="A280" s="11">
         <v>278</v>
       </c>
@@ -9801,7 +9720,7 @@
       </c>
       <c r="C280" s="11"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3">
       <c r="A281" s="11">
         <v>279</v>
       </c>
@@ -9811,7 +9730,7 @@
       </c>
       <c r="C281" s="11"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3">
       <c r="A282" s="11">
         <v>280</v>
       </c>
@@ -9821,7 +9740,7 @@
       </c>
       <c r="C282" s="11"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3">
       <c r="A283" s="11">
         <v>281</v>
       </c>
@@ -9831,7 +9750,7 @@
       </c>
       <c r="C283" s="11"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3">
       <c r="A284" s="11">
         <v>282</v>
       </c>
@@ -9841,7 +9760,7 @@
       </c>
       <c r="C284" s="11"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3">
       <c r="A285" s="11">
         <v>283</v>
       </c>
@@ -9851,7 +9770,7 @@
       </c>
       <c r="C285" s="11"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3">
       <c r="A286" s="11">
         <v>284</v>
       </c>
@@ -9861,7 +9780,7 @@
       </c>
       <c r="C286" s="11"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3">
       <c r="A287" s="11">
         <v>285</v>
       </c>
@@ -9871,7 +9790,7 @@
       </c>
       <c r="C287" s="11"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3">
       <c r="A288" s="11">
         <v>286</v>
       </c>
@@ -9881,7 +9800,7 @@
       </c>
       <c r="C288" s="11"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3">
       <c r="A289" s="11">
         <v>287</v>
       </c>
@@ -9891,7 +9810,7 @@
       </c>
       <c r="C289" s="11"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3">
       <c r="A290" s="11">
         <v>288</v>
       </c>
@@ -9901,7 +9820,7 @@
       </c>
       <c r="C290" s="11"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3">
       <c r="A291" s="11">
         <v>289</v>
       </c>
@@ -9911,7 +9830,7 @@
       </c>
       <c r="C291" s="11"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3">
       <c r="A292" s="11">
         <v>290</v>
       </c>
@@ -9921,7 +9840,7 @@
       </c>
       <c r="C292" s="11"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3">
       <c r="A293" s="11">
         <v>291</v>
       </c>
@@ -9931,7 +9850,7 @@
       </c>
       <c r="C293" s="11"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3">
       <c r="A294" s="11">
         <v>292</v>
       </c>
@@ -9941,7 +9860,7 @@
       </c>
       <c r="C294" s="11"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3">
       <c r="A295" s="11">
         <v>293</v>
       </c>
@@ -9951,7 +9870,7 @@
       </c>
       <c r="C295" s="11"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3">
       <c r="A296" s="11">
         <v>294</v>
       </c>
@@ -9961,7 +9880,7 @@
       </c>
       <c r="C296" s="11"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3">
       <c r="A297" s="11">
         <v>295</v>
       </c>
@@ -9971,7 +9890,7 @@
       </c>
       <c r="C297" s="11"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3">
       <c r="A298" s="11">
         <v>296</v>
       </c>
@@ -9981,7 +9900,7 @@
       </c>
       <c r="C298" s="11"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3">
       <c r="A299" s="11">
         <v>297</v>
       </c>
@@ -9991,7 +9910,7 @@
       </c>
       <c r="C299" s="11"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3">
       <c r="A300" s="11">
         <v>298</v>
       </c>
@@ -10001,7 +9920,7 @@
       </c>
       <c r="C300" s="11"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" s="11">
         <v>299</v>
       </c>
@@ -10011,7 +9930,7 @@
       </c>
       <c r="C301" s="11"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3">
       <c r="A302" s="11">
         <v>300</v>
       </c>
@@ -10021,7 +9940,7 @@
       </c>
       <c r="C302" s="11"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3">
       <c r="A303" s="11">
         <v>301</v>
       </c>
@@ -10031,7 +9950,7 @@
       </c>
       <c r="C303" s="11"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3">
       <c r="A304" s="11">
         <v>302</v>
       </c>
@@ -10041,7 +9960,7 @@
       </c>
       <c r="C304" s="11"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3">
       <c r="A305" s="11">
         <v>303</v>
       </c>
@@ -10051,7 +9970,7 @@
       </c>
       <c r="C305" s="11"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3">
       <c r="A306" s="11">
         <v>304</v>
       </c>
@@ -10061,7 +9980,7 @@
       </c>
       <c r="C306" s="11"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3">
       <c r="A307" s="11">
         <v>305</v>
       </c>
@@ -10071,7 +9990,7 @@
       </c>
       <c r="C307" s="11"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3">
       <c r="A308" s="11">
         <v>306</v>
       </c>
@@ -10081,7 +10000,7 @@
       </c>
       <c r="C308" s="11"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3">
       <c r="A309" s="11">
         <v>307</v>
       </c>
@@ -10091,7 +10010,7 @@
       </c>
       <c r="C309" s="11"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3">
       <c r="A310" s="11">
         <v>308</v>
       </c>
@@ -10101,7 +10020,7 @@
       </c>
       <c r="C310" s="11"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3">
       <c r="A311" s="11">
         <v>309</v>
       </c>
@@ -10111,7 +10030,7 @@
       </c>
       <c r="C311" s="11"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3">
       <c r="A312" s="11">
         <v>310</v>
       </c>
@@ -10121,7 +10040,7 @@
       </c>
       <c r="C312" s="11"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3">
       <c r="A313" s="11">
         <v>311</v>
       </c>
@@ -10131,7 +10050,7 @@
       </c>
       <c r="C313" s="11"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3">
       <c r="A314" s="11">
         <v>312</v>
       </c>
@@ -10141,7 +10060,7 @@
       </c>
       <c r="C314" s="11"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3">
       <c r="A315" s="11">
         <v>313</v>
       </c>
@@ -10151,7 +10070,7 @@
       </c>
       <c r="C315" s="11"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3">
       <c r="A316" s="11">
         <v>314</v>
       </c>
@@ -10161,7 +10080,7 @@
       </c>
       <c r="C316" s="11"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3">
       <c r="A317" s="11">
         <v>315</v>
       </c>
@@ -10171,7 +10090,7 @@
       </c>
       <c r="C317" s="11"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3">
       <c r="A318" s="11">
         <v>316</v>
       </c>
@@ -10181,7 +10100,7 @@
       </c>
       <c r="C318" s="11"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3">
       <c r="A319" s="11">
         <v>317</v>
       </c>
@@ -10191,7 +10110,7 @@
       </c>
       <c r="C319" s="11"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" s="11">
         <v>318</v>
       </c>
@@ -10201,7 +10120,7 @@
       </c>
       <c r="C320" s="11"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321" s="11">
         <v>319</v>
       </c>
@@ -10211,7 +10130,7 @@
       </c>
       <c r="C321" s="11"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" s="11">
         <v>320</v>
       </c>
@@ -10221,7 +10140,7 @@
       </c>
       <c r="C322" s="11"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3">
       <c r="A323" s="11">
         <v>321</v>
       </c>
@@ -10231,7 +10150,7 @@
       </c>
       <c r="C323" s="11"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324" s="11">
         <v>322</v>
       </c>
@@ -10241,7 +10160,7 @@
       </c>
       <c r="C324" s="11"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325" s="11">
         <v>323</v>
       </c>
@@ -10251,7 +10170,7 @@
       </c>
       <c r="C325" s="11"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3">
       <c r="A326" s="11">
         <v>324</v>
       </c>
@@ -10261,7 +10180,7 @@
       </c>
       <c r="C326" s="11"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3">
       <c r="A327" s="11">
         <v>325</v>
       </c>
@@ -10271,7 +10190,7 @@
       </c>
       <c r="C327" s="11"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328" s="11">
         <v>326</v>
       </c>
@@ -10281,7 +10200,7 @@
       </c>
       <c r="C328" s="11"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329" s="11">
         <v>327</v>
       </c>
@@ -10291,7 +10210,7 @@
       </c>
       <c r="C329" s="11"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3">
       <c r="A330" s="11">
         <v>328</v>
       </c>
@@ -10301,7 +10220,7 @@
       </c>
       <c r="C330" s="11"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3">
       <c r="A331" s="11">
         <v>329</v>
       </c>
@@ -10311,7 +10230,7 @@
       </c>
       <c r="C331" s="11"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3">
       <c r="A332" s="11">
         <v>330</v>
       </c>
@@ -10321,7 +10240,7 @@
       </c>
       <c r="C332" s="11"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3">
       <c r="A333" s="11">
         <v>331</v>
       </c>
@@ -10331,7 +10250,7 @@
       </c>
       <c r="C333" s="11"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3">
       <c r="A334" s="11">
         <v>332</v>
       </c>
@@ -10341,7 +10260,7 @@
       </c>
       <c r="C334" s="11"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3">
       <c r="A335" s="11">
         <v>333</v>
       </c>
@@ -10351,7 +10270,7 @@
       </c>
       <c r="C335" s="11"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3">
       <c r="A336" s="11">
         <v>334</v>
       </c>
@@ -10361,7 +10280,7 @@
       </c>
       <c r="C336" s="11"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3">
       <c r="A337" s="11">
         <v>335</v>
       </c>
@@ -10371,7 +10290,7 @@
       </c>
       <c r="C337" s="11"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338" s="11">
         <v>336</v>
       </c>
@@ -10381,7 +10300,7 @@
       </c>
       <c r="C338" s="11"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3">
       <c r="A339" s="11">
         <v>337</v>
       </c>
@@ -10391,7 +10310,7 @@
       </c>
       <c r="C339" s="11"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" s="11">
         <v>338</v>
       </c>
@@ -10401,7 +10320,7 @@
       </c>
       <c r="C340" s="11"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341" s="11">
         <v>339</v>
       </c>
@@ -10411,7 +10330,7 @@
       </c>
       <c r="C341" s="11"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" s="11">
         <v>340</v>
       </c>
@@ -10421,7 +10340,7 @@
       </c>
       <c r="C342" s="11"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3">
       <c r="A343" s="11">
         <v>341</v>
       </c>
@@ -10431,7 +10350,7 @@
       </c>
       <c r="C343" s="11"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3">
       <c r="A344" s="11">
         <v>342</v>
       </c>
@@ -10441,7 +10360,7 @@
       </c>
       <c r="C344" s="11"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3">
       <c r="A345" s="11">
         <v>343</v>
       </c>
@@ -10451,7 +10370,7 @@
       </c>
       <c r="C345" s="11"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3">
       <c r="A346" s="11">
         <v>344</v>
       </c>
@@ -10461,7 +10380,7 @@
       </c>
       <c r="C346" s="11"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" s="11">
         <v>345</v>
       </c>
@@ -10471,7 +10390,7 @@
       </c>
       <c r="C347" s="11"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348" s="11">
         <v>346</v>
       </c>
@@ -10481,7 +10400,7 @@
       </c>
       <c r="C348" s="11"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349" s="11">
         <v>347</v>
       </c>
@@ -10491,7 +10410,7 @@
       </c>
       <c r="C349" s="11"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3">
       <c r="A350" s="11">
         <v>348</v>
       </c>
@@ -10501,7 +10420,7 @@
       </c>
       <c r="C350" s="11"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3">
       <c r="A351" s="11">
         <v>349</v>
       </c>
@@ -10511,7 +10430,7 @@
       </c>
       <c r="C351" s="11"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3">
       <c r="A352" s="11">
         <v>350</v>
       </c>
@@ -10521,7 +10440,7 @@
       </c>
       <c r="C352" s="11"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3">
       <c r="A353" s="11">
         <v>351</v>
       </c>
@@ -10531,7 +10450,7 @@
       </c>
       <c r="C353" s="11"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3">
       <c r="A354" s="11">
         <v>352</v>
       </c>
@@ -10541,7 +10460,7 @@
       </c>
       <c r="C354" s="11"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" s="11">
         <v>353</v>
       </c>
@@ -10551,7 +10470,7 @@
       </c>
       <c r="C355" s="11"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3">
       <c r="A356" s="11">
         <v>354</v>
       </c>
@@ -10561,7 +10480,7 @@
       </c>
       <c r="C356" s="11"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3">
       <c r="A357" s="11">
         <v>355</v>
       </c>
@@ -10571,7 +10490,7 @@
       </c>
       <c r="C357" s="11"/>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3">
       <c r="A358" s="11">
         <v>356</v>
       </c>
@@ -10581,7 +10500,7 @@
       </c>
       <c r="C358" s="11"/>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3">
       <c r="A359" s="11">
         <v>357</v>
       </c>
@@ -10591,7 +10510,7 @@
       </c>
       <c r="C359" s="11"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3">
       <c r="A360" s="11">
         <v>358</v>
       </c>
@@ -10601,7 +10520,7 @@
       </c>
       <c r="C360" s="11"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3">
       <c r="A361" s="11">
         <v>359</v>
       </c>
@@ -10611,7 +10530,7 @@
       </c>
       <c r="C361" s="11"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3">
       <c r="A362" s="11">
         <v>360</v>
       </c>
@@ -10621,7 +10540,7 @@
       </c>
       <c r="C362" s="11"/>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3">
       <c r="A363" s="11">
         <v>361</v>
       </c>
@@ -10631,7 +10550,7 @@
       </c>
       <c r="C363" s="11"/>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3">
       <c r="A364" s="11">
         <v>362</v>
       </c>
@@ -10641,7 +10560,7 @@
       </c>
       <c r="C364" s="11"/>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3">
       <c r="A365" s="11">
         <v>363</v>
       </c>
@@ -10651,7 +10570,7 @@
       </c>
       <c r="C365" s="11"/>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3">
       <c r="A366" s="11">
         <v>364</v>
       </c>
@@ -10661,7 +10580,7 @@
       </c>
       <c r="C366" s="11"/>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3">
       <c r="A367" s="11">
         <v>365</v>
       </c>
@@ -10679,14 +10598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
@@ -10694,11 +10613,11 @@
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="15.75">
+      <c r="A1" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="44"/>
       <c r="E1" s="12" t="s">
         <v>116</v>
       </c>
@@ -10706,7 +10625,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
@@ -10723,8 +10642,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="36" t="s">
         <v>106</v>
       </c>
       <c r="B3">
@@ -10743,8 +10662,8 @@
         <v>1727.6666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="36" t="s">
         <v>107</v>
       </c>
       <c r="B4">
@@ -10763,8 +10682,8 @@
         <v>1021.9999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="36" t="s">
         <v>108</v>
       </c>
       <c r="B5">
@@ -10783,8 +10702,8 @@
         <v>803.00000000000011</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="36" t="s">
         <v>109</v>
       </c>
       <c r="B6">
@@ -10803,8 +10722,8 @@
         <v>778.66666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="36" t="s">
         <v>110</v>
       </c>
       <c r="B7">
@@ -10823,17 +10742,17 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="40"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="45"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="39">
         <f>27.9/7</f>
         <v>3.9857142857142853</v>
       </c>
@@ -10850,7 +10769,7 @@
         <v>969.85714285714266</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>2</v>
       </c>
@@ -10871,7 +10790,7 @@
         <v>573.71830985915517</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10892,7 +10811,7 @@
         <v>450.77867203219353</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>4</v>
       </c>
@@ -10913,7 +10832,7 @@
         <v>437.1187122736423</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -10924,7 +10843,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -10938,7 +10857,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -10966,19 +10885,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -10989,7 +10908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="C2" t="s">
         <v>128</v>
       </c>
@@ -11000,8 +10919,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="37" t="s">
         <v>127</v>
       </c>
       <c r="C3">
@@ -11023,7 +10942,7 @@
         <v>52.142899999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="I4" t="s">
         <v>133</v>
       </c>
@@ -11034,7 +10953,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="I5" t="s">
         <v>135</v>
       </c>
@@ -11043,7 +10962,7 @@
         <v>260.71449999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="I6" t="s">
         <v>136</v>
       </c>
@@ -11052,13 +10971,13 @@
         <v>521.42899999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="I8" s="46" t="s">
         <v>137</v>
       </c>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="I9" t="s">
         <v>138</v>
       </c>
@@ -11067,21 +10986,21 @@
         <v>104.28579999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="I12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="I13" t="s">
         <v>136</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="38">
         <f>J6+J9</f>
         <v>625.71479999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="I16">
         <f>3*J3</f>
         <v>156.42869999999999</v>

--- a/bcd/CREST/Appliance/Appliance_Characteristics.xlsx
+++ b/bcd/CREST/Appliance/Appliance_Characteristics.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="210" windowWidth="20340" windowHeight="7935"/>
@@ -13,7 +13,7 @@
     <sheet name="TV_usage" sheetId="5" r:id="rId4"/>
     <sheet name="Cooking" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -449,12 +449,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1230,10 +1230,10 @@
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="41" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1259,12 +1259,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1337,10 +1337,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1353,12 +1349,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1472,12 +1472,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3701,16 +3713,25 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80522240"/>
-        <c:axId val="86115456"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="54702848"/>
+        <c:axId val="54704768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80522240"/>
+        <c:axId val="54702848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="365"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3728,9 +3749,12 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3740,15 +3764,16 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86115456"/>
+        <c:crossAx val="54704768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86115456"/>
+        <c:axId val="54704768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3778,9 +3803,12 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -3789,7 +3817,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80522240"/>
+        <c:crossAx val="54702848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3803,6 +3831,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -3811,7 +3840,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3819,12 +3848,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3869,17 +3910,28 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="87762048"/>
-        <c:axId val="87763584"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="70352896"/>
+        <c:axId val="70326144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87762048"/>
+        <c:axId val="70352896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -3888,15 +3940,16 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87763584"/>
+        <c:crossAx val="70326144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87763584"/>
+        <c:axId val="70326144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3912,6 +3965,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -3920,7 +3974,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87762048"/>
+        <c:crossAx val="70352896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3934,6 +3988,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -3942,7 +3997,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3950,12 +4005,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3979,12 +4046,13 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="6.3343832020997373E-2"/>
-                  <c:y val="-0.23799759405074375"/>
+                  <c:y val="-0.23799759405074367"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4011,17 +4079,28 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="87796352"/>
-        <c:axId val="87810432"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="82548992"/>
+        <c:axId val="85693184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87796352"/>
+        <c:axId val="82548992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -4030,15 +4109,16 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87810432"/>
+        <c:crossAx val="85693184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87810432"/>
+        <c:axId val="85693184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4054,6 +4134,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -4062,7 +4143,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87796352"/>
+        <c:crossAx val="82548992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4076,6 +4157,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -4084,7 +4166,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4267,6 +4349,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4301,6 +4384,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4476,15 +4560,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -4497,7 +4581,7 @@
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42" customHeight="1">
+    <row r="1" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4529,7 +4613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4565,7 +4649,7 @@
         <v>2.1736111111111107</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4604,7 +4688,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4643,7 +4727,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4654,7 +4738,7 @@
         <v>1300</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="9">
         <v>124</v>
@@ -4679,7 +4763,7 @@
         <v>40.523888888888898</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4690,7 +4774,7 @@
         <v>5535</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="9">
         <v>75</v>
@@ -4715,7 +4799,7 @@
         <v>102.0515625</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4726,7 +4810,7 @@
         <v>500</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="9">
         <v>40</v>
@@ -4751,7 +4835,7 @@
         <v>5.8611111111111107</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -4787,15 +4871,15 @@
         <v>12.125000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="11" customFormat="1">
+    <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5">
-        <v>70</v>
+      <c r="C9" s="4">
+        <v>100</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
@@ -4812,7 +4896,7 @@
       </c>
       <c r="H9" s="11">
         <f t="shared" ref="H9:H11" si="5">(C9/1000)*(E9/60)</f>
-        <v>0.10500000000000001</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I11" si="6">(G9*E9)/60</f>
@@ -4820,18 +4904,18 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" ref="J9:J11" si="7">H9*G9</f>
-        <v>5.0225000000000009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="11" customFormat="1">
+        <v>7.1750000000000016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5">
-        <v>61</v>
+      <c r="C10" s="4">
+        <v>100</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -4848,7 +4932,7 @@
       </c>
       <c r="H10" s="11">
         <f t="shared" si="5"/>
-        <v>9.1499999999999998E-2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="6"/>
@@ -4856,18 +4940,18 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" si="7"/>
-        <v>3.4388750000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="11" customFormat="1">
+        <v>5.6375000000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5">
-        <v>61</v>
+      <c r="C11" s="4">
+        <v>100</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
@@ -4884,7 +4968,7 @@
       </c>
       <c r="H11" s="11">
         <f t="shared" si="5"/>
-        <v>9.1499999999999998E-2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="6"/>
@@ -4892,13 +4976,13 @@
       </c>
       <c r="J11" s="5">
         <f t="shared" si="7"/>
-        <v>3.3321249999999996</v>
+        <v>5.4625000000000004</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4934,7 +5018,7 @@
         <v>0.30369444444444443</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -4970,7 +5054,7 @@
         <v>4.8888888888888884</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>15</v>
       </c>
@@ -5006,7 +5090,7 @@
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>16</v>
       </c>
@@ -5042,7 +5126,7 @@
         <v>11.225</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>17</v>
       </c>
@@ -5070,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -5106,7 +5190,7 @@
         <v>0.9400750000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -5142,7 +5226,7 @@
         <v>9.0833333333333335E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>20</v>
       </c>
@@ -5181,7 +5265,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -5217,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5253,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5289,7 +5373,7 @@
         <v>1.4583333333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -5325,7 +5409,7 @@
         <v>2.4444444444444442</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -5361,7 +5445,7 @@
         <v>0.24744444444444447</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -5397,7 +5481,7 @@
         <v>7.4419999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -5433,7 +5517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -5469,7 +5553,7 @@
         <v>2.5347222222222223</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -5489,7 +5573,7 @@
         <v>365</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" ref="G28" si="8">F28/12</f>
+        <f t="shared" ref="G28:G29" si="8">F28/12</f>
         <v>30.416666666666668</v>
       </c>
       <c r="H28" s="11">
@@ -5505,7 +5589,7 @@
         <v>0.63368055555555569</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -5515,10 +5599,7 @@
       <c r="C29" s="5">
         <v>0</v>
       </c>
-      <c r="D29" s="5">
-        <f>65-SUM(D2:D9)-D15-D17-D25</f>
-        <v>14</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5">
         <v>0</v>
       </c>
@@ -5539,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
@@ -5550,7 +5631,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>39</v>
       </c>
@@ -5558,22 +5639,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>47</v>
       </c>
@@ -5593,7 +5674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T54"/>
   <sheetViews>
@@ -5601,7 +5682,7 @@
       <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -5610,16 +5691,16 @@
     <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" ht="19.5" thickBot="1">
-      <c r="H1" s="43" t="s">
+    <row r="1" spans="1:14" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-    </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27" thickBot="1">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+    </row>
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
@@ -5652,27 +5733,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="27" thickBot="1">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="22"/>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38"/>
       <c r="N3" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="51.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>50</v>
       </c>
@@ -5718,7 +5799,7 @@
         <v>15.335000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="39" customHeight="1" thickBot="1">
+    <row r="5" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>51</v>
       </c>
@@ -5764,7 +5845,7 @@
         <v>8.32</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>52</v>
       </c>
@@ -5797,14 +5878,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="22"/>
       <c r="H7" s="15" t="s">
         <v>68</v>
@@ -5822,7 +5903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>54</v>
       </c>
@@ -5861,7 +5942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="27" thickBot="1">
+    <row r="9" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>55</v>
       </c>
@@ -5884,19 +5965,19 @@
         <f>AVERAGE(B10:B11)</f>
         <v>17.664999999999999</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="11"/>
       <c r="N9" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
+    <row r="10" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>52</v>
       </c>
@@ -5936,7 +6017,7 @@
         <v>4.1574999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
+    <row r="11" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>56</v>
       </c>
@@ -5976,14 +6057,14 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="22"/>
       <c r="H12" s="15" t="s">
         <v>67</v>
@@ -6001,7 +6082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="51.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>50</v>
       </c>
@@ -6040,7 +6121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="39" customHeight="1" thickBot="1">
+    <row r="14" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>51</v>
       </c>
@@ -6079,7 +6160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>52</v>
       </c>
@@ -6107,14 +6188,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="22"/>
       <c r="H16" s="20" t="s">
         <v>72</v>
@@ -6127,7 +6208,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>54</v>
       </c>
@@ -6145,7 +6226,7 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>55</v>
       </c>
@@ -6169,7 +6250,7 @@
         <v>16.049999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>52</v>
       </c>
@@ -6193,7 +6274,7 @@
         <v>15.565000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>56</v>
       </c>
@@ -6211,7 +6292,7 @@
       </c>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>73</v>
       </c>
@@ -6219,15 +6300,15 @@
         <f>AVERAGE(G4,G8,G13,G18)</f>
         <v>29.392499999999998</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="42"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>72</v>
       </c>
@@ -6251,7 +6332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H23" s="15" t="s">
         <v>77</v>
       </c>
@@ -6268,7 +6349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H24" s="15" t="s">
         <v>68</v>
       </c>
@@ -6285,17 +6366,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A27" s="40" t="s">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
@@ -6312,7 +6393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>71</v>
       </c>
@@ -6329,16 +6410,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A30" s="40" t="s">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>68</v>
       </c>
@@ -6355,7 +6436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>71</v>
       </c>
@@ -6372,7 +6453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>73</v>
       </c>
@@ -6381,7 +6462,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>72</v>
       </c>
@@ -6390,7 +6471,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.75" thickBot="1">
+    <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H36" t="s">
         <v>73</v>
       </c>
@@ -6398,14 +6479,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A37" s="40" t="s">
+    <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
       <c r="H37" s="24" t="s">
         <v>89</v>
       </c>
@@ -6413,7 +6494,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.75" thickBot="1">
+    <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>68</v>
       </c>
@@ -6444,7 +6525,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15.75" thickBot="1">
+    <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>71</v>
       </c>
@@ -6461,7 +6542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15.75" thickBot="1">
+    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>81</v>
       </c>
@@ -6484,14 +6565,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A41" s="40" t="s">
+    <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
       <c r="H41">
         <f>H38+B46</f>
         <v>120.32499999999999</v>
@@ -6507,7 +6588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15.75" thickBot="1">
+    <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>68</v>
       </c>
@@ -6524,7 +6605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.75" thickBot="1">
+    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>71</v>
       </c>
@@ -6541,7 +6622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15.75" thickBot="1">
+    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>81</v>
       </c>
@@ -6557,29 +6638,29 @@
       <c r="E44" s="17">
         <v>30</v>
       </c>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="42"/>
-      <c r="N44" s="40" t="s">
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="38"/>
+      <c r="N44" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A45" s="40" t="s">
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="38"/>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
       <c r="H45" s="15" t="s">
         <v>76</v>
       </c>
@@ -6619,7 +6700,7 @@
         <v>25.16</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15.75" thickBot="1">
+    <row r="46" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>84</v>
       </c>
@@ -6667,7 +6748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.75" thickBot="1">
+    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>68</v>
       </c>
@@ -6714,7 +6795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15.75" thickBot="1">
+    <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>81</v>
       </c>
@@ -6730,22 +6811,22 @@
       <c r="E48" s="17">
         <v>52</v>
       </c>
-      <c r="H48" s="40" t="s">
+      <c r="H48" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="42"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A49" s="40" t="s">
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="38"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="42"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
       <c r="H49" s="15" t="s">
         <v>76</v>
       </c>
@@ -6762,7 +6843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>86</v>
       </c>
@@ -6794,7 +6875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1">
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>87</v>
       </c>
@@ -6826,7 +6907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1">
+    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>68</v>
       </c>
@@ -6850,7 +6931,7 @@
         <v>11.5725</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1">
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>88</v>
       </c>
@@ -6874,7 +6955,7 @@
         <v>3.2949999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>81</v>
       </c>
@@ -6916,24 +6997,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1">
+    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>99</v>
       </c>
@@ -6941,7 +7022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6950,7 +7031,7 @@
         <v>193.78980517669564</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6960,7 +7041,7 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6970,7 +7051,7 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -6980,7 +7061,7 @@
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -6990,7 +7071,7 @@
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -7000,7 +7081,7 @@
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -7010,7 +7091,7 @@
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -7020,7 +7101,7 @@
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -7030,7 +7111,7 @@
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -7040,7 +7121,7 @@
       </c>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -7050,7 +7131,7 @@
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -7060,7 +7141,7 @@
       </c>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -7070,7 +7151,7 @@
       </c>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -7080,7 +7161,7 @@
       </c>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -7090,7 +7171,7 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -7100,7 +7181,7 @@
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -7110,7 +7191,7 @@
       </c>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -7120,7 +7201,7 @@
       </c>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -7130,7 +7211,7 @@
       </c>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -7140,7 +7221,7 @@
       </c>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -7150,7 +7231,7 @@
       </c>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -7160,7 +7241,7 @@
       </c>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -7170,7 +7251,7 @@
       </c>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -7180,7 +7261,7 @@
       </c>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -7190,7 +7271,7 @@
       </c>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -7200,7 +7281,7 @@
       </c>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -7210,7 +7291,7 @@
       </c>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -7220,7 +7301,7 @@
       </c>
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -7230,7 +7311,7 @@
       </c>
       <c r="C31" s="11"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -7240,7 +7321,7 @@
       </c>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -7250,7 +7331,7 @@
       </c>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -7260,7 +7341,7 @@
       </c>
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -7270,7 +7351,7 @@
       </c>
       <c r="C35" s="11"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -7280,7 +7361,7 @@
       </c>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -7290,7 +7371,7 @@
       </c>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -7300,7 +7381,7 @@
       </c>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -7310,7 +7391,7 @@
       </c>
       <c r="C39" s="11"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -7320,7 +7401,7 @@
       </c>
       <c r="C40" s="11"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -7330,7 +7411,7 @@
       </c>
       <c r="C41" s="11"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -7340,7 +7421,7 @@
       </c>
       <c r="C42" s="11"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -7350,7 +7431,7 @@
       </c>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -7360,7 +7441,7 @@
       </c>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -7370,7 +7451,7 @@
       </c>
       <c r="C45" s="11"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -7380,7 +7461,7 @@
       </c>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -7390,7 +7471,7 @@
       </c>
       <c r="C47" s="11"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -7400,7 +7481,7 @@
       </c>
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -7410,7 +7491,7 @@
       </c>
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -7420,7 +7501,7 @@
       </c>
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -7430,7 +7511,7 @@
       </c>
       <c r="C51" s="11"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -7440,7 +7521,7 @@
       </c>
       <c r="C52" s="11"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -7450,7 +7531,7 @@
       </c>
       <c r="C53" s="11"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -7460,7 +7541,7 @@
       </c>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -7470,7 +7551,7 @@
       </c>
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -7480,7 +7561,7 @@
       </c>
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -7490,7 +7571,7 @@
       </c>
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -7500,7 +7581,7 @@
       </c>
       <c r="C58" s="11"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -7510,7 +7591,7 @@
       </c>
       <c r="C59" s="11"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -7520,7 +7601,7 @@
       </c>
       <c r="C60" s="11"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -7530,7 +7611,7 @@
       </c>
       <c r="C61" s="11"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -7540,7 +7621,7 @@
       </c>
       <c r="C62" s="11"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -7550,7 +7631,7 @@
       </c>
       <c r="C63" s="11"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -7560,7 +7641,7 @@
       </c>
       <c r="C64" s="11"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -7570,7 +7651,7 @@
       </c>
       <c r="C65" s="11"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -7580,7 +7661,7 @@
       </c>
       <c r="C66" s="11"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -7590,7 +7671,7 @@
       </c>
       <c r="C67" s="11"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -7600,7 +7681,7 @@
       </c>
       <c r="C68" s="11"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -7610,7 +7691,7 @@
       </c>
       <c r="C69" s="11"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -7620,7 +7701,7 @@
       </c>
       <c r="C70" s="11"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -7630,7 +7711,7 @@
       </c>
       <c r="C71" s="11"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -7640,7 +7721,7 @@
       </c>
       <c r="C72" s="11"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -7650,7 +7731,7 @@
       </c>
       <c r="C73" s="11"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -7660,7 +7741,7 @@
       </c>
       <c r="C74" s="11"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -7670,7 +7751,7 @@
       </c>
       <c r="C75" s="11"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -7680,7 +7761,7 @@
       </c>
       <c r="C76" s="11"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -7690,7 +7771,7 @@
       </c>
       <c r="C77" s="11"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -7700,7 +7781,7 @@
       </c>
       <c r="C78" s="11"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -7710,7 +7791,7 @@
       </c>
       <c r="C79" s="11"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>78</v>
       </c>
@@ -7720,7 +7801,7 @@
       </c>
       <c r="C80" s="11"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -7730,7 +7811,7 @@
       </c>
       <c r="C81" s="11"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>80</v>
       </c>
@@ -7740,7 +7821,7 @@
       </c>
       <c r="C82" s="11"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -7750,7 +7831,7 @@
       </c>
       <c r="C83" s="11"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>82</v>
       </c>
@@ -7760,7 +7841,7 @@
       </c>
       <c r="C84" s="11"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -7770,7 +7851,7 @@
       </c>
       <c r="C85" s="11"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>84</v>
       </c>
@@ -7780,7 +7861,7 @@
       </c>
       <c r="C86" s="11"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>85</v>
       </c>
@@ -7790,7 +7871,7 @@
       </c>
       <c r="C87" s="11"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>86</v>
       </c>
@@ -7800,7 +7881,7 @@
       </c>
       <c r="C88" s="11"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>87</v>
       </c>
@@ -7810,7 +7891,7 @@
       </c>
       <c r="C89" s="11"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>88</v>
       </c>
@@ -7820,7 +7901,7 @@
       </c>
       <c r="C90" s="11"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>89</v>
       </c>
@@ -7830,7 +7911,7 @@
       </c>
       <c r="C91" s="11"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -7840,7 +7921,7 @@
       </c>
       <c r="C92" s="11"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>91</v>
       </c>
@@ -7850,7 +7931,7 @@
       </c>
       <c r="C93" s="11"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>92</v>
       </c>
@@ -7860,7 +7941,7 @@
       </c>
       <c r="C94" s="11"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>93</v>
       </c>
@@ -7870,7 +7951,7 @@
       </c>
       <c r="C95" s="11"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>94</v>
       </c>
@@ -7880,7 +7961,7 @@
       </c>
       <c r="C96" s="11"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>95</v>
       </c>
@@ -7890,7 +7971,7 @@
       </c>
       <c r="C97" s="11"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>96</v>
       </c>
@@ -7900,7 +7981,7 @@
       </c>
       <c r="C98" s="11"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>97</v>
       </c>
@@ -7910,7 +7991,7 @@
       </c>
       <c r="C99" s="11"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>98</v>
       </c>
@@ -7920,7 +8001,7 @@
       </c>
       <c r="C100" s="11"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>99</v>
       </c>
@@ -7930,7 +8011,7 @@
       </c>
       <c r="C101" s="11"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>100</v>
       </c>
@@ -7940,7 +8021,7 @@
       </c>
       <c r="C102" s="11"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>101</v>
       </c>
@@ -7950,7 +8031,7 @@
       </c>
       <c r="C103" s="11"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>102</v>
       </c>
@@ -7960,7 +8041,7 @@
       </c>
       <c r="C104" s="11"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>103</v>
       </c>
@@ -7970,7 +8051,7 @@
       </c>
       <c r="C105" s="11"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>104</v>
       </c>
@@ -7980,7 +8061,7 @@
       </c>
       <c r="C106" s="11"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>105</v>
       </c>
@@ -7990,7 +8071,7 @@
       </c>
       <c r="C107" s="11"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>106</v>
       </c>
@@ -8000,7 +8081,7 @@
       </c>
       <c r="C108" s="11"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>107</v>
       </c>
@@ -8010,7 +8091,7 @@
       </c>
       <c r="C109" s="11"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>108</v>
       </c>
@@ -8020,7 +8101,7 @@
       </c>
       <c r="C110" s="11"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>109</v>
       </c>
@@ -8030,7 +8111,7 @@
       </c>
       <c r="C111" s="11"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>110</v>
       </c>
@@ -8040,7 +8121,7 @@
       </c>
       <c r="C112" s="11"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>111</v>
       </c>
@@ -8050,7 +8131,7 @@
       </c>
       <c r="C113" s="11"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>112</v>
       </c>
@@ -8060,7 +8141,7 @@
       </c>
       <c r="C114" s="11"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>113</v>
       </c>
@@ -8070,7 +8151,7 @@
       </c>
       <c r="C115" s="11"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>114</v>
       </c>
@@ -8080,7 +8161,7 @@
       </c>
       <c r="C116" s="11"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>115</v>
       </c>
@@ -8090,7 +8171,7 @@
       </c>
       <c r="C117" s="11"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <v>116</v>
       </c>
@@ -8100,7 +8181,7 @@
       </c>
       <c r="C118" s="11"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>117</v>
       </c>
@@ -8110,7 +8191,7 @@
       </c>
       <c r="C119" s="11"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <v>118</v>
       </c>
@@ -8120,7 +8201,7 @@
       </c>
       <c r="C120" s="11"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <v>119</v>
       </c>
@@ -8130,7 +8211,7 @@
       </c>
       <c r="C121" s="11"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>120</v>
       </c>
@@ -8140,7 +8221,7 @@
       </c>
       <c r="C122" s="11"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>121</v>
       </c>
@@ -8150,7 +8231,7 @@
       </c>
       <c r="C123" s="11"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>122</v>
       </c>
@@ -8160,7 +8241,7 @@
       </c>
       <c r="C124" s="11"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>123</v>
       </c>
@@ -8170,7 +8251,7 @@
       </c>
       <c r="C125" s="11"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>124</v>
       </c>
@@ -8180,7 +8261,7 @@
       </c>
       <c r="C126" s="11"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <v>125</v>
       </c>
@@ -8190,7 +8271,7 @@
       </c>
       <c r="C127" s="11"/>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <v>126</v>
       </c>
@@ -8200,7 +8281,7 @@
       </c>
       <c r="C128" s="11"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <v>127</v>
       </c>
@@ -8210,7 +8291,7 @@
       </c>
       <c r="C129" s="11"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <v>128</v>
       </c>
@@ -8220,7 +8301,7 @@
       </c>
       <c r="C130" s="11"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <v>129</v>
       </c>
@@ -8230,7 +8311,7 @@
       </c>
       <c r="C131" s="11"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <v>130</v>
       </c>
@@ -8240,7 +8321,7 @@
       </c>
       <c r="C132" s="11"/>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <v>131</v>
       </c>
@@ -8250,7 +8331,7 @@
       </c>
       <c r="C133" s="11"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <v>132</v>
       </c>
@@ -8260,7 +8341,7 @@
       </c>
       <c r="C134" s="11"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <v>133</v>
       </c>
@@ -8270,7 +8351,7 @@
       </c>
       <c r="C135" s="11"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <v>134</v>
       </c>
@@ -8280,7 +8361,7 @@
       </c>
       <c r="C136" s="11"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <v>135</v>
       </c>
@@ -8290,7 +8371,7 @@
       </c>
       <c r="C137" s="11"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <v>136</v>
       </c>
@@ -8300,7 +8381,7 @@
       </c>
       <c r="C138" s="11"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <v>137</v>
       </c>
@@ -8310,7 +8391,7 @@
       </c>
       <c r="C139" s="11"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <v>138</v>
       </c>
@@ -8320,7 +8401,7 @@
       </c>
       <c r="C140" s="11"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <v>139</v>
       </c>
@@ -8330,7 +8411,7 @@
       </c>
       <c r="C141" s="11"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
         <v>140</v>
       </c>
@@ -8340,7 +8421,7 @@
       </c>
       <c r="C142" s="11"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
         <v>141</v>
       </c>
@@ -8350,7 +8431,7 @@
       </c>
       <c r="C143" s="11"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <v>142</v>
       </c>
@@ -8360,7 +8441,7 @@
       </c>
       <c r="C144" s="11"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="11">
         <v>143</v>
       </c>
@@ -8370,7 +8451,7 @@
       </c>
       <c r="C145" s="11"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="11">
         <v>144</v>
       </c>
@@ -8380,7 +8461,7 @@
       </c>
       <c r="C146" s="11"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
         <v>145</v>
       </c>
@@ -8390,7 +8471,7 @@
       </c>
       <c r="C147" s="11"/>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
         <v>146</v>
       </c>
@@ -8400,7 +8481,7 @@
       </c>
       <c r="C148" s="11"/>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="11">
         <v>147</v>
       </c>
@@ -8410,7 +8491,7 @@
       </c>
       <c r="C149" s="11"/>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="11">
         <v>148</v>
       </c>
@@ -8420,7 +8501,7 @@
       </c>
       <c r="C150" s="11"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="11">
         <v>149</v>
       </c>
@@ -8430,7 +8511,7 @@
       </c>
       <c r="C151" s="11"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="11">
         <v>150</v>
       </c>
@@ -8440,7 +8521,7 @@
       </c>
       <c r="C152" s="11"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="11">
         <v>151</v>
       </c>
@@ -8450,7 +8531,7 @@
       </c>
       <c r="C153" s="11"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="11">
         <v>152</v>
       </c>
@@ -8460,7 +8541,7 @@
       </c>
       <c r="C154" s="11"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="11">
         <v>153</v>
       </c>
@@ -8470,7 +8551,7 @@
       </c>
       <c r="C155" s="11"/>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="11">
         <v>154</v>
       </c>
@@ -8480,7 +8561,7 @@
       </c>
       <c r="C156" s="11"/>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="11">
         <v>155</v>
       </c>
@@ -8490,7 +8571,7 @@
       </c>
       <c r="C157" s="11"/>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="11">
         <v>156</v>
       </c>
@@ -8500,7 +8581,7 @@
       </c>
       <c r="C158" s="11"/>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="11">
         <v>157</v>
       </c>
@@ -8510,7 +8591,7 @@
       </c>
       <c r="C159" s="11"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="11">
         <v>158</v>
       </c>
@@ -8520,7 +8601,7 @@
       </c>
       <c r="C160" s="11"/>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="11">
         <v>159</v>
       </c>
@@ -8530,7 +8611,7 @@
       </c>
       <c r="C161" s="11"/>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="11">
         <v>160</v>
       </c>
@@ -8540,7 +8621,7 @@
       </c>
       <c r="C162" s="11"/>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="11">
         <v>161</v>
       </c>
@@ -8550,7 +8631,7 @@
       </c>
       <c r="C163" s="11"/>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="11">
         <v>162</v>
       </c>
@@ -8560,7 +8641,7 @@
       </c>
       <c r="C164" s="11"/>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="11">
         <v>163</v>
       </c>
@@ -8570,7 +8651,7 @@
       </c>
       <c r="C165" s="11"/>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="11">
         <v>164</v>
       </c>
@@ -8580,7 +8661,7 @@
       </c>
       <c r="C166" s="11"/>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="11">
         <v>165</v>
       </c>
@@ -8590,7 +8671,7 @@
       </c>
       <c r="C167" s="11"/>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="11">
         <v>166</v>
       </c>
@@ -8600,7 +8681,7 @@
       </c>
       <c r="C168" s="11"/>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="11">
         <v>167</v>
       </c>
@@ -8610,7 +8691,7 @@
       </c>
       <c r="C169" s="11"/>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="11">
         <v>168</v>
       </c>
@@ -8620,7 +8701,7 @@
       </c>
       <c r="C170" s="11"/>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="11">
         <v>169</v>
       </c>
@@ -8630,7 +8711,7 @@
       </c>
       <c r="C171" s="11"/>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="11">
         <v>170</v>
       </c>
@@ -8640,7 +8721,7 @@
       </c>
       <c r="C172" s="11"/>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="11">
         <v>171</v>
       </c>
@@ -8650,7 +8731,7 @@
       </c>
       <c r="C173" s="11"/>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="11">
         <v>172</v>
       </c>
@@ -8660,7 +8741,7 @@
       </c>
       <c r="C174" s="11"/>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="11">
         <v>173</v>
       </c>
@@ -8670,7 +8751,7 @@
       </c>
       <c r="C175" s="11"/>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="11">
         <v>174</v>
       </c>
@@ -8680,7 +8761,7 @@
       </c>
       <c r="C176" s="11"/>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="11">
         <v>175</v>
       </c>
@@ -8690,7 +8771,7 @@
       </c>
       <c r="C177" s="11"/>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="11">
         <v>176</v>
       </c>
@@ -8700,7 +8781,7 @@
       </c>
       <c r="C178" s="11"/>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="11">
         <v>177</v>
       </c>
@@ -8710,7 +8791,7 @@
       </c>
       <c r="C179" s="11"/>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="11">
         <v>178</v>
       </c>
@@ -8720,7 +8801,7 @@
       </c>
       <c r="C180" s="11"/>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="11">
         <v>179</v>
       </c>
@@ -8730,7 +8811,7 @@
       </c>
       <c r="C181" s="11"/>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="11">
         <v>180</v>
       </c>
@@ -8740,7 +8821,7 @@
       </c>
       <c r="C182" s="11"/>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="11">
         <v>181</v>
       </c>
@@ -8750,7 +8831,7 @@
       </c>
       <c r="C183" s="11"/>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="11">
         <v>182</v>
       </c>
@@ -8760,7 +8841,7 @@
       </c>
       <c r="C184" s="11"/>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="11">
         <v>183</v>
       </c>
@@ -8770,7 +8851,7 @@
       </c>
       <c r="C185" s="11"/>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="11">
         <v>184</v>
       </c>
@@ -8780,7 +8861,7 @@
       </c>
       <c r="C186" s="11"/>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="11">
         <v>185</v>
       </c>
@@ -8790,7 +8871,7 @@
       </c>
       <c r="C187" s="11"/>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="11">
         <v>186</v>
       </c>
@@ -8800,7 +8881,7 @@
       </c>
       <c r="C188" s="11"/>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="11">
         <v>187</v>
       </c>
@@ -8810,7 +8891,7 @@
       </c>
       <c r="C189" s="11"/>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="11">
         <v>188</v>
       </c>
@@ -8820,7 +8901,7 @@
       </c>
       <c r="C190" s="11"/>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="11">
         <v>189</v>
       </c>
@@ -8830,7 +8911,7 @@
       </c>
       <c r="C191" s="11"/>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="11">
         <v>190</v>
       </c>
@@ -8840,7 +8921,7 @@
       </c>
       <c r="C192" s="11"/>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="11">
         <v>191</v>
       </c>
@@ -8850,7 +8931,7 @@
       </c>
       <c r="C193" s="11"/>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="11">
         <v>192</v>
       </c>
@@ -8860,7 +8941,7 @@
       </c>
       <c r="C194" s="11"/>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="11">
         <v>193</v>
       </c>
@@ -8870,7 +8951,7 @@
       </c>
       <c r="C195" s="11"/>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="11">
         <v>194</v>
       </c>
@@ -8880,7 +8961,7 @@
       </c>
       <c r="C196" s="11"/>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="11">
         <v>195</v>
       </c>
@@ -8890,7 +8971,7 @@
       </c>
       <c r="C197" s="11"/>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="11">
         <v>196</v>
       </c>
@@ -8900,7 +8981,7 @@
       </c>
       <c r="C198" s="11"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="11">
         <v>197</v>
       </c>
@@ -8910,7 +8991,7 @@
       </c>
       <c r="C199" s="11"/>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="11">
         <v>198</v>
       </c>
@@ -8920,7 +9001,7 @@
       </c>
       <c r="C200" s="11"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="11">
         <v>199</v>
       </c>
@@ -8930,7 +9011,7 @@
       </c>
       <c r="C201" s="11"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="11">
         <v>200</v>
       </c>
@@ -8940,7 +9021,7 @@
       </c>
       <c r="C202" s="11"/>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="11">
         <v>201</v>
       </c>
@@ -8950,7 +9031,7 @@
       </c>
       <c r="C203" s="11"/>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="11">
         <v>202</v>
       </c>
@@ -8960,7 +9041,7 @@
       </c>
       <c r="C204" s="11"/>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="11">
         <v>203</v>
       </c>
@@ -8970,7 +9051,7 @@
       </c>
       <c r="C205" s="11"/>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="11">
         <v>204</v>
       </c>
@@ -8980,7 +9061,7 @@
       </c>
       <c r="C206" s="11"/>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="11">
         <v>205</v>
       </c>
@@ -8990,7 +9071,7 @@
       </c>
       <c r="C207" s="11"/>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="11">
         <v>206</v>
       </c>
@@ -9000,7 +9081,7 @@
       </c>
       <c r="C208" s="11"/>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="11">
         <v>207</v>
       </c>
@@ -9010,7 +9091,7 @@
       </c>
       <c r="C209" s="11"/>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="11">
         <v>208</v>
       </c>
@@ -9020,7 +9101,7 @@
       </c>
       <c r="C210" s="11"/>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="11">
         <v>209</v>
       </c>
@@ -9030,7 +9111,7 @@
       </c>
       <c r="C211" s="11"/>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="11">
         <v>210</v>
       </c>
@@ -9040,7 +9121,7 @@
       </c>
       <c r="C212" s="11"/>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="11">
         <v>211</v>
       </c>
@@ -9050,7 +9131,7 @@
       </c>
       <c r="C213" s="11"/>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="11">
         <v>212</v>
       </c>
@@ -9060,7 +9141,7 @@
       </c>
       <c r="C214" s="11"/>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="11">
         <v>213</v>
       </c>
@@ -9070,7 +9151,7 @@
       </c>
       <c r="C215" s="11"/>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="11">
         <v>214</v>
       </c>
@@ -9080,7 +9161,7 @@
       </c>
       <c r="C216" s="11"/>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="11">
         <v>215</v>
       </c>
@@ -9090,7 +9171,7 @@
       </c>
       <c r="C217" s="11"/>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="11">
         <v>216</v>
       </c>
@@ -9100,7 +9181,7 @@
       </c>
       <c r="C218" s="11"/>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="11">
         <v>217</v>
       </c>
@@ -9110,7 +9191,7 @@
       </c>
       <c r="C219" s="11"/>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="11">
         <v>218</v>
       </c>
@@ -9120,7 +9201,7 @@
       </c>
       <c r="C220" s="11"/>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="11">
         <v>219</v>
       </c>
@@ -9130,7 +9211,7 @@
       </c>
       <c r="C221" s="11"/>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="11">
         <v>220</v>
       </c>
@@ -9140,7 +9221,7 @@
       </c>
       <c r="C222" s="11"/>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="11">
         <v>221</v>
       </c>
@@ -9150,7 +9231,7 @@
       </c>
       <c r="C223" s="11"/>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="11">
         <v>222</v>
       </c>
@@ -9160,7 +9241,7 @@
       </c>
       <c r="C224" s="11"/>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="11">
         <v>223</v>
       </c>
@@ -9170,7 +9251,7 @@
       </c>
       <c r="C225" s="11"/>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="11">
         <v>224</v>
       </c>
@@ -9180,7 +9261,7 @@
       </c>
       <c r="C226" s="11"/>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="11">
         <v>225</v>
       </c>
@@ -9190,7 +9271,7 @@
       </c>
       <c r="C227" s="11"/>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="11">
         <v>226</v>
       </c>
@@ -9200,7 +9281,7 @@
       </c>
       <c r="C228" s="11"/>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="11">
         <v>227</v>
       </c>
@@ -9210,7 +9291,7 @@
       </c>
       <c r="C229" s="11"/>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="11">
         <v>228</v>
       </c>
@@ -9220,7 +9301,7 @@
       </c>
       <c r="C230" s="11"/>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="11">
         <v>229</v>
       </c>
@@ -9230,7 +9311,7 @@
       </c>
       <c r="C231" s="11"/>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="11">
         <v>230</v>
       </c>
@@ -9240,7 +9321,7 @@
       </c>
       <c r="C232" s="11"/>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="11">
         <v>231</v>
       </c>
@@ -9250,7 +9331,7 @@
       </c>
       <c r="C233" s="11"/>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="11">
         <v>232</v>
       </c>
@@ -9260,7 +9341,7 @@
       </c>
       <c r="C234" s="11"/>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="11">
         <v>233</v>
       </c>
@@ -9270,7 +9351,7 @@
       </c>
       <c r="C235" s="11"/>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="11">
         <v>234</v>
       </c>
@@ -9280,7 +9361,7 @@
       </c>
       <c r="C236" s="11"/>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="11">
         <v>235</v>
       </c>
@@ -9290,7 +9371,7 @@
       </c>
       <c r="C237" s="11"/>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="11">
         <v>236</v>
       </c>
@@ -9300,7 +9381,7 @@
       </c>
       <c r="C238" s="11"/>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="11">
         <v>237</v>
       </c>
@@ -9310,7 +9391,7 @@
       </c>
       <c r="C239" s="11"/>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="11">
         <v>238</v>
       </c>
@@ -9320,7 +9401,7 @@
       </c>
       <c r="C240" s="11"/>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="11">
         <v>239</v>
       </c>
@@ -9330,7 +9411,7 @@
       </c>
       <c r="C241" s="11"/>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="11">
         <v>240</v>
       </c>
@@ -9340,7 +9421,7 @@
       </c>
       <c r="C242" s="11"/>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="11">
         <v>241</v>
       </c>
@@ -9350,7 +9431,7 @@
       </c>
       <c r="C243" s="11"/>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="11">
         <v>242</v>
       </c>
@@ -9360,7 +9441,7 @@
       </c>
       <c r="C244" s="11"/>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="11">
         <v>243</v>
       </c>
@@ -9370,7 +9451,7 @@
       </c>
       <c r="C245" s="11"/>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="11">
         <v>244</v>
       </c>
@@ -9380,7 +9461,7 @@
       </c>
       <c r="C246" s="11"/>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="11">
         <v>245</v>
       </c>
@@ -9390,7 +9471,7 @@
       </c>
       <c r="C247" s="11"/>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="11">
         <v>246</v>
       </c>
@@ -9400,7 +9481,7 @@
       </c>
       <c r="C248" s="11"/>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="11">
         <v>247</v>
       </c>
@@ -9410,7 +9491,7 @@
       </c>
       <c r="C249" s="11"/>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="11">
         <v>248</v>
       </c>
@@ -9420,7 +9501,7 @@
       </c>
       <c r="C250" s="11"/>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="11">
         <v>249</v>
       </c>
@@ -9430,7 +9511,7 @@
       </c>
       <c r="C251" s="11"/>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="11">
         <v>250</v>
       </c>
@@ -9440,7 +9521,7 @@
       </c>
       <c r="C252" s="11"/>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="11">
         <v>251</v>
       </c>
@@ -9450,7 +9531,7 @@
       </c>
       <c r="C253" s="11"/>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="11">
         <v>252</v>
       </c>
@@ -9460,7 +9541,7 @@
       </c>
       <c r="C254" s="11"/>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="11">
         <v>253</v>
       </c>
@@ -9470,7 +9551,7 @@
       </c>
       <c r="C255" s="11"/>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="11">
         <v>254</v>
       </c>
@@ -9480,7 +9561,7 @@
       </c>
       <c r="C256" s="11"/>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="11">
         <v>255</v>
       </c>
@@ -9490,7 +9571,7 @@
       </c>
       <c r="C257" s="11"/>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="11">
         <v>256</v>
       </c>
@@ -9500,7 +9581,7 @@
       </c>
       <c r="C258" s="11"/>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="11">
         <v>257</v>
       </c>
@@ -9510,7 +9591,7 @@
       </c>
       <c r="C259" s="11"/>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="11">
         <v>258</v>
       </c>
@@ -9520,7 +9601,7 @@
       </c>
       <c r="C260" s="11"/>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="11">
         <v>259</v>
       </c>
@@ -9530,7 +9611,7 @@
       </c>
       <c r="C261" s="11"/>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="11">
         <v>260</v>
       </c>
@@ -9540,7 +9621,7 @@
       </c>
       <c r="C262" s="11"/>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="11">
         <v>261</v>
       </c>
@@ -9550,7 +9631,7 @@
       </c>
       <c r="C263" s="11"/>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="11">
         <v>262</v>
       </c>
@@ -9560,7 +9641,7 @@
       </c>
       <c r="C264" s="11"/>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="11">
         <v>263</v>
       </c>
@@ -9570,7 +9651,7 @@
       </c>
       <c r="C265" s="11"/>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="11">
         <v>264</v>
       </c>
@@ -9580,7 +9661,7 @@
       </c>
       <c r="C266" s="11"/>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="11">
         <v>265</v>
       </c>
@@ -9590,7 +9671,7 @@
       </c>
       <c r="C267" s="11"/>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="11">
         <v>266</v>
       </c>
@@ -9600,7 +9681,7 @@
       </c>
       <c r="C268" s="11"/>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="11">
         <v>267</v>
       </c>
@@ -9610,7 +9691,7 @@
       </c>
       <c r="C269" s="11"/>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="11">
         <v>268</v>
       </c>
@@ -9620,7 +9701,7 @@
       </c>
       <c r="C270" s="11"/>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="11">
         <v>269</v>
       </c>
@@ -9630,7 +9711,7 @@
       </c>
       <c r="C271" s="11"/>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="11">
         <v>270</v>
       </c>
@@ -9640,7 +9721,7 @@
       </c>
       <c r="C272" s="11"/>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="11">
         <v>271</v>
       </c>
@@ -9650,7 +9731,7 @@
       </c>
       <c r="C273" s="11"/>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="11">
         <v>272</v>
       </c>
@@ -9660,7 +9741,7 @@
       </c>
       <c r="C274" s="11"/>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="11">
         <v>273</v>
       </c>
@@ -9670,7 +9751,7 @@
       </c>
       <c r="C275" s="11"/>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="11">
         <v>274</v>
       </c>
@@ -9680,7 +9761,7 @@
       </c>
       <c r="C276" s="11"/>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="11">
         <v>275</v>
       </c>
@@ -9690,7 +9771,7 @@
       </c>
       <c r="C277" s="11"/>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="11">
         <v>276</v>
       </c>
@@ -9700,7 +9781,7 @@
       </c>
       <c r="C278" s="11"/>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="11">
         <v>277</v>
       </c>
@@ -9710,7 +9791,7 @@
       </c>
       <c r="C279" s="11"/>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="11">
         <v>278</v>
       </c>
@@ -9720,7 +9801,7 @@
       </c>
       <c r="C280" s="11"/>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="11">
         <v>279</v>
       </c>
@@ -9730,7 +9811,7 @@
       </c>
       <c r="C281" s="11"/>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="11">
         <v>280</v>
       </c>
@@ -9740,7 +9821,7 @@
       </c>
       <c r="C282" s="11"/>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="11">
         <v>281</v>
       </c>
@@ -9750,7 +9831,7 @@
       </c>
       <c r="C283" s="11"/>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="11">
         <v>282</v>
       </c>
@@ -9760,7 +9841,7 @@
       </c>
       <c r="C284" s="11"/>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="11">
         <v>283</v>
       </c>
@@ -9770,7 +9851,7 @@
       </c>
       <c r="C285" s="11"/>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="11">
         <v>284</v>
       </c>
@@ -9780,7 +9861,7 @@
       </c>
       <c r="C286" s="11"/>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="11">
         <v>285</v>
       </c>
@@ -9790,7 +9871,7 @@
       </c>
       <c r="C287" s="11"/>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="11">
         <v>286</v>
       </c>
@@ -9800,7 +9881,7 @@
       </c>
       <c r="C288" s="11"/>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="11">
         <v>287</v>
       </c>
@@ -9810,7 +9891,7 @@
       </c>
       <c r="C289" s="11"/>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="11">
         <v>288</v>
       </c>
@@ -9820,7 +9901,7 @@
       </c>
       <c r="C290" s="11"/>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="11">
         <v>289</v>
       </c>
@@ -9830,7 +9911,7 @@
       </c>
       <c r="C291" s="11"/>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="11">
         <v>290</v>
       </c>
@@ -9840,7 +9921,7 @@
       </c>
       <c r="C292" s="11"/>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="11">
         <v>291</v>
       </c>
@@ -9850,7 +9931,7 @@
       </c>
       <c r="C293" s="11"/>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="11">
         <v>292</v>
       </c>
@@ -9860,7 +9941,7 @@
       </c>
       <c r="C294" s="11"/>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="11">
         <v>293</v>
       </c>
@@ -9870,7 +9951,7 @@
       </c>
       <c r="C295" s="11"/>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="11">
         <v>294</v>
       </c>
@@ -9880,7 +9961,7 @@
       </c>
       <c r="C296" s="11"/>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="11">
         <v>295</v>
       </c>
@@ -9890,7 +9971,7 @@
       </c>
       <c r="C297" s="11"/>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="11">
         <v>296</v>
       </c>
@@ -9900,7 +9981,7 @@
       </c>
       <c r="C298" s="11"/>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="11">
         <v>297</v>
       </c>
@@ -9910,7 +9991,7 @@
       </c>
       <c r="C299" s="11"/>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="11">
         <v>298</v>
       </c>
@@ -9920,7 +10001,7 @@
       </c>
       <c r="C300" s="11"/>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="11">
         <v>299</v>
       </c>
@@ -9930,7 +10011,7 @@
       </c>
       <c r="C301" s="11"/>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="11">
         <v>300</v>
       </c>
@@ -9940,7 +10021,7 @@
       </c>
       <c r="C302" s="11"/>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="11">
         <v>301</v>
       </c>
@@ -9950,7 +10031,7 @@
       </c>
       <c r="C303" s="11"/>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="11">
         <v>302</v>
       </c>
@@ -9960,7 +10041,7 @@
       </c>
       <c r="C304" s="11"/>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="11">
         <v>303</v>
       </c>
@@ -9970,7 +10051,7 @@
       </c>
       <c r="C305" s="11"/>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="11">
         <v>304</v>
       </c>
@@ -9980,7 +10061,7 @@
       </c>
       <c r="C306" s="11"/>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="11">
         <v>305</v>
       </c>
@@ -9990,7 +10071,7 @@
       </c>
       <c r="C307" s="11"/>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="11">
         <v>306</v>
       </c>
@@ -10000,7 +10081,7 @@
       </c>
       <c r="C308" s="11"/>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="11">
         <v>307</v>
       </c>
@@ -10010,7 +10091,7 @@
       </c>
       <c r="C309" s="11"/>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="11">
         <v>308</v>
       </c>
@@ -10020,7 +10101,7 @@
       </c>
       <c r="C310" s="11"/>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="11">
         <v>309</v>
       </c>
@@ -10030,7 +10111,7 @@
       </c>
       <c r="C311" s="11"/>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="11">
         <v>310</v>
       </c>
@@ -10040,7 +10121,7 @@
       </c>
       <c r="C312" s="11"/>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="11">
         <v>311</v>
       </c>
@@ -10050,7 +10131,7 @@
       </c>
       <c r="C313" s="11"/>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="11">
         <v>312</v>
       </c>
@@ -10060,7 +10141,7 @@
       </c>
       <c r="C314" s="11"/>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="11">
         <v>313</v>
       </c>
@@ -10070,7 +10151,7 @@
       </c>
       <c r="C315" s="11"/>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="11">
         <v>314</v>
       </c>
@@ -10080,7 +10161,7 @@
       </c>
       <c r="C316" s="11"/>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="11">
         <v>315</v>
       </c>
@@ -10090,7 +10171,7 @@
       </c>
       <c r="C317" s="11"/>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="11">
         <v>316</v>
       </c>
@@ -10100,7 +10181,7 @@
       </c>
       <c r="C318" s="11"/>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="11">
         <v>317</v>
       </c>
@@ -10110,7 +10191,7 @@
       </c>
       <c r="C319" s="11"/>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="11">
         <v>318</v>
       </c>
@@ -10120,7 +10201,7 @@
       </c>
       <c r="C320" s="11"/>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="11">
         <v>319</v>
       </c>
@@ -10130,7 +10211,7 @@
       </c>
       <c r="C321" s="11"/>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="11">
         <v>320</v>
       </c>
@@ -10140,7 +10221,7 @@
       </c>
       <c r="C322" s="11"/>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="11">
         <v>321</v>
       </c>
@@ -10150,7 +10231,7 @@
       </c>
       <c r="C323" s="11"/>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="11">
         <v>322</v>
       </c>
@@ -10160,7 +10241,7 @@
       </c>
       <c r="C324" s="11"/>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="11">
         <v>323</v>
       </c>
@@ -10170,7 +10251,7 @@
       </c>
       <c r="C325" s="11"/>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="11">
         <v>324</v>
       </c>
@@ -10180,7 +10261,7 @@
       </c>
       <c r="C326" s="11"/>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="11">
         <v>325</v>
       </c>
@@ -10190,7 +10271,7 @@
       </c>
       <c r="C327" s="11"/>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="11">
         <v>326</v>
       </c>
@@ -10200,7 +10281,7 @@
       </c>
       <c r="C328" s="11"/>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="11">
         <v>327</v>
       </c>
@@ -10210,7 +10291,7 @@
       </c>
       <c r="C329" s="11"/>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="11">
         <v>328</v>
       </c>
@@ -10220,7 +10301,7 @@
       </c>
       <c r="C330" s="11"/>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="11">
         <v>329</v>
       </c>
@@ -10230,7 +10311,7 @@
       </c>
       <c r="C331" s="11"/>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="11">
         <v>330</v>
       </c>
@@ -10240,7 +10321,7 @@
       </c>
       <c r="C332" s="11"/>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="11">
         <v>331</v>
       </c>
@@ -10250,7 +10331,7 @@
       </c>
       <c r="C333" s="11"/>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="11">
         <v>332</v>
       </c>
@@ -10260,7 +10341,7 @@
       </c>
       <c r="C334" s="11"/>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="11">
         <v>333</v>
       </c>
@@ -10270,7 +10351,7 @@
       </c>
       <c r="C335" s="11"/>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="11">
         <v>334</v>
       </c>
@@ -10280,7 +10361,7 @@
       </c>
       <c r="C336" s="11"/>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="11">
         <v>335</v>
       </c>
@@ -10290,7 +10371,7 @@
       </c>
       <c r="C337" s="11"/>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="11">
         <v>336</v>
       </c>
@@ -10300,7 +10381,7 @@
       </c>
       <c r="C338" s="11"/>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="11">
         <v>337</v>
       </c>
@@ -10310,7 +10391,7 @@
       </c>
       <c r="C339" s="11"/>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="11">
         <v>338</v>
       </c>
@@ -10320,7 +10401,7 @@
       </c>
       <c r="C340" s="11"/>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="11">
         <v>339</v>
       </c>
@@ -10330,7 +10411,7 @@
       </c>
       <c r="C341" s="11"/>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="11">
         <v>340</v>
       </c>
@@ -10340,7 +10421,7 @@
       </c>
       <c r="C342" s="11"/>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="11">
         <v>341</v>
       </c>
@@ -10350,7 +10431,7 @@
       </c>
       <c r="C343" s="11"/>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="11">
         <v>342</v>
       </c>
@@ -10360,7 +10441,7 @@
       </c>
       <c r="C344" s="11"/>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="11">
         <v>343</v>
       </c>
@@ -10370,7 +10451,7 @@
       </c>
       <c r="C345" s="11"/>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="11">
         <v>344</v>
       </c>
@@ -10380,7 +10461,7 @@
       </c>
       <c r="C346" s="11"/>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="11">
         <v>345</v>
       </c>
@@ -10390,7 +10471,7 @@
       </c>
       <c r="C347" s="11"/>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="11">
         <v>346</v>
       </c>
@@ -10400,7 +10481,7 @@
       </c>
       <c r="C348" s="11"/>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="11">
         <v>347</v>
       </c>
@@ -10410,7 +10491,7 @@
       </c>
       <c r="C349" s="11"/>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="11">
         <v>348</v>
       </c>
@@ -10420,7 +10501,7 @@
       </c>
       <c r="C350" s="11"/>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="11">
         <v>349</v>
       </c>
@@ -10430,7 +10511,7 @@
       </c>
       <c r="C351" s="11"/>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="11">
         <v>350</v>
       </c>
@@ -10440,7 +10521,7 @@
       </c>
       <c r="C352" s="11"/>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="11">
         <v>351</v>
       </c>
@@ -10450,7 +10531,7 @@
       </c>
       <c r="C353" s="11"/>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="11">
         <v>352</v>
       </c>
@@ -10460,7 +10541,7 @@
       </c>
       <c r="C354" s="11"/>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="11">
         <v>353</v>
       </c>
@@ -10470,7 +10551,7 @@
       </c>
       <c r="C355" s="11"/>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="11">
         <v>354</v>
       </c>
@@ -10480,7 +10561,7 @@
       </c>
       <c r="C356" s="11"/>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="11">
         <v>355</v>
       </c>
@@ -10490,7 +10571,7 @@
       </c>
       <c r="C357" s="11"/>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="11">
         <v>356</v>
       </c>
@@ -10500,7 +10581,7 @@
       </c>
       <c r="C358" s="11"/>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="11">
         <v>357</v>
       </c>
@@ -10510,7 +10591,7 @@
       </c>
       <c r="C359" s="11"/>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="11">
         <v>358</v>
       </c>
@@ -10520,7 +10601,7 @@
       </c>
       <c r="C360" s="11"/>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="11">
         <v>359</v>
       </c>
@@ -10530,7 +10611,7 @@
       </c>
       <c r="C361" s="11"/>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="11">
         <v>360</v>
       </c>
@@ -10540,7 +10621,7 @@
       </c>
       <c r="C362" s="11"/>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="11">
         <v>361</v>
       </c>
@@ -10550,7 +10631,7 @@
       </c>
       <c r="C363" s="11"/>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="11">
         <v>362</v>
       </c>
@@ -10560,7 +10641,7 @@
       </c>
       <c r="C364" s="11"/>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="11">
         <v>363</v>
       </c>
@@ -10570,7 +10651,7 @@
       </c>
       <c r="C365" s="11"/>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="11">
         <v>364</v>
       </c>
@@ -10580,7 +10661,7 @@
       </c>
       <c r="C366" s="11"/>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="11">
         <v>365</v>
       </c>
@@ -10598,14 +10679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
@@ -10613,11 +10694,11 @@
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="15.75">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="41"/>
       <c r="E1" s="12" t="s">
         <v>116</v>
       </c>
@@ -10625,7 +10706,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
@@ -10642,8 +10723,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B3">
@@ -10662,8 +10743,8 @@
         <v>1727.6666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>107</v>
       </c>
       <c r="B4">
@@ -10682,8 +10763,8 @@
         <v>1021.9999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>108</v>
       </c>
       <c r="B5">
@@ -10702,8 +10783,8 @@
         <v>803.00000000000011</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>109</v>
       </c>
       <c r="B6">
@@ -10722,8 +10803,8 @@
         <v>778.66666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
         <v>110</v>
       </c>
       <c r="B7">
@@ -10742,17 +10823,17 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="45"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="B9" s="40"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="45">
         <f>27.9/7</f>
         <v>3.9857142857142853</v>
       </c>
@@ -10769,7 +10850,7 @@
         <v>969.85714285714266</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -10790,7 +10871,7 @@
         <v>573.71830985915517</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10811,7 +10892,7 @@
         <v>450.77867203219353</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -10832,7 +10913,7 @@
         <v>437.1187122736423</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -10843,7 +10924,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -10857,7 +10938,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -10885,19 +10966,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -10908,7 +10989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>128</v>
       </c>
@@ -10919,8 +11000,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>127</v>
       </c>
       <c r="C3">
@@ -10942,7 +11023,7 @@
         <v>52.142899999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>133</v>
       </c>
@@ -10953,7 +11034,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>135</v>
       </c>
@@ -10962,7 +11043,7 @@
         <v>260.71449999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>136</v>
       </c>
@@ -10971,13 +11052,13 @@
         <v>521.42899999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I8" s="46" t="s">
         <v>137</v>
       </c>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>138</v>
       </c>
@@ -10986,21 +11067,21 @@
         <v>104.28579999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>136</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="44">
         <f>J6+J9</f>
         <v>625.71479999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I16">
         <f>3*J3</f>
         <v>156.42869999999999</v>
